--- a/tdcrpy/validation/validationCo-60_v2.xlsx
+++ b/tdcrpy/validation/validationCo-60_v2.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF12F461-4F2F-4835-B20D-9D1F76DDF984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD880470-3241-43BE-9E3E-C3D90AD779DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ModelASym" sheetId="3" r:id="rId1"/>
-    <sheet name="ModelSym" sheetId="2" r:id="rId2"/>
+    <sheet name="ModelSym" sheetId="2" r:id="rId1"/>
+    <sheet name="Free_paramter correlation" sheetId="4" r:id="rId2"/>
     <sheet name="Tables" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="57">
   <si>
     <t>Reference Co-60 (NIST)</t>
   </si>
@@ -202,6 +201,15 @@
   <si>
     <t>Asymetrical model</t>
   </si>
+  <si>
+    <t>Version 0.0.76</t>
+  </si>
+  <si>
+    <t>Version 0.0.78</t>
+  </si>
+  <si>
+    <t>time faster</t>
+  </si>
 </sst>
 </file>
 
@@ -347,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -372,7 +380,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -382,12 +389,69 @@
     <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="57">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="0.0"/>
       <fill>
@@ -711,772 +775,7 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>estimations</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Tables!$C$108:$C$120</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="13"/>
-                  <c:pt idx="0">
-                    <c:v>9.4868382509655805E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.00916893667015E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.5228336935008699E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.46588795948069E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>9.7130100995358407E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>6.5270799099533296E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>4.6328836590388001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>4.00211494721081E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>3.1379606387295601E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2.66382368565496E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1.9672322652768801E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1.35211337422687E-3</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Tables!$C$108:$C$120</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="13"/>
-                  <c:pt idx="0">
-                    <c:v>9.4868382509655805E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.00916893667015E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.5228336935008699E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.46588795948069E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>9.7130100995358407E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>6.5270799099533296E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>4.6328836590388001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>4.00211494721081E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>3.1379606387295601E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2.66382368565496E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1.9672322652768801E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1.35211337422687E-3</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tables!$A$108:$A$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tables!$B$108:$B$121</c:f>
-              <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.89999999999991798</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99997976694522905</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.999834230140207</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97042322392989699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.974034364549624</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97095748797454795</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97471052388777801</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.976520694196089</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.97260897655259304</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.96885786348300795</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.97283304995231501</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.97291042044462706</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B2AD-41EF-B22A-61F1635D2294}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>valeur de référence internationale</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tables!$A$86:$A$99</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tables!$K$86:$K$99</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.97430000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B2AD-41EF-B22A-61F1635D2294}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="377683408"/>
-        <c:axId val="377673808"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="377683408"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="3200" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="3200" i="1"/>
-                  <a:t>N</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="3200" i="1" baseline="-25000"/>
-                  <a:t>i</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="3200" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="377673808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="377673808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.94000000000000006"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="3200"/>
-                  <a:t>Efficacité</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="377683408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.46216579850595596"/>
-          <c:y val="4.0227636639759659E-2"/>
-          <c:w val="0.49791700652803017"/>
-          <c:h val="0.1368613845906832"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18734859681001415"/>
-          <c:y val="3.2892643299179986E-2"/>
-          <c:w val="0.75453863651658926"/>
-          <c:h val="0.80121123408940331"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>référence</c:v>
@@ -1597,15 +896,15 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BD5A-4DE3-8017-142BD3A0ECA9}"/>
+              <c16:uniqueId val="{00000006-2388-47D3-9303-580C226012F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>modèle symétrique</c:v>
+            <c:v>modèle symétrique v0.0.78</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -1631,90 +930,96 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Tables!$C$108:$C$120</c:f>
+                <c:f>Tables!$C$131:$C$144</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="13"/>
+                  <c:ptCount val="14"/>
                   <c:pt idx="0">
-                    <c:v>9.4868382509655805E-2</c:v>
+                    <c:v>1.0000000000296701E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.00916893667015E-4</c:v>
+                    <c:v>2.8394745858847499E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.5228336935008699E-4</c:v>
+                    <c:v>1.54246475427962E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.46588795948069E-2</c:v>
+                    <c:v>1.5563360432562699E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>9.7130100995358407E-3</c:v>
+                    <c:v>8.1950683426093105E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.5270799099533296E-3</c:v>
+                    <c:v>5.87264871686171E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.6328836590388001E-3</c:v>
+                    <c:v>5.10582693702519E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.00211494721081E-3</c:v>
+                    <c:v>4.1321082703423698E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.1379606387295601E-3</c:v>
+                    <c:v>3.2146787962424798E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.66382368565496E-3</c:v>
+                    <c:v>2.1211993826268298E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.9672322652768801E-3</c:v>
+                    <c:v>1.8605943856475099E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.35211337422687E-3</c:v>
+                    <c:v>1.3904138338907599E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.0030663635827301E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Tables!$C$108:$C$120</c:f>
+                <c:f>Tables!$C$131:$C$144</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="13"/>
+                  <c:ptCount val="14"/>
                   <c:pt idx="0">
-                    <c:v>9.4868382509655805E-2</c:v>
+                    <c:v>1.0000000000296701E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.00916893667015E-4</c:v>
+                    <c:v>2.8394745858847499E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.5228336935008699E-4</c:v>
+                    <c:v>1.54246475427962E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.46588795948069E-2</c:v>
+                    <c:v>1.5563360432562699E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>9.7130100995358407E-3</c:v>
+                    <c:v>8.1950683426093105E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.5270799099533296E-3</c:v>
+                    <c:v>5.87264871686171E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.6328836590388001E-3</c:v>
+                    <c:v>5.10582693702519E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.00211494721081E-3</c:v>
+                    <c:v>4.1321082703423698E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.1379606387295601E-3</c:v>
+                    <c:v>3.2146787962424798E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.66382368565496E-3</c:v>
+                    <c:v>2.1211993826268298E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.9672322652768801E-3</c:v>
+                    <c:v>1.8605943856475099E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.35211337422687E-3</c:v>
+                    <c:v>1.3904138338907599E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.0030663635827301E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1729,7 +1034,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Tables!$A$86:$A$99</c:f>
+              <c:f>Tables!$A$131:$A$144</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1780,48 +1085,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tables!$B$86:$B$99</c:f>
+              <c:f>Tables!$B$131:$B$144</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999918793203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99999902534551099</c:v>
+                  <c:v>0.97085354760542597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98409092774370999</c:v>
+                  <c:v>0.97955893087547896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99842885364966105</c:v>
+                  <c:v>0.97082072522149199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96602421826473395</c:v>
+                  <c:v>0.97895324430115704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97734125761243695</c:v>
+                  <c:v>0.97140316539775595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96776028977950501</c:v>
+                  <c:v>0.97075401112749304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97574966077707004</c:v>
+                  <c:v>0.97498556163389205</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97619165598090696</c:v>
+                  <c:v>0.970045219378184</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97279644924364905</c:v>
+                  <c:v>0.980185355239793</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97080700472807402</c:v>
+                  <c:v>0.97510731060224398</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97283924872993899</c:v>
+                  <c:v>0.97247281917443795</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97442273869045803</c:v>
+                  <c:v>0.97167722862393502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1829,15 +1134,15 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BD5A-4DE3-8017-142BD3A0ECA9}"/>
+              <c16:uniqueId val="{00000003-2388-47D3-9303-580C226012F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:v>modèle asymétrique</c:v>
+            <c:v>modèle asymétrique v0.0.78</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1868,90 +1173,96 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Tables!$C$108:$C$120</c:f>
+                <c:f>Tables!$C$153:$C$166</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="13"/>
+                  <c:ptCount val="14"/>
                   <c:pt idx="0">
-                    <c:v>9.4868382509655805E-2</c:v>
+                    <c:v>1E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.00916893667015E-4</c:v>
+                    <c:v>1E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.5228336935008699E-4</c:v>
+                    <c:v>4.4605023803087401E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.46588795948069E-2</c:v>
+                    <c:v>5.6943984583410798E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>9.7130100995358407E-3</c:v>
+                    <c:v>1.3223967316902899E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.5270799099533296E-3</c:v>
+                    <c:v>6.4163218616926703E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.6328836590388001E-3</c:v>
+                    <c:v>4.73780304218974E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.00211494721081E-3</c:v>
+                    <c:v>4.0140669475216204E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.1379606387295601E-3</c:v>
+                    <c:v>3.0745007242883502E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.66382368565496E-3</c:v>
+                    <c:v>2.4024014575956499E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.9672322652768801E-3</c:v>
+                    <c:v>1.9070775078408901E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.35211337422687E-3</c:v>
+                    <c:v>1.3555266911556799E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.8289246366712007E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Tables!$C$108:$C$120</c:f>
+                <c:f>Tables!$C$153:$C$166</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="13"/>
+                  <c:ptCount val="14"/>
                   <c:pt idx="0">
-                    <c:v>9.4868382509655805E-2</c:v>
+                    <c:v>1E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.00916893667015E-4</c:v>
+                    <c:v>1E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.5228336935008699E-4</c:v>
+                    <c:v>4.4605023803087401E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.46588795948069E-2</c:v>
+                    <c:v>5.6943984583410798E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>9.7130100995358407E-3</c:v>
+                    <c:v>1.3223967316902899E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.5270799099533296E-3</c:v>
+                    <c:v>6.4163218616926703E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.6328836590388001E-3</c:v>
+                    <c:v>4.73780304218974E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.00211494721081E-3</c:v>
+                    <c:v>4.0140669475216204E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.1379606387295601E-3</c:v>
+                    <c:v>3.0745007242883502E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.66382368565496E-3</c:v>
+                    <c:v>2.4024014575956499E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.9672322652768801E-3</c:v>
+                    <c:v>1.9070775078408901E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.35211337422687E-3</c:v>
+                    <c:v>1.3555266911556799E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.8289246366712007E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1971,7 +1282,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Tables!$A$108:$A$121</c:f>
+              <c:f>Tables!$A$153:$A$166</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2022,45 +1333,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tables!$B$108:$B$121</c:f>
+              <c:f>Tables!$B$153:$B$166</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.89999999999991798</c:v>
+                  <c:v>0.99999999999975597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99997976694522905</c:v>
+                  <c:v>0.99999999998685996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.999834230140207</c:v>
+                  <c:v>0.99355282406985101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97042322392989699</c:v>
+                  <c:v>0.99911541246763902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.974034364549624</c:v>
+                  <c:v>0.95590071845454605</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97095748797454795</c:v>
+                  <c:v>0.97021577784225399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97471052388777801</c:v>
+                  <c:v>0.97455790938176401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.976520694196089</c:v>
+                  <c:v>0.97712675202761301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97260897655259304</c:v>
+                  <c:v>0.97130484785958604</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96885786348300795</c:v>
+                  <c:v>0.97469866140611805</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97283304995231501</c:v>
+                  <c:v>0.97309665583739302</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97291042044462706</c:v>
+                  <c:v>0.97438443690259602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97236278425293698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2068,7 +1382,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BD5A-4DE3-8017-142BD3A0ECA9}"/>
+              <c16:uniqueId val="{00000005-2388-47D3-9303-580C226012F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2082,6 +1396,494 @@
         </c:dLbls>
         <c:axId val="377683408"/>
         <c:axId val="377673808"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>modèle symétrique v0.0.76</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:errBars>
+                  <c:errDir val="y"/>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="cust"/>
+                  <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numRef>
+                      <c:f>Tables!$C$86:$C$98</c:f>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="13"/>
+                        <c:pt idx="0">
+                          <c:v>1E-4</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>1.00004023012459E-4</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>1.57450069007182E-2</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>1.4501795719273E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>1.12280905510878E-2</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>5.3492086640359897E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>4.9156807982157803E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>4.13928230830747E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2.83597127328472E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2.5502114442741801E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2.0296784458947201E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>1.3675480918551499E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>9.5970702563293899E-4</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:plus>
+                  <c:minus>
+                    <c:numRef>
+                      <c:f>Tables!$C$86:$C$98</c:f>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="13"/>
+                        <c:pt idx="0">
+                          <c:v>1E-4</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>1.00004023012459E-4</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>1.57450069007182E-2</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>1.4501795719273E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>1.12280905510878E-2</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>5.3492086640359897E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>4.9156807982157803E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>4.13928230830747E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2.83597127328472E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2.5502114442741801E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2.0296784458947201E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>1.3675480918551499E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>9.5970702563293899E-4</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:minus>
+                  <c:spPr>
+                    <a:ln w="38100">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:errBars>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tables!$A$86:$A$99</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>800</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tables!$B$86:$B$99</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000%</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.99999902534551099</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.98409092774370999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.99842885364966105</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.96602421826473395</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.97734125761243695</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.96776028977950501</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.97574966077707004</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.97619165598090696</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.97279644924364905</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.97080700472807402</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.97283924872993899</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.97442273869045803</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-2388-47D3-9303-580C226012F8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>modèle asymétrique v0.0.76</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:errBars>
+                  <c:errDir val="y"/>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="cust"/>
+                  <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numRef>
+                      <c:f>Tables!$C$108:$C$120</c:f>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="13"/>
+                        <c:pt idx="0">
+                          <c:v>9.4868382509655805E-2</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>1.00916893667015E-4</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>1.5228336935008699E-4</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>1.46588795948069E-2</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>9.7130100995358407E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>6.5270799099533296E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>4.6328836590388001E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>4.00211494721081E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>3.1379606387295601E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2.66382368565496E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>1.9672322652768801E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>1.35211337422687E-3</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:plus>
+                  <c:minus>
+                    <c:numRef>
+                      <c:f>Tables!$C$108:$C$120</c:f>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="13"/>
+                        <c:pt idx="0">
+                          <c:v>9.4868382509655805E-2</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>1.00916893667015E-4</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>1.5228336935008699E-4</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>1.46588795948069E-2</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>9.7130100995358407E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>6.5270799099533296E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>4.6328836590388001E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>4.00211494721081E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>3.1379606387295601E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2.66382368565496E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>1.9672322652768801E-3</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>1.35211337422687E-3</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:minus>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:alpha val="57000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:errBars>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tables!$A$108:$A$121</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>800</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tables!$B$108:$B$121</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000%</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>0.89999999999991798</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.99997976694522905</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.999834230140207</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.97042322392989699</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.974034364549624</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.97095748797454795</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.97471052388777801</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.976520694196089</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.97260897655259304</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.96885786348300795</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.97283304995231501</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.97291042044462706</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-2388-47D3-9303-580C226012F8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="377683408"/>
@@ -2321,10 +2123,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.4771716280283303"/>
-          <c:y val="3.3961576503426946E-2"/>
+          <c:x val="0.47389374108969284"/>
+          <c:y val="3.5634738006759738E-2"/>
           <c:w val="0.46403040095023379"/>
-          <c:h val="0.21544659823411252"/>
+          <c:h val="0.15688449130817311"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2345,6 +2147,802 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>asymetrical model v0.0.76</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tables!$G$108:$G$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.66911798409155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9926993925645999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.72469102398248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92499389026511303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6095438314436099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.21163967509254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1983810712888701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.00735465515953</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0180555555555499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96682849921400005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1056124408624299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0707615407533899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tables!$F$108:$F$119</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-7.6225452570257701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6395396276458039E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6246014947354013E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>-3.9419172208513542E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3538411896939504E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.3935399696786162E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5863675502366696E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00%">
+                  <c:v>2.316624818724522E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00%">
+                  <c:v>-1.6984253988240328E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00%">
+                  <c:v>-5.5486284857285684E-3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>-1.4684328394694024E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.3890185155582824E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-ECD7-4F25-B06F-3A3A5229A7D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>symetrical model v0.0.76</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tables!$G$86:$G$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.6261646097200499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.63932022718894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7631988969183201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.85410197864709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94444498081293604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1457249631767901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.29416855010804</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.09784745834081</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0901699434910901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0468643338310299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1246117971245799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tables!$F$86:$F$98</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.6416163810918381E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.641516340979666E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0086834895826513E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>2.4803513801217925E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.4571277402705203E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1588643726960797E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.6751958759777574E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00%">
+                  <c:v>1.5252236546050568E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00%">
+                  <c:v>1.9788946761503112E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00%">
+                  <c:v>-1.5060003984510573E-3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>-3.5479984062422032E-3</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00%">
+                  <c:v>-1.4620703139202051E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6324937678890983E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-ECD7-4F25-B06F-3A3A5229A7D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>asymetrical model v0.0.78</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tables!$G$153:$G$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.5699951241173902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4324264855820998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0098406394308499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0844665816284702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99414503320721703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.14174978691408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.16001002060544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1650378719602099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0432196828253</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.10277243577408</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.08874409587036</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1674823730130499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.03444386627606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tables!$F$153:$F$165</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.6416163810667914E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6416163797431169E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9798678225280808E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>2.550820886939742E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8848051579784197E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.154843238327488E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0199075921877316E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00%">
+                  <c:v>2.9386923732050985E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00%">
+                  <c:v>-3.0370041690160887E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00%">
+                  <c:v>4.4646091210487349E-4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>-1.1978634981496539E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2393580262437531E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.9511211545968354E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-ECD7-4F25-B06F-3A3A5229A7D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>symetrical model v0.0.78</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tables!$G$131:$G$144</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.8196601152388401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9787137682881299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4156747295438501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6177539619694401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6362146072069099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0444918509418399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.10835055967366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0181806160862901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.31308230427802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.08853059837199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0892637358011601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0406530935326901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tables!$F$131:$F$143</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.6416162977398683E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.5002260446178601E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4351200559337176E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>-3.533915470022575E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8134335658462923E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.9360894586523134E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.6023918944571021E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00%">
+                  <c:v>7.4093994329316182E-4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00%">
+                  <c:v>-4.3299072027237484E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00%">
+                  <c:v>6.0780921488705619E-3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>8.6590505233696824E-4</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00%">
+                  <c:v>-1.8381795325845829E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.6547865333960141E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-ECD7-4F25-B06F-3A3A5229A7D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406905504"/>
+        <c:axId val="1587837920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406905504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000"/>
+                  <a:t>Free</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000" baseline="0"/>
+                  <a:t> parameter /keV-1</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587837920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1587837920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-2"/>
+          <c:min val="-1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406905504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5053,46 +5651,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6680,527 +7238,11 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4434FB49-F30B-4A57-9D0C-867DA7683F38}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F388A5FC-AE15-4458-B3E9-16AF6815805A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="146" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7208,10 +7250,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F388A5FC-AE15-4458-B3E9-16AF6815805A}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{18989E30-B0EA-429F-B87A-6F4A60F8F2EB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="146" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7222,13 +7264,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309709" cy="6080342"/>
+    <xdr:ext cx="11623477" cy="7590234"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE54EF5E-F782-4DBD-F28A-302A65AB5BEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B3B4942-D9C4-7968-1F50-2B1B5C731F9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7255,13 +7297,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309709" cy="6080342"/>
+    <xdr:ext cx="11598088" cy="7563971"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B3B4942-D9C4-7968-1F50-2B1B5C731F9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40116CBA-0327-91FB-8E9B-499416A415D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7406,30 +7448,30 @@
   <autoFilter ref="A14:I31" xr:uid="{CE154909-7646-477D-8B60-509F398D009F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DDAABB74-83B7-4A9A-A978-ACBC6E410C19}" name="N"/>
-    <tableColumn id="2" xr3:uid="{0AA70936-8F84-45A0-BDA6-0B48F50D8456}" name="eff (stochastic)" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{CC8B2236-DD4D-4D4A-B450-AF4A42700DB8}" name="u(eff)" dataDxfId="41" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{0AA70936-8F84-45A0-BDA6-0B48F50D8456}" name="eff (stochastic)" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{CC8B2236-DD4D-4D4A-B450-AF4A42700DB8}" name="u(eff)" dataDxfId="55" dataCellStyle="Percent"/>
     <tableColumn id="3" xr3:uid="{F519117B-BD8C-4D86-8925-34E52A9B33AA}" name="time /s"/>
-    <tableColumn id="4" xr3:uid="{4C05EF6D-660F-41D6-BD8A-A706F835288E}" name="error" dataDxfId="40" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{4C05EF6D-660F-41D6-BD8A-A706F835288E}" name="error" dataDxfId="54" dataCellStyle="Percent">
       <calculatedColumnFormula>B15/B$5-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C52CC8CE-0CF9-4BDD-85DA-B7B7E424ADFB}" name="L /keV-1" dataDxfId="39" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{FF4F8F5D-D5E2-4E8C-95FD-6BDE1A995214}" name="LA /keV-1" dataDxfId="38" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{AD370BAA-110E-45FB-8017-6C63B1F0C6DC}" name="LB /keV-1" dataDxfId="37" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{0D9EDC29-DB17-43EE-9A9E-873BA5DEC89A}" name="LC /keV-1" dataDxfId="36" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{C52CC8CE-0CF9-4BDD-85DA-B7B7E424ADFB}" name="L /keV-1" dataDxfId="53" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{FF4F8F5D-D5E2-4E8C-95FD-6BDE1A995214}" name="LA /keV-1" dataDxfId="52" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{AD370BAA-110E-45FB-8017-6C63B1F0C6DC}" name="LB /keV-1" dataDxfId="51" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{0D9EDC29-DB17-43EE-9A9E-873BA5DEC89A}" name="LC /keV-1" dataDxfId="50" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}" name="Table2" displayName="Table2" ref="A45:F54" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}" name="Table2" displayName="Table2" ref="A45:F54" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47">
   <autoFilter ref="A45:F54" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2A7212F2-06BB-4D63-B68E-00B66F9BA6D8}" name="N"/>
-    <tableColumn id="2" xr3:uid="{D4B2378E-DEE0-403B-9A01-7D7DAF895C2A}" name="eff (stochastic)" dataDxfId="32" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{DCBF8CA2-4B7B-45F6-A4C1-21C25175DEC1}" name="std" dataDxfId="31" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{76B9D488-065E-48FD-8C5C-DFB2F4A7C18C}" name="time /s" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{B3632296-46F8-4FFB-B621-41267E9BD825}" name="error" dataDxfId="29">
+    <tableColumn id="2" xr3:uid="{D4B2378E-DEE0-403B-9A01-7D7DAF895C2A}" name="eff (stochastic)" dataDxfId="46" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{DCBF8CA2-4B7B-45F6-A4C1-21C25175DEC1}" name="std" dataDxfId="45" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{76B9D488-065E-48FD-8C5C-DFB2F4A7C18C}" name="time /s" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{B3632296-46F8-4FFB-B621-41267E9BD825}" name="error" dataDxfId="43">
       <calculatedColumnFormula>B46/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{FC6E204E-4636-4F11-8582-10674B968FF7}" name="L /keV-1"/>
@@ -7439,21 +7481,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}" name="Table24" displayName="Table24" ref="A62:H71" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}" name="Table24" displayName="Table24" ref="A62:H71" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40">
   <autoFilter ref="A62:H71" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8F2C12A2-FD44-4CE7-AE3E-946D17F8E77D}" name="N"/>
-    <tableColumn id="2" xr3:uid="{DFE623A6-4D03-4FC8-8636-F552CAFF9337}" name="eff (stochastic)" dataDxfId="25" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{79B4CF1D-0184-4DC2-9C5F-BA40F6EAABC6}" name="std" dataDxfId="24" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{7F75FB14-269C-48EF-ACB6-BFCBC8D8F3E9}" name="time /s" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{5373102D-9EEB-4008-B4E8-DDFBFA8B5659}" name="error" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{DFE623A6-4D03-4FC8-8636-F552CAFF9337}" name="eff (stochastic)" dataDxfId="39" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{79B4CF1D-0184-4DC2-9C5F-BA40F6EAABC6}" name="std" dataDxfId="38" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{7F75FB14-269C-48EF-ACB6-BFCBC8D8F3E9}" name="time /s" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{5373102D-9EEB-4008-B4E8-DDFBFA8B5659}" name="error" dataDxfId="36">
       <calculatedColumnFormula>B63/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{2EA1A9A7-9F1E-4C41-8D47-473AFC686CDF}" name="L /keV-1"/>
-    <tableColumn id="6" xr3:uid="{6FA56703-B0EB-4061-BA8B-CBE48889BD88}" name="speed" dataDxfId="21">
+    <tableColumn id="6" xr3:uid="{6FA56703-B0EB-4061-BA8B-CBE48889BD88}" name="speed" dataDxfId="35">
       <calculatedColumnFormula>Table24[[#This Row],[N]]/Table24[[#This Row],[time /s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4668A5EC-12A1-4427-BA2D-CC7DA1B9E712}" name="time/h" dataDxfId="20">
+    <tableColumn id="7" xr3:uid="{4668A5EC-12A1-4427-BA2D-CC7DA1B9E712}" name="time/h" dataDxfId="34">
       <calculatedColumnFormula>Table24[[#This Row],[time /s]]/3600</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7466,17 +7508,17 @@
   <autoFilter ref="A75:H78" xr:uid="{5754EABE-BCB3-4E1A-9DB8-2647BBDDC114}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{174981E2-18F0-4578-87C4-D60BCD6AD8B8}" name="Method"/>
-    <tableColumn id="2" xr3:uid="{4C63FD53-4E05-49BB-AE06-25A9EA64DA2A}" name="eff" dataDxfId="19" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{5F8FF70E-D2C0-49A0-8AE0-991399ADA1AA}" name="u" dataDxfId="18" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{2CB36EE8-CC8A-4E9E-A506-DCD96BBC92F2}" name="time /s" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{9D6C63CC-25B7-465E-BA81-97F393A00604}" name="error" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{4C63FD53-4E05-49BB-AE06-25A9EA64DA2A}" name="eff" dataDxfId="33" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{5F8FF70E-D2C0-49A0-8AE0-991399ADA1AA}" name="u" dataDxfId="32" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{2CB36EE8-CC8A-4E9E-A506-DCD96BBC92F2}" name="time /s" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{9D6C63CC-25B7-465E-BA81-97F393A00604}" name="error" dataDxfId="30">
       <calculatedColumnFormula>B76/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{8A97AEEF-A278-406A-9A09-82BAB22A8485}" name="L/keV-1"/>
-    <tableColumn id="7" xr3:uid="{18402C67-F13C-4B86-92DE-7941792C7C21}" name="speed" dataDxfId="15">
+    <tableColumn id="7" xr3:uid="{18402C67-F13C-4B86-92DE-7941792C7C21}" name="speed" dataDxfId="29">
       <calculatedColumnFormula>10000/Table5[[#This Row],[time /s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC928F03-2BC6-4639-8B90-568D89035180}" name="time/h" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{AC928F03-2BC6-4639-8B90-568D89035180}" name="time/h" dataDxfId="28">
       <calculatedColumnFormula>Table5[[#This Row],[time /s]]/3600</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7489,21 +7531,21 @@
   <autoFilter ref="A85:J99" xr:uid="{02403DAC-D5F4-4847-B640-D5ABB9BC5109}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F20144C8-F0B1-443F-8ACE-7A8491A3BD44}" name="N"/>
-    <tableColumn id="2" xr3:uid="{6D4919DB-A5DF-45B0-BB6B-C4792284C9D8}" name="eff (stochastic)" dataDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{CA5A0DF5-F5FE-4A6F-A33C-CC982089C42E}" name="std" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{6D4919DB-A5DF-45B0-BB6B-C4792284C9D8}" name="eff (stochastic)" dataDxfId="27" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{CA5A0DF5-F5FE-4A6F-A33C-CC982089C42E}" name="std" dataDxfId="26" dataCellStyle="Percent"/>
     <tableColumn id="4" xr3:uid="{18704ADD-5A08-490C-8CA4-93F4A0C99976}" name="time /s"/>
-    <tableColumn id="9" xr3:uid="{24E1A1F8-7146-4275-9A11-ECCF568B0B0E}" name="interation" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{6B02D242-A899-4DBA-9577-367B45D4142B}" name="error" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{24E1A1F8-7146-4275-9A11-ECCF568B0B0E}" name="interation" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{6B02D242-A899-4DBA-9577-367B45D4142B}" name="error" dataDxfId="24">
       <calculatedColumnFormula>B86/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{26A8B87D-A16A-4AF0-BC8E-1B00C8A244CE}" name="L /keV-1"/>
-    <tableColumn id="7" xr3:uid="{7C23E836-A52A-498C-86AF-D0584542A557}" name="speed /s" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{7C23E836-A52A-498C-86AF-D0584542A557}" name="speed /s" dataDxfId="23">
       <calculatedColumnFormula>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0A312CBD-58B9-48C7-9B79-0F6F994FEA00}" name="time /h" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{0A312CBD-58B9-48C7-9B79-0F6F994FEA00}" name="time /h" dataDxfId="22">
       <calculatedColumnFormula>Table4[[#This Row],[time /s]]/3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0C660F51-E374-40AD-A647-0D23A74A704A}" name="Z-score" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{0C660F51-E374-40AD-A647-0D23A74A704A}" name="Z-score" dataDxfId="21">
       <calculatedColumnFormula>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7516,25 +7558,82 @@
   <autoFilter ref="A107:M121" xr:uid="{BD8F3B19-3AF7-4026-99BD-ABC18E124E71}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{2034803E-B4B6-4901-A5F9-C484A76FD21C}" name="N"/>
-    <tableColumn id="2" xr3:uid="{AC62611A-36F0-4490-BE29-4F5C95567877}" name="eff (stochastic)" dataDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{8A3D8C01-2B92-4C5B-81E8-E7BF75D17D6E}" name="std" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{AC62611A-36F0-4490-BE29-4F5C95567877}" name="eff (stochastic)" dataDxfId="20" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{8A3D8C01-2B92-4C5B-81E8-E7BF75D17D6E}" name="std" dataDxfId="19" dataCellStyle="Percent"/>
     <tableColumn id="4" xr3:uid="{F780DF52-214B-4153-B238-79C45B603F23}" name="time /s"/>
-    <tableColumn id="9" xr3:uid="{7FC33D46-B3E6-4ADA-AC9B-FDF0C695575A}" name="interation" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{51424C08-23C8-4135-A6F9-E6E1E3E9E069}" name="error" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{7FC33D46-B3E6-4ADA-AC9B-FDF0C695575A}" name="interation" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{51424C08-23C8-4135-A6F9-E6E1E3E9E069}" name="error" dataDxfId="17">
       <calculatedColumnFormula>B108/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{373866C6-6FF2-4DF9-8031-12E64AF26EE9}" name="L /keV-1"/>
     <tableColumn id="13" xr3:uid="{08D2C2DF-FD03-4D21-8243-DBD2E4E3B946}" name="LA /keV-1"/>
     <tableColumn id="12" xr3:uid="{60D36303-EAB7-40E2-8770-E17A8B5DD3AE}" name="LB /keV-1"/>
     <tableColumn id="11" xr3:uid="{FD3C92D0-B313-468F-9F2B-72309F29573B}" name="LC /keV-1"/>
-    <tableColumn id="7" xr3:uid="{013B7DB1-A952-4323-BD1D-3018A2EBCF91}" name="speed /s" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{013B7DB1-A952-4323-BD1D-3018A2EBCF91}" name="speed /s" dataDxfId="16">
       <calculatedColumnFormula>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2142541B-6C24-4D72-823E-46165F298113}" name="time /h" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{2142541B-6C24-4D72-823E-46165F298113}" name="time /h" dataDxfId="15">
       <calculatedColumnFormula>Table47[[#This Row],[time /s]]/3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{BF5DCFC9-8584-484D-B4FC-744740AAE63E}" name="Z-score" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{BF5DCFC9-8584-484D-B4FC-744740AAE63E}" name="Z-score" dataDxfId="14">
       <calculatedColumnFormula>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{24B6E3DF-F151-43AB-98AE-88A67DD42249}" name="Table48" displayName="Table48" ref="A130:J144" totalsRowShown="0">
+  <autoFilter ref="A130:J144" xr:uid="{24B6E3DF-F151-43AB-98AE-88A67DD42249}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{1A312C32-9FCA-41AE-BBF3-0E1189CFB3E5}" name="N"/>
+    <tableColumn id="2" xr3:uid="{23CC626A-68F3-43FF-9384-035F3812EF42}" name="eff (stochastic)" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{FEA266E2-E5E2-4F9E-BCAB-31B870556071}" name="std" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{448CB9AD-EE87-451E-8B25-0EE71085E792}" name="time /s"/>
+    <tableColumn id="9" xr3:uid="{3D2BDB44-7407-44AF-8B6D-19C74B3EF920}" name="interation" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{CF8B6E0E-B6BC-42B6-BD79-992F016E48F9}" name="error" dataDxfId="10">
+      <calculatedColumnFormula>B131/B$5-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{6FFE4936-878E-4317-A067-EE4AC45CE5C5}" name="L /keV-1"/>
+    <tableColumn id="7" xr3:uid="{D2FB2BFE-9112-4705-9D7B-07D340DA3BBC}" name="speed /s" dataDxfId="9">
+      <calculatedColumnFormula>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{EC225E2A-8E22-4676-B463-53E0BCD0C837}" name="time /h" dataDxfId="8">
+      <calculatedColumnFormula>Table48[[#This Row],[time /s]]/3600</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{9D985096-4123-4E85-B451-0D523A795D58}" name="Z-score" dataDxfId="7">
+      <calculatedColumnFormula>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2EAD48A6-0370-4313-99C6-706237C08F90}" name="Table479" displayName="Table479" ref="A152:M166" totalsRowShown="0">
+  <autoFilter ref="A152:M166" xr:uid="{2EAD48A6-0370-4313-99C6-706237C08F90}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{4936D717-6A48-44A9-B3F8-AD43FF4DBAEA}" name="N"/>
+    <tableColumn id="2" xr3:uid="{05152AB6-FBEE-4D8C-8972-8AADD038EDD3}" name="eff (stochastic)" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{487B6454-47C0-473F-B56B-87BC9FBD6525}" name="std" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{B06F9C07-E7BF-4288-BED3-4C97CB606F5D}" name="time /s"/>
+    <tableColumn id="9" xr3:uid="{175C5E83-32ED-47D6-837B-81D7CEDCF30F}" name="interation" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{581325E5-812B-46FB-AB3E-4F0EF2E9D513}" name="error" dataDxfId="3">
+      <calculatedColumnFormula>B153/B$5-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{234C2629-0DD0-4C9F-906A-25E8843F567A}" name="L /keV-1"/>
+    <tableColumn id="13" xr3:uid="{EB7613CB-4675-4100-8500-0CC47CA99624}" name="LA /keV-1"/>
+    <tableColumn id="12" xr3:uid="{247FDCBC-64CE-43CD-8AC9-8259472F6D90}" name="LB /keV-1"/>
+    <tableColumn id="11" xr3:uid="{BC1F7DB4-29E0-4C86-B60F-ABD31D50B674}" name="LC /keV-1"/>
+    <tableColumn id="7" xr3:uid="{2AECCDA0-2990-4A3D-80AF-B2DAC0A52A36}" name="speed /s" dataDxfId="2">
+      <calculatedColumnFormula>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{47842E90-0810-4534-9AFB-FD27204EF560}" name="time /h" dataDxfId="1">
+      <calculatedColumnFormula>Table479[[#This Row],[time /s]]/3600</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{C2D7729C-B424-48AD-8D16-1C4AB2258D34}" name="Z-score" dataDxfId="0">
+      <calculatedColumnFormula>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7804,25 +7903,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:P166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="L119" sqref="L119"/>
+    <sheetView tabSelected="1" topLeftCell="G155" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>13</v>
       </c>
@@ -7833,7 +7934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>15</v>
       </c>
@@ -7844,7 +7945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -7853,7 +7954,7 @@
         <v>0.9742636907501151</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -7861,7 +7962,7 @@
         <v>0.9788</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -7892,7 +7993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>17</v>
       </c>
@@ -7906,7 +8007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -7926,7 +8027,7 @@
         <v>1.2941300000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -7950,7 +8051,7 @@
         <v>1.29413</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -7970,7 +8071,7 @@
         <v>0.9883945110756257</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>32</v>
       </c>
@@ -7978,7 +8079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -8007,7 +8108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -8035,7 +8136,7 @@
         <v>1.33515603</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20</v>
       </c>
@@ -8063,7 +8164,7 @@
         <v>1.34476956</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>50</v>
       </c>
@@ -8091,7 +8192,7 @@
         <v>1.38125137</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>100</v>
       </c>
@@ -8119,7 +8220,7 @@
         <v>1.2685830600000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>200</v>
       </c>
@@ -8147,7 +8248,7 @@
         <v>1.2981736100000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>500</v>
       </c>
@@ -8175,7 +8276,7 @@
         <v>1.2401983700000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -8203,7 +8304,7 @@
         <v>1.30252006</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -8231,7 +8332,7 @@
         <v>1.2810168200000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3000</v>
       </c>
@@ -8259,7 +8360,7 @@
         <v>1.30819452</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4000</v>
       </c>
@@ -8289,7 +8390,7 @@
         <v>1.3425934399999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5000</v>
       </c>
@@ -8317,7 +8418,7 @@
         <v>1.29657143</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6000</v>
       </c>
@@ -8347,7 +8448,7 @@
         <v>1.3236160100000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7000</v>
       </c>
@@ -8377,7 +8478,7 @@
         <v>1.2536183400000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8000</v>
       </c>
@@ -8407,7 +8508,7 @@
         <v>1.3328032000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>9000</v>
       </c>
@@ -8437,7 +8538,7 @@
         <v>1.2411934200000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10000</v>
       </c>
@@ -8467,7 +8568,7 @@
         <v>1.2936871700000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20000</v>
       </c>
@@ -8497,12 +8598,12 @@
         <v>1.19452983</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -8510,7 +8611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F35" s="13">
         <f t="shared" ref="F35:H38" si="1">G21/$F$23</f>
         <v>0.97891059344949483</v>
@@ -8524,7 +8625,7 @@
         <v>0.98471833874446468</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F36" s="13">
         <f t="shared" si="1"/>
         <v>1.0118334882060473</v>
@@ -8538,7 +8639,7 @@
         <v>0.96846167182570453</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F37" s="13">
         <f t="shared" si="1"/>
         <v>0.98069972918423032</v>
@@ -8552,7 +8653,7 @@
         <v>0.98900828789463124</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F38" s="13">
         <f t="shared" si="1"/>
         <v>0.98543679027577979</v>
@@ -8566,7 +8667,7 @@
         <v>1.0150142193172949</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -8583,7 +8684,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>6</v>
       </c>
@@ -8603,7 +8704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>10</v>
       </c>
@@ -8613,7 +8714,7 @@
       <c r="C46" s="9">
         <v>0</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="27">
         <v>5.2425560000000004</v>
       </c>
       <c r="E46" s="9">
@@ -8624,7 +8725,7 @@
         <v>4.76132539402004</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>20</v>
       </c>
@@ -8634,7 +8735,7 @@
       <c r="C47" s="11">
         <v>5.2350578762301402E-5</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="28">
         <v>11.377882</v>
       </c>
       <c r="E47" s="11">
@@ -8645,7 +8746,7 @@
         <v>1.56230482634155</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>50</v>
       </c>
@@ -8655,7 +8756,7 @@
       <c r="C48" s="9">
         <v>1.7151998059231201E-2</v>
       </c>
-      <c r="D48" s="28">
+      <c r="D48" s="27">
         <v>28.254159999999999</v>
       </c>
       <c r="E48" s="9">
@@ -8666,7 +8767,7 @@
         <v>1.0019229842906301</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>100</v>
       </c>
@@ -8676,7 +8777,7 @@
       <c r="C49" s="11">
         <v>1.3704898814054099E-3</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="28">
         <v>55.383166000000003</v>
       </c>
       <c r="E49" s="11">
@@ -8687,7 +8788,7 @@
         <v>1.57546064880198</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1000</v>
       </c>
@@ -8708,7 +8809,7 @@
         <v>0.97567425102328897</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2000</v>
       </c>
@@ -8729,7 +8830,7 @@
         <v>0.99882342212500197</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3000</v>
       </c>
@@ -8750,7 +8851,7 @@
         <v>1.0688837073264801</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5000</v>
       </c>
@@ -8771,7 +8872,7 @@
         <v>1.1927623679358801</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>10000</v>
       </c>
@@ -8792,27 +8893,27 @@
         <v>1.0213270926685001</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="E58" s="21"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -8829,7 +8930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>6</v>
       </c>
@@ -8855,7 +8956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>10</v>
       </c>
@@ -8865,7 +8966,7 @@
       <c r="C63" s="9">
         <v>9.0054235389743999E-8</v>
       </c>
-      <c r="D63" s="28">
+      <c r="D63" s="27">
         <v>5.4687739999999998</v>
       </c>
       <c r="E63" s="9">
@@ -8884,7 +8985,7 @@
         <v>1.5191038888888889E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>20</v>
       </c>
@@ -8894,7 +8995,7 @@
       <c r="C64" s="11">
         <v>2.3457292431222801E-3</v>
       </c>
-      <c r="D64" s="29">
+      <c r="D64" s="28">
         <v>11.343603</v>
       </c>
       <c r="E64" s="11">
@@ -8913,7 +9014,7 @@
         <v>3.1510008333333335E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>50</v>
       </c>
@@ -8923,7 +9024,7 @@
       <c r="C65" s="9">
         <v>8.8425708328747996E-3</v>
       </c>
-      <c r="D65" s="28">
+      <c r="D65" s="27">
         <v>28.603586</v>
       </c>
       <c r="E65" s="9">
@@ -8942,7 +9043,7 @@
         <v>7.9454405555555562E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>100</v>
       </c>
@@ -8952,7 +9053,7 @@
       <c r="C66" s="11">
         <v>9.45806051909002E-3</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="28">
         <v>55.921340999999998</v>
       </c>
       <c r="E66" s="11">
@@ -8971,7 +9072,7 @@
         <v>1.5533705833333333E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1000</v>
       </c>
@@ -9000,7 +9101,7 @@
         <v>0.15472158472222222</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2000</v>
       </c>
@@ -9029,7 +9130,7 @@
         <v>0.30941774138888889</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3000</v>
       </c>
@@ -9058,7 +9159,7 @@
         <v>0.47304819777777779</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5000</v>
       </c>
@@ -9087,7 +9188,7 @@
         <v>0.79639074750000005</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>10000</v>
       </c>
@@ -9116,12 +9217,12 @@
         <v>1.5922514413888889</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -9147,7 +9248,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -9176,7 +9277,7 @@
         <v>1.6061366683333334</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -9205,17 +9306,17 @@
         <v>1.3922512983333333</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B78" s="25">
+      <c r="B78" s="24">
         <v>0.97255643046974405</v>
       </c>
-      <c r="C78" s="25">
+      <c r="C78" s="24">
         <v>1.38806657060112E-3</v>
       </c>
-      <c r="D78" s="27">
+      <c r="D78" s="26">
         <v>3161.9371609999998</v>
       </c>
       <c r="E78" s="22">
@@ -9234,7 +9335,12 @@
         <v>0.87831587805555555</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -9250,7 +9356,7 @@
       <c r="E82" t="s">
         <v>31</v>
       </c>
-      <c r="H82" s="26">
+      <c r="H82" s="25">
         <f>AVERAGE(H86:H96)</f>
         <v>3.5297902205180307</v>
       </c>
@@ -9261,19 +9367,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E83" t="s">
         <v>47</v>
       </c>
       <c r="F83">
         <v>20</v>
       </c>
-      <c r="H83" s="26">
+      <c r="H83" s="25">
         <f>_xlfn.STDEV.S(H86:H96)</f>
         <v>7.1019712816277225E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -9308,7 +9414,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>10</v>
       </c>
@@ -9339,7 +9445,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>1.5922342222222222E-2</v>
       </c>
-      <c r="J86" s="31">
+      <c r="J86" s="30">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>264.1616381091838</v>
       </c>
@@ -9351,7 +9457,7 @@
         <v>1.00265302811656E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>20</v>
       </c>
@@ -9382,7 +9488,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>3.1126325833333333E-2</v>
       </c>
-      <c r="J87" s="31">
+      <c r="J87" s="30">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>264.14100767231861</v>
       </c>
@@ -9394,7 +9500,7 @@
         <v>2.0395525828444099E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>50</v>
       </c>
@@ -9425,7 +9531,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>8.2740062499999989E-2</v>
       </c>
-      <c r="J88" s="31">
+      <c r="J88" s="30">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.64063705779426539</v>
       </c>
@@ -9437,7 +9543,7 @@
         <v>1.9879563526973999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>100</v>
       </c>
@@ -9468,7 +9574,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>0.16039078722222222</v>
       </c>
-      <c r="J89" s="31">
+      <c r="J89" s="30">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>17.103753411899092</v>
       </c>
@@ -9480,7 +9586,7 @@
         <v>1.14097567092479E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>200</v>
       </c>
@@ -9511,7 +9617,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>0.30786678333333334</v>
       </c>
-      <c r="J90" s="30">
+      <c r="J90" s="33">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.75321157251008963</v>
       </c>
@@ -9523,7 +9629,7 @@
         <v>3.7538272730722301E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>500</v>
       </c>
@@ -9554,7 +9660,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>0.7801351319444445</v>
       </c>
-      <c r="J91" s="30">
+      <c r="J91" s="33">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.59052928593604526</v>
       </c>
@@ -9566,7 +9672,7 @@
         <v>3.13060226043556E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>800</v>
       </c>
@@ -9597,7 +9703,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>1.2436036622222224</v>
       </c>
-      <c r="J92" s="30">
+      <c r="J92" s="33">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>1.3579392458518909</v>
       </c>
@@ -9609,7 +9715,7 @@
         <v>2.57491114706141E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1000</v>
       </c>
@@ -9640,7 +9746,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>1.5612693875000001</v>
       </c>
-      <c r="J93" s="30">
+      <c r="J93" s="33">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.36847538800239804</v>
       </c>
@@ -9652,7 +9758,7 @@
         <v>1.76687281059551E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2000</v>
       </c>
@@ -9683,7 +9789,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>3.1180658544444446</v>
       </c>
-      <c r="J94" s="30">
+      <c r="J94" s="33">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.69778375218106037</v>
       </c>
@@ -9695,7 +9801,7 @@
         <v>1.30808488959374E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>3000</v>
       </c>
@@ -9726,7 +9832,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>4.6683338922222228</v>
       </c>
-      <c r="J95" s="30">
+      <c r="J95" s="33">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.59053942442003371</v>
       </c>
@@ -9738,7 +9844,7 @@
         <v>6.0922820321060401E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5000</v>
       </c>
@@ -9769,7 +9875,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>7.9086299905555553</v>
       </c>
-      <c r="J96" s="30">
+      <c r="J96" s="33">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>1.7480593605447583</v>
       </c>
@@ -9781,7 +9887,7 @@
         <v>1.00060922820321</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>10000</v>
       </c>
@@ -9812,7 +9918,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>15.617344490000001</v>
       </c>
-      <c r="J97" s="30">
+      <c r="J97" s="33">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>1.0691180241689571</v>
       </c>
@@ -9824,7 +9930,7 @@
         <v>2.00060922820321</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>20000</v>
       </c>
@@ -9855,7 +9961,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>31.092622802499999</v>
       </c>
-      <c r="J98" s="30">
+      <c r="J98" s="33">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.17010334657209036</v>
       </c>
@@ -9864,27 +9970,27 @@
         <v>0.9742636907501151</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>50000</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="25"/>
+      <c r="C99" s="24"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
-      <c r="F99" s="24"/>
+      <c r="F99" s="34"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="32"/>
+      <c r="J99" s="31"/>
       <c r="K99" s="14">
         <v>0.97430000000000005</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -9900,9 +10006,9 @@
       <c r="E104" t="s">
         <v>33</v>
       </c>
-      <c r="H104" s="26">
-        <f>AVERAGE(K108:K118)</f>
-        <v>1.1344408765306446</v>
+      <c r="H104" s="25">
+        <f>AVERAGE(K108:K118)*3</f>
+        <v>3.4033226295919339</v>
       </c>
       <c r="I104" t="s">
         <v>49</v>
@@ -9911,19 +10017,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E105" t="s">
         <v>47</v>
       </c>
       <c r="F105">
         <v>20</v>
       </c>
-      <c r="H105" s="26">
+      <c r="H105" s="25">
         <f>_xlfn.STDEV.S(K108:K118)</f>
         <v>4.6098267241727206E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -9967,7 +10073,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>10</v>
       </c>
@@ -10007,7 +10113,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>4.891553972222222E-2</v>
       </c>
-      <c r="M108" s="31">
+      <c r="M108" s="30">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>0.80348637294937952</v>
       </c>
@@ -10019,7 +10125,7 @@
         <v>1.00265302811656E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>20</v>
       </c>
@@ -10059,7 +10165,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>9.6833791944444442E-2</v>
       </c>
-      <c r="M109" s="31">
+      <c r="M109" s="30">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>261.5557744330913</v>
       </c>
@@ -10071,7 +10177,7 @@
         <v>2.0395525828444099E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -10111,7 +10217,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>0.25766752138888888</v>
       </c>
-      <c r="M110" s="31">
+      <c r="M110" s="30">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>172.34984397420689</v>
       </c>
@@ -10123,7 +10229,7 @@
         <v>1.9879563526973999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>100</v>
       </c>
@@ -10163,7 +10269,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>0.5088818094444445</v>
       </c>
-      <c r="M111" s="32">
+      <c r="M111" s="31">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>0.26890985735689038</v>
       </c>
@@ -10175,7 +10281,7 @@
         <v>1.14097567092479E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>200</v>
       </c>
@@ -10215,7 +10321,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>1.0197733841666665</v>
       </c>
-      <c r="M112" s="32">
+      <c r="M112" s="31">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>2.4233900362220711E-2</v>
       </c>
@@ -10227,7 +10333,7 @@
         <v>3.7538272730722301E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>500</v>
       </c>
@@ -10267,7 +10373,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>2.510755708888889</v>
       </c>
-      <c r="M113" s="32">
+      <c r="M113" s="31">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>0.51991702514683646</v>
       </c>
@@ -10279,7 +10385,7 @@
         <v>3.13060226043556E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>800</v>
       </c>
@@ -10319,7 +10425,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>4.0010231877777782</v>
       </c>
-      <c r="M114" s="32">
+      <c r="M114" s="31">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>9.8995957761396039E-2</v>
       </c>
@@ -10331,7 +10437,7 @@
         <v>2.57491114706141E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1000</v>
       </c>
@@ -10371,7 +10477,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>4.5997675261111111</v>
       </c>
-      <c r="M115" s="32">
+      <c r="M115" s="31">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>0.5788501453060575</v>
       </c>
@@ -10383,7 +10489,7 @@
         <v>1.76687281059551E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2000</v>
       </c>
@@ -10423,7 +10529,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>9.8766944961111118</v>
       </c>
-      <c r="M116" s="32">
+      <c r="M116" s="31">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>0.54125133944052917</v>
       </c>
@@ -10435,7 +10541,7 @@
         <v>1.30808488959374E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>3000</v>
       </c>
@@ -10475,7 +10581,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>14.122815863055557</v>
       </c>
-      <c r="M117" s="33">
+      <c r="M117" s="32">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>2.0829563591647076</v>
       </c>
@@ -10487,7 +10593,7 @@
         <v>6.0922820321060401E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5000</v>
       </c>
@@ -10527,7 +10633,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>23.028087439166665</v>
       </c>
-      <c r="M118" s="32">
+      <c r="M118" s="31">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>0.74644609352354552</v>
       </c>
@@ -10539,7 +10645,7 @@
         <v>1.00060922820321</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>10000</v>
       </c>
@@ -10579,7 +10685,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>47.888290981111112</v>
       </c>
-      <c r="M119" s="32">
+      <c r="M119" s="31">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>1.0272944133494091</v>
       </c>
@@ -10591,14 +10697,16 @@
         <v>2.00060922820321</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>20000</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
+      <c r="E120" s="15">
+        <v>20</v>
+      </c>
       <c r="F120" s="21">
         <f t="shared" si="6"/>
         <v>-1</v>
@@ -10611,7 +10719,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M120" s="32" t="e">
+      <c r="M120" s="31" t="e">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -10620,12 +10728,12 @@
         <v>0.9742636907501151</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>50000</v>
       </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="25"/>
+      <c r="C121" s="24"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
       <c r="F121" s="22">
@@ -10633,21 +10741,1457 @@
         <v>-1</v>
       </c>
       <c r="L121" s="5"/>
-      <c r="M121" s="32"/>
+      <c r="M121" s="31"/>
       <c r="N121" s="14"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127" s="25">
+        <f>AVERAGE(H131:H141)</f>
+        <v>219.47972931048059</v>
+      </c>
+      <c r="I127" t="s">
+        <v>49</v>
+      </c>
+      <c r="K127" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E128" t="s">
+        <v>47</v>
+      </c>
+      <c r="F128">
+        <v>20</v>
+      </c>
+      <c r="H128" s="25">
+        <f>_xlfn.STDEV.S(H131:H141)</f>
+        <v>2.5954777181250956</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
+        <v>48</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" t="s">
+        <v>21</v>
+      </c>
+      <c r="H130" t="s">
+        <v>45</v>
+      </c>
+      <c r="I130" t="s">
+        <v>43</v>
+      </c>
+      <c r="J130" t="s">
+        <v>50</v>
+      </c>
+      <c r="K130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>10</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0.99999999918793203</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1.0000000000296701E-4</v>
+      </c>
+      <c r="D131" s="15">
+        <v>0.92199399999999998</v>
+      </c>
+      <c r="E131">
+        <v>20</v>
+      </c>
+      <c r="F131" s="9">
+        <f t="shared" ref="F131:F142" si="8">B131/B$5-1</f>
+        <v>2.6416162977398683E-2</v>
+      </c>
+      <c r="G131">
+        <v>1.8196601152388401</v>
+      </c>
+      <c r="H131">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>216.9211513307028</v>
+      </c>
+      <c r="I131">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>2.5610944444444443E-4</v>
+      </c>
+      <c r="J131" s="30">
+        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
+        <v>264.16162976614913</v>
+      </c>
+      <c r="K131" s="14">
+        <f t="shared" ref="K131:K140" si="9">B$5</f>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L131">
+        <v>1.00265302811656E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>20</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0.97085354760542597</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2.8394745858847499E-2</v>
+      </c>
+      <c r="D132" s="15">
+        <v>1.8123</v>
+      </c>
+      <c r="E132">
+        <v>20</v>
+      </c>
+      <c r="F132" s="21">
+        <f t="shared" si="8"/>
+        <v>-3.5002260446178601E-3</v>
+      </c>
+      <c r="G132">
+        <v>1.9787137682881299</v>
+      </c>
+      <c r="H132">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>220.71400982177343</v>
+      </c>
+      <c r="I132">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>5.0341666666666666E-4</v>
+      </c>
+      <c r="J132" s="33">
+        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
+        <v>0.12327020153720541</v>
+      </c>
+      <c r="K132" s="14">
+        <f t="shared" si="9"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L132">
+        <v>2.0395525828444099E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>50</v>
+      </c>
+      <c r="B133" s="1">
+        <v>0.97955893087547896</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1.54246475427962E-2</v>
+      </c>
+      <c r="D133" s="15">
+        <v>4.5312739999999998</v>
+      </c>
+      <c r="E133" s="15">
+        <v>20</v>
+      </c>
+      <c r="F133" s="21">
+        <f t="shared" si="8"/>
+        <v>5.4351200559337176E-3</v>
+      </c>
+      <c r="G133">
+        <v>1.4156747295438501</v>
+      </c>
+      <c r="H133">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>220.68848628443126</v>
+      </c>
+      <c r="I133">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>1.2586872222222223E-3</v>
+      </c>
+      <c r="J133" s="33">
+        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
+        <v>0.35236591571079956</v>
+      </c>
+      <c r="K133" s="14">
+        <f t="shared" si="9"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L133">
+        <v>1.9879563526973999E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>100</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0.97082072522149199</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1.5563360432562699E-2</v>
+      </c>
+      <c r="D134" s="15">
+        <v>9.3910239999999998</v>
+      </c>
+      <c r="E134" s="15">
+        <v>20</v>
+      </c>
+      <c r="F134" s="23">
+        <f t="shared" si="8"/>
+        <v>-3.533915470022575E-3</v>
+      </c>
+      <c r="G134">
+        <v>1.6177539619694401</v>
+      </c>
+      <c r="H134">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>212.96932049156726</v>
+      </c>
+      <c r="I134">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>2.6086177777777777E-3</v>
+      </c>
+      <c r="J134" s="33">
+        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
+        <v>0.22706635146922907</v>
+      </c>
+      <c r="K134" s="14">
+        <f t="shared" si="9"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L134">
+        <v>1.14097567092479E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>200</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0.97895324430115704</v>
+      </c>
+      <c r="C135" s="1">
+        <v>8.1950683426093105E-3</v>
+      </c>
+      <c r="D135" s="15">
+        <v>17.984493000000001</v>
+      </c>
+      <c r="E135" s="15">
+        <v>20</v>
+      </c>
+      <c r="F135" s="21">
+        <f>B135/B$5-1</f>
+        <v>4.8134335658462923E-3</v>
+      </c>
+      <c r="G135">
+        <v>1.6362146072069099</v>
+      </c>
+      <c r="H135">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>222.41383173826472</v>
+      </c>
+      <c r="I135">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>4.9956925000000001E-3</v>
+      </c>
+      <c r="J135" s="33">
+        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
+        <v>0.58735734280816199</v>
+      </c>
+      <c r="K135" s="14">
+        <f t="shared" si="9"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L135">
+        <v>3.7538272730722301E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>500</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0.97140316539775595</v>
+      </c>
+      <c r="C136" s="1">
+        <v>5.87264871686171E-3</v>
+      </c>
+      <c r="D136" s="15">
+        <v>45.578356999999997</v>
+      </c>
+      <c r="E136" s="15">
+        <v>20</v>
+      </c>
+      <c r="F136" s="21">
+        <f>B136/B$5-1</f>
+        <v>-2.9360894586523134E-3</v>
+      </c>
+      <c r="G136">
+        <v>1.0444918509418399</v>
+      </c>
+      <c r="H136">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>219.40237994976434</v>
+      </c>
+      <c r="I136">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>1.2660654722222222E-2</v>
+      </c>
+      <c r="J136" s="33">
+        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
+        <v>0.49996000105065586</v>
+      </c>
+      <c r="K136" s="14">
+        <f t="shared" si="9"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L136">
+        <v>3.13060226043556E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>800</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0.97075401112749304</v>
+      </c>
+      <c r="C137" s="1">
+        <v>5.10582693702519E-3</v>
+      </c>
+      <c r="D137" s="15">
+        <v>72.531563000000006</v>
+      </c>
+      <c r="E137" s="15">
+        <v>20</v>
+      </c>
+      <c r="F137" s="21">
+        <f>B137/B$5-1</f>
+        <v>-3.6023918944571021E-3</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>220.59361935989162</v>
+      </c>
+      <c r="I137">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>2.014765638888889E-2</v>
+      </c>
+      <c r="J137" s="33">
+        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
+        <v>0.70554524054353573</v>
+      </c>
+      <c r="K137" s="14">
+        <f t="shared" si="9"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L137">
+        <v>2.57491114706141E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1000</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0.97498556163389205</v>
+      </c>
+      <c r="C138" s="1">
+        <v>4.1321082703423698E-3</v>
+      </c>
+      <c r="D138" s="15">
+        <v>90.797678000000005</v>
+      </c>
+      <c r="E138" s="15">
+        <v>20</v>
+      </c>
+      <c r="F138" s="23">
+        <f t="shared" ref="F138:F149" si="10">B138/B$5-1</f>
+        <v>7.4093994329316182E-4</v>
+      </c>
+      <c r="G138">
+        <v>1.10835055967366</v>
+      </c>
+      <c r="H138">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>220.26995007515498</v>
+      </c>
+      <c r="I138">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>2.5221577222222225E-2</v>
+      </c>
+      <c r="J138" s="33">
+        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
+        <v>0.17931280954353371</v>
+      </c>
+      <c r="K138" s="14">
+        <f t="shared" si="9"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L138">
+        <v>1.76687281059551E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2000</v>
+      </c>
+      <c r="B139" s="1">
+        <v>0.970045219378184</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3.2146787962424798E-3</v>
+      </c>
+      <c r="D139" s="15">
+        <v>182.73725300000001</v>
+      </c>
+      <c r="E139" s="15">
+        <v>20</v>
+      </c>
+      <c r="F139" s="23">
+        <f t="shared" si="10"/>
+        <v>-4.3299072027237484E-3</v>
+      </c>
+      <c r="G139">
+        <v>1.0181806160862901</v>
+      </c>
+      <c r="H139">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>218.8935170214034</v>
+      </c>
+      <c r="I139">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>5.0760348055555557E-2</v>
+      </c>
+      <c r="J139" s="33">
+        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
+        <v>1.3469175233882833</v>
+      </c>
+      <c r="K139" s="14">
+        <f t="shared" si="9"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L139">
+        <v>1.30808488959374E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>3000</v>
+      </c>
+      <c r="B140" s="1">
+        <v>0.980185355239793</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2.1211993826268298E-3</v>
+      </c>
+      <c r="D140" s="15">
+        <v>272.96894099999997</v>
+      </c>
+      <c r="E140" s="15">
+        <v>20</v>
+      </c>
+      <c r="F140" s="23">
+        <f>B140/B$5-1</f>
+        <v>6.0780921488705619E-3</v>
+      </c>
+      <c r="G140">
+        <v>1.31308230427802</v>
+      </c>
+      <c r="H140">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>219.80522685179778</v>
+      </c>
+      <c r="I140">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>7.5824705833333325E-2</v>
+      </c>
+      <c r="J140" s="30">
+        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
+        <v>2.8654035064556895</v>
+      </c>
+      <c r="K140" s="14">
+        <f t="shared" si="9"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L140">
+        <v>6.0922820321060401E-4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>5000</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0.97510731060224398</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1.8605943856475099E-3</v>
+      </c>
+      <c r="D141" s="15">
+        <v>451.25227799999999</v>
+      </c>
+      <c r="E141" s="15">
+        <v>20</v>
+      </c>
+      <c r="F141" s="23">
+        <f t="shared" ref="F141:F152" si="11">B141/B$5-1</f>
+        <v>8.6590505233696824E-4</v>
+      </c>
+      <c r="G141">
+        <v>1.08853059837199</v>
+      </c>
+      <c r="H141">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>221.60552949053479</v>
+      </c>
+      <c r="I141">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>0.12534785500000001</v>
+      </c>
+      <c r="J141" s="33">
+        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
+        <v>0.46539162915705701</v>
+      </c>
+      <c r="K141" s="14">
+        <f>B$5</f>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L141">
+        <v>1.00060922820321</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>10000</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0.97247281917443795</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1.3904138338907599E-3</v>
+      </c>
+      <c r="D142" s="15">
+        <v>905.02535599999999</v>
+      </c>
+      <c r="E142" s="15">
+        <v>17</v>
+      </c>
+      <c r="F142" s="23">
+        <f t="shared" si="11"/>
+        <v>-1.8381795325845829E-3</v>
+      </c>
+      <c r="G142">
+        <v>1.0892637358011601</v>
+      </c>
+      <c r="H142">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>187.84004102532572</v>
+      </c>
+      <c r="I142">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>0.25139593222222223</v>
+      </c>
+      <c r="J142" s="33">
+        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
+        <v>1.3220377183970125</v>
+      </c>
+      <c r="K142" s="14">
+        <f>B$5</f>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L142">
+        <v>2.00060922820321</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>20000</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0.97167722862393502</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1.0030663635827301E-3</v>
+      </c>
+      <c r="D143" s="15">
+        <v>1777.1452380000001</v>
+      </c>
+      <c r="E143" s="15">
+        <v>20</v>
+      </c>
+      <c r="F143" s="21">
+        <f>B143/B$5-1</f>
+        <v>-2.6547865333960141E-3</v>
+      </c>
+      <c r="G143">
+        <v>1.0406530935326901</v>
+      </c>
+      <c r="H143">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>225.08008430991276</v>
+      </c>
+      <c r="I143">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>0.49365145500000002</v>
+      </c>
+      <c r="J143" s="30">
+        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
+        <v>2.6466708781996306</v>
+      </c>
+      <c r="K143" s="14">
+        <f>B$5</f>
+        <v>0.9742636907501151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>50000</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="34"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="31"/>
+      <c r="K144" s="14">
+        <v>0.97430000000000005</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" t="s">
+        <v>33</v>
+      </c>
+      <c r="H149" s="25">
+        <f>AVERAGE(K153:K163)*3</f>
+        <v>213.5367421130548</v>
+      </c>
+      <c r="I149" t="s">
+        <v>49</v>
+      </c>
+      <c r="K149" t="s">
+        <v>53</v>
+      </c>
+      <c r="O149" s="29">
+        <f>H149/H104</f>
+        <v>62.743608336262362</v>
+      </c>
+      <c r="P149" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E150" t="s">
+        <v>47</v>
+      </c>
+      <c r="F150">
+        <v>20</v>
+      </c>
+      <c r="H150" s="25">
+        <f>_xlfn.STDEV.S(K153:K163)</f>
+        <v>4.4405190304637721</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>48</v>
+      </c>
+      <c r="F152" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" t="s">
+        <v>21</v>
+      </c>
+      <c r="H152" t="s">
+        <v>22</v>
+      </c>
+      <c r="I152" t="s">
+        <v>23</v>
+      </c>
+      <c r="J152" t="s">
+        <v>24</v>
+      </c>
+      <c r="K152" t="s">
+        <v>45</v>
+      </c>
+      <c r="L152" t="s">
+        <v>43</v>
+      </c>
+      <c r="M152" t="s">
+        <v>50</v>
+      </c>
+      <c r="N152" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>10</v>
+      </c>
+      <c r="B153" s="1">
+        <v>0.99999999999975597</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D153" s="15">
+        <v>3.0923910000000001</v>
+      </c>
+      <c r="E153">
+        <v>20</v>
+      </c>
+      <c r="F153" s="9">
+        <f t="shared" ref="F153:F166" si="12">B153/B$5-1</f>
+        <v>2.6416163810667914E-2</v>
+      </c>
+      <c r="G153">
+        <v>2.5699951241173902</v>
+      </c>
+      <c r="H153">
+        <v>2.5278640600000002</v>
+      </c>
+      <c r="I153">
+        <v>2.6226589599999999</v>
+      </c>
+      <c r="J153">
+        <v>2.5594623599999999</v>
+      </c>
+      <c r="K153">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>64.674874554996435</v>
+      </c>
+      <c r="L153">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>8.5899750000000008E-4</v>
+      </c>
+      <c r="M153" s="30">
+        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
+        <v>264.16163810667911</v>
+      </c>
+      <c r="N153" s="14">
+        <f t="shared" ref="N153:N165" si="13">B$5</f>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O153">
+        <v>1.00265302811656E-4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>20</v>
+      </c>
+      <c r="B154" s="1">
+        <v>0.99999999998685996</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D154" s="15">
+        <v>5.907921</v>
+      </c>
+      <c r="E154">
+        <v>20</v>
+      </c>
+      <c r="F154" s="21">
+        <f t="shared" si="12"/>
+        <v>2.6416163797431169E-2</v>
+      </c>
+      <c r="G154">
+        <v>3.4324264855820998</v>
+      </c>
+      <c r="H154">
+        <v>3.4466985299999999</v>
+      </c>
+      <c r="I154">
+        <v>3.4466985299999999</v>
+      </c>
+      <c r="J154">
+        <v>3.4038824000000001</v>
+      </c>
+      <c r="K154">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>67.705712381732937</v>
+      </c>
+      <c r="L154">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>1.6410891666666667E-3</v>
+      </c>
+      <c r="M154" s="30">
+        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
+        <v>264.1616379743117</v>
+      </c>
+      <c r="N154" s="14">
+        <f t="shared" si="13"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O154">
+        <v>2.0395525828444099E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>50</v>
+      </c>
+      <c r="B155" s="1">
+        <v>0.99355282406985101</v>
+      </c>
+      <c r="C155" s="1">
+        <v>4.4605023803087401E-3</v>
+      </c>
+      <c r="D155" s="15">
+        <v>12.671714</v>
+      </c>
+      <c r="E155" s="15">
+        <v>20</v>
+      </c>
+      <c r="F155" s="21">
+        <f t="shared" si="12"/>
+        <v>1.9798678225280808E-2</v>
+      </c>
+      <c r="G155">
+        <v>1.0098406394308499</v>
+      </c>
+      <c r="H155">
+        <v>1.0352274800000001</v>
+      </c>
+      <c r="I155">
+        <v>1.0035132200000001</v>
+      </c>
+      <c r="J155">
+        <v>0.99078122000000002</v>
+      </c>
+      <c r="K155">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>78.915922502670128</v>
+      </c>
+      <c r="L155">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>3.5199205555555553E-3</v>
+      </c>
+      <c r="M155" s="30">
+        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
+        <v>4.4386655441960361</v>
+      </c>
+      <c r="N155" s="14">
+        <f t="shared" si="13"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O155">
+        <v>1.9879563526973999E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>100</v>
+      </c>
+      <c r="B156" s="1">
+        <v>0.99911541246763902</v>
+      </c>
+      <c r="C156" s="1">
+        <v>5.6943984583410798E-4</v>
+      </c>
+      <c r="D156" s="15">
+        <v>29.937548</v>
+      </c>
+      <c r="E156" s="15">
+        <v>20</v>
+      </c>
+      <c r="F156" s="23">
+        <f t="shared" si="12"/>
+        <v>2.550820886939742E-2</v>
+      </c>
+      <c r="G156">
+        <v>2.0844665816284702</v>
+      </c>
+      <c r="H156">
+        <v>2.03590676</v>
+      </c>
+      <c r="I156">
+        <v>2.1109100500000002</v>
+      </c>
+      <c r="J156">
+        <v>2.10658294</v>
+      </c>
+      <c r="K156">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>66.80573839915013</v>
+      </c>
+      <c r="L156">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>8.3159855555555561E-3</v>
+      </c>
+      <c r="M156" s="30">
+        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
+        <v>44.795265129424394</v>
+      </c>
+      <c r="N156" s="14">
+        <f t="shared" si="13"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O156">
+        <v>1.14097567092479E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>200</v>
+      </c>
+      <c r="B157" s="1">
+        <v>0.95590071845454605</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1.3223967316902899E-2</v>
+      </c>
+      <c r="D157" s="15">
+        <v>56.891123999999998</v>
+      </c>
+      <c r="E157" s="15">
+        <v>20</v>
+      </c>
+      <c r="F157" s="21">
+        <f t="shared" si="12"/>
+        <v>-1.8848051579784197E-2</v>
+      </c>
+      <c r="G157">
+        <v>0.99414503320721703</v>
+      </c>
+      <c r="H157">
+        <v>0.97717580000000004</v>
+      </c>
+      <c r="I157">
+        <v>1.00523882</v>
+      </c>
+      <c r="J157">
+        <v>1.00002049</v>
+      </c>
+      <c r="K157">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>70.30973759632522</v>
+      </c>
+      <c r="L157">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>1.5803089999999999E-2</v>
+      </c>
+      <c r="M157" s="31">
+        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
+        <v>1.4252947794034989</v>
+      </c>
+      <c r="N157" s="14">
+        <f t="shared" si="13"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O157">
+        <v>3.7538272730722301E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>500</v>
+      </c>
+      <c r="B158" s="1">
+        <v>0.97021577784225399</v>
+      </c>
+      <c r="C158" s="1">
+        <v>6.4163218616926703E-3</v>
+      </c>
+      <c r="D158" s="15">
+        <v>130.12619000000001</v>
+      </c>
+      <c r="E158" s="15">
+        <v>20</v>
+      </c>
+      <c r="F158" s="21">
+        <f t="shared" si="12"/>
+        <v>-4.154843238327488E-3</v>
+      </c>
+      <c r="G158">
+        <v>1.14174978691408</v>
+      </c>
+      <c r="H158">
+        <v>1.12704195</v>
+      </c>
+      <c r="I158">
+        <v>1.1679012200000001</v>
+      </c>
+      <c r="J158">
+        <v>1.13030619</v>
+      </c>
+      <c r="K158">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>76.848480694009396</v>
+      </c>
+      <c r="L158">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>3.6146163888888888E-2</v>
+      </c>
+      <c r="M158" s="31">
+        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
+        <v>0.64754283340010188</v>
+      </c>
+      <c r="N158" s="14">
+        <f t="shared" si="13"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O158">
+        <v>3.13060226043556E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>800</v>
+      </c>
+      <c r="B159" s="1">
+        <v>0.97455790938176401</v>
+      </c>
+      <c r="C159" s="1">
+        <v>4.73780304218974E-3</v>
+      </c>
+      <c r="D159" s="15">
+        <v>229.84510399999999</v>
+      </c>
+      <c r="E159" s="15">
+        <v>20</v>
+      </c>
+      <c r="F159" s="21">
+        <f t="shared" si="12"/>
+        <v>3.0199075921877316E-4</v>
+      </c>
+      <c r="G159">
+        <v>1.16001002060544</v>
+      </c>
+      <c r="H159">
+        <v>1.1472860199999999</v>
+      </c>
+      <c r="I159">
+        <v>1.16384789</v>
+      </c>
+      <c r="J159">
+        <v>1.1688961600000001</v>
+      </c>
+      <c r="K159">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>69.6120984156356</v>
+      </c>
+      <c r="L159">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>6.3845862222222216E-2</v>
+      </c>
+      <c r="M159" s="31">
+        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
+        <v>6.3740674006405651E-2</v>
+      </c>
+      <c r="N159" s="14">
+        <f t="shared" si="13"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O159">
+        <v>2.57491114706141E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>1000</v>
+      </c>
+      <c r="B160" s="1">
+        <v>0.97712675202761301</v>
+      </c>
+      <c r="C160" s="1">
+        <v>4.0140669475216204E-3</v>
+      </c>
+      <c r="D160" s="15">
+        <v>290.81414999999998</v>
+      </c>
+      <c r="E160" s="15">
+        <v>20</v>
+      </c>
+      <c r="F160" s="23">
+        <f t="shared" si="12"/>
+        <v>2.9386923732050985E-3</v>
+      </c>
+      <c r="G160">
+        <v>1.1650378719602099</v>
+      </c>
+      <c r="H160">
+        <v>1.14593889</v>
+      </c>
+      <c r="I160">
+        <v>1.14593889</v>
+      </c>
+      <c r="J160">
+        <v>1.2032358299999999</v>
+      </c>
+      <c r="K160">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>68.772444532014688</v>
+      </c>
+      <c r="L160">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>8.0781708333333327E-2</v>
+      </c>
+      <c r="M160" s="31">
+        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
+        <v>0.73209849552198336</v>
+      </c>
+      <c r="N160" s="14">
+        <f t="shared" si="13"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O160">
+        <v>1.76687281059551E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>2000</v>
+      </c>
+      <c r="B161" s="1">
+        <v>0.97130484785958604</v>
+      </c>
+      <c r="C161" s="1">
+        <v>3.0745007242883502E-3</v>
+      </c>
+      <c r="D161" s="15">
+        <v>544.29601600000001</v>
+      </c>
+      <c r="E161" s="15">
+        <v>20</v>
+      </c>
+      <c r="F161" s="23">
+        <f t="shared" si="12"/>
+        <v>-3.0370041690160887E-3</v>
+      </c>
+      <c r="G161">
+        <v>1.0432196828253</v>
+      </c>
+      <c r="H161">
+        <v>1.0482080600000001</v>
+      </c>
+      <c r="I161">
+        <v>1.06150294</v>
+      </c>
+      <c r="J161">
+        <v>1.0199480400000001</v>
+      </c>
+      <c r="K161">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>73.489422711482788</v>
+      </c>
+      <c r="L161">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>0.15119333777777777</v>
+      </c>
+      <c r="M161" s="31">
+        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
+        <v>0.9878040180716039</v>
+      </c>
+      <c r="N161" s="14">
+        <f t="shared" si="13"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O161">
+        <v>1.30808488959374E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>3000</v>
+      </c>
+      <c r="B162" s="1">
+        <v>0.97469866140611805</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2.4024014575956499E-3</v>
+      </c>
+      <c r="D162" s="15">
+        <v>850.59076600000003</v>
+      </c>
+      <c r="E162" s="15">
+        <v>20</v>
+      </c>
+      <c r="F162" s="23">
+        <f t="shared" si="12"/>
+        <v>4.4646091210487349E-4</v>
+      </c>
+      <c r="G162">
+        <v>1.10277243577408</v>
+      </c>
+      <c r="H162">
+        <v>1.09896543</v>
+      </c>
+      <c r="I162">
+        <v>1.1009183</v>
+      </c>
+      <c r="J162">
+        <v>1.1084335700000001</v>
+      </c>
+      <c r="K162">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>70.539209215915704</v>
+      </c>
+      <c r="L162">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>0.2362752127777778</v>
+      </c>
+      <c r="M162" s="33">
+        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
+        <v>0.18583942774980519</v>
+      </c>
+      <c r="N162" s="14">
+        <f t="shared" si="13"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O162">
+        <v>6.0922820321060401E-4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>5000</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0.97309665583739302</v>
+      </c>
+      <c r="C163" s="1">
+        <v>1.9070775078408901E-3</v>
+      </c>
+      <c r="D163" s="15">
+        <v>1328.1197830000001</v>
+      </c>
+      <c r="E163" s="15">
+        <v>20</v>
+      </c>
+      <c r="F163" s="23">
+        <f t="shared" si="12"/>
+        <v>-1.1978634981496539E-3</v>
+      </c>
+      <c r="G163">
+        <v>1.08874409587036</v>
+      </c>
+      <c r="H163">
+        <v>1.0889122899999999</v>
+      </c>
+      <c r="I163">
+        <v>1.1039235000000001</v>
+      </c>
+      <c r="J163">
+        <v>1.0733964899999999</v>
+      </c>
+      <c r="K163">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>75.294413410601223</v>
+      </c>
+      <c r="L163">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>0.36892216194444449</v>
+      </c>
+      <c r="M163" s="31">
+        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
+        <v>0.62811474270168632</v>
+      </c>
+      <c r="N163" s="14">
+        <f t="shared" si="13"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O163">
+        <v>1.00060922820321</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>10000</v>
+      </c>
+      <c r="B164" s="1">
+        <v>0.97438443690259602</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1.3555266911556799E-3</v>
+      </c>
+      <c r="D164" s="15">
+        <v>2645.7594319999998</v>
+      </c>
+      <c r="E164" s="15">
+        <v>20</v>
+      </c>
+      <c r="F164" s="9">
+        <f t="shared" si="12"/>
+        <v>1.2393580262437531E-4</v>
+      </c>
+      <c r="G164">
+        <v>1.1674823730130499</v>
+      </c>
+      <c r="H164">
+        <v>1.17347851</v>
+      </c>
+      <c r="I164">
+        <v>1.1681878000000001</v>
+      </c>
+      <c r="J164">
+        <v>1.1607808100000001</v>
+      </c>
+      <c r="K164">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>75.592662575831653</v>
+      </c>
+      <c r="L164">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>0.73493317555555548</v>
+      </c>
+      <c r="M164" s="31">
+        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
+        <v>9.1429997972752197E-2</v>
+      </c>
+      <c r="N164" s="14">
+        <f t="shared" si="13"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="O164">
+        <v>2.00060922820321</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>20000</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0.97236278425293698</v>
+      </c>
+      <c r="C165" s="1">
+        <v>9.8289246366712007E-4</v>
+      </c>
+      <c r="D165" s="15">
+        <v>5724.9130029999997</v>
+      </c>
+      <c r="E165" s="15">
+        <v>20</v>
+      </c>
+      <c r="F165" s="21">
+        <f t="shared" si="12"/>
+        <v>-1.9511211545968354E-3</v>
+      </c>
+      <c r="G165">
+        <v>1.03444386627606</v>
+      </c>
+      <c r="H165">
+        <v>1.0209981100000001</v>
+      </c>
+      <c r="I165">
+        <v>1.06160133</v>
+      </c>
+      <c r="J165">
+        <v>1.0207321499999999</v>
+      </c>
+      <c r="K165">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>69.870057377359245</v>
+      </c>
+      <c r="L165">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>1.5902536119444444</v>
+      </c>
+      <c r="M165" s="32">
+        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
+        <v>1.9850809999267927</v>
+      </c>
+      <c r="N165" s="14">
+        <f t="shared" si="13"/>
+        <v>0.9742636907501151</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>50000</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="22">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="L166" s="5"/>
+      <c r="M166" s="31"/>
+      <c r="N166" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="6">
+  <tableParts count="8">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tdcrpy/validation/validationCo-60_v2.xlsx
+++ b/tdcrpy/validation/validationCo-60_v2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD880470-3241-43BE-9E3E-C3D90AD779DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D076390-83EC-44D2-B88C-14F6B4AD4140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ModelSym" sheetId="2" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId1"/>
     <sheet name="Free_paramter correlation" sheetId="4" r:id="rId2"/>
     <sheet name="Tables" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="70">
   <si>
     <t>Reference Co-60 (NIST)</t>
   </si>
@@ -210,6 +210,45 @@
   <si>
     <t>time faster</t>
   </si>
+  <si>
+    <t>KCRV</t>
+  </si>
+  <si>
+    <t>u(KCRV)</t>
+  </si>
+  <si>
+    <t>ref - 1s</t>
+  </si>
+  <si>
+    <t>ref + 1s</t>
+  </si>
+  <si>
+    <t>Convergence value</t>
+  </si>
+  <si>
+    <t>Deviation from KCRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The code display a good convergence and a good agreement with the KCRV with an relative underestimation of about 1e-3. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is difficult to resonnably provide estimation with an accuracy below 1e-3. </t>
+  </si>
+  <si>
+    <t>The asymetrical model does not provide significant improvement compared to the symetrical one.</t>
+  </si>
+  <si>
+    <t>DoE</t>
+  </si>
+  <si>
+    <t>relative</t>
+  </si>
+  <si>
+    <t>For Co-60, 20 000 trials and a systematic error from the model of 1e-3 should be considered.</t>
+  </si>
+  <si>
+    <t>conv</t>
+  </si>
 </sst>
 </file>
 
@@ -355,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -389,15 +428,25 @@
     <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="57">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="0.0"/>
       <fill>
@@ -424,15 +473,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -775,134 +815,8 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>référence</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tables!$A$86:$A$99</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tables!$K$86:$K$99</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.9742636907501151</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.97430000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2388-47D3-9303-580C226012F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>modèle symétrique v0.0.78</c:v>
           </c:tx>
@@ -930,10 +844,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Tables!$C$131:$C$144</c:f>
+                <c:f>Tables!$C$131:$C$154</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="14"/>
+                  <c:ptCount val="24"/>
                   <c:pt idx="0">
                     <c:v>1.0000000000296701E-4</c:v>
                   </c:pt>
@@ -968,20 +882,53 @@
                     <c:v>1.8605943856475099E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>1.6474252699531699E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.57708983512519E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.4590034301809401E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>1.3904138338907599E-3</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="15">
                     <c:v>1.0030663635827301E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>7.8193127700400397E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6.8392417700342703E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>6.1367052850524301E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5.6481578904607802E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>5.1666407229893801E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4.84945225712072E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>4.67831521301818E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>4.4997537351935198E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Tables!$C$131:$C$144</c:f>
+                <c:f>Tables!$C$131:$C$154</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="14"/>
+                  <c:ptCount val="24"/>
                   <c:pt idx="0">
                     <c:v>1.0000000000296701E-4</c:v>
                   </c:pt>
@@ -1016,10 +963,43 @@
                     <c:v>1.8605943856475099E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>1.6474252699531699E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.57708983512519E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.4590034301809401E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>1.3904138338907599E-3</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="15">
                     <c:v>1.0030663635827301E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>7.8193127700400397E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6.8392417700342703E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>6.1367052850524301E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5.6481578904607802E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>5.1666407229893801E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4.84945225712072E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>4.67831521301818E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>4.4997537351935198E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1034,10 +1014,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Tables!$A$131:$A$144</c:f>
+              <c:f>Tables!$A$131:$A$154</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1072,23 +1052,53 @@
                   <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tables!$B$131:$B$144</c:f>
+              <c:f>Tables!$B$131:$B$154</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0.99999999918793203</c:v>
                 </c:pt>
@@ -1123,10 +1133,43 @@
                   <c:v>0.97510731060224398</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.97255782318272999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97184209602948401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97259679513310604</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.97247281917443795</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>0.97167722862393502</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97386147249556498</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97315076202509598</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97377929877157499</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97310247690642304</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97398609166737704</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97407928076459804</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97302268324139396</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97250727618427102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1140,7 +1183,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>modèle asymétrique v0.0.78</c:v>
           </c:tx>
@@ -1173,10 +1216,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Tables!$C$153:$C$166</c:f>
+                <c:f>Tables!$C$162:$C$185</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="14"/>
+                  <c:ptCount val="24"/>
                   <c:pt idx="0">
                     <c:v>1E-4</c:v>
                   </c:pt>
@@ -1211,20 +1254,53 @@
                     <c:v>1.9070775078408901E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>1.6014163952188199E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.51089851546704E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.38959820358256E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>1.3555266911556799E-3</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="15">
                     <c:v>9.8289246366712007E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>7.6944479412988499E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6.8345092491158498E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>6.4411024443377198E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5.6627169570918202E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>5.2653560070763398E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4.8813942738869801E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>4.6263515468804902E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>4.3690968675606399E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Tables!$C$153:$C$166</c:f>
+                <c:f>Tables!$C$162:$C$185</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="14"/>
+                  <c:ptCount val="24"/>
                   <c:pt idx="0">
                     <c:v>1E-4</c:v>
                   </c:pt>
@@ -1259,10 +1335,43 @@
                     <c:v>1.9070775078408901E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>1.6014163952188199E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.51089851546704E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.38959820358256E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>1.3555266911556799E-3</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="15">
                     <c:v>9.8289246366712007E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>7.6944479412988499E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6.8345092491158498E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>6.4411024443377198E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5.6627169570918202E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>5.2653560070763398E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4.8813942738869801E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>4.6263515468804902E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>4.3690968675606399E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1282,10 +1391,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Tables!$A$153:$A$166</c:f>
+              <c:f>Tables!$A$162:$A$185</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1320,23 +1429,53 @@
                   <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tables!$B$153:$B$166</c:f>
+              <c:f>Tables!$B$162:$B$185</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0.99999999999975597</c:v>
                 </c:pt>
@@ -1371,10 +1510,43 @@
                   <c:v>0.97309665583739302</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.973358805524138</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97437427817034095</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97502196140878705</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.97438443690259602</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>0.97236278425293698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97476761088415897</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.973679656802515</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97121193616395196</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97296981842303698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97386837005321503</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97368289695070898</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97396948608297595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,6 +1555,384 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2388-47D3-9303-580C226012F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>ref</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tables!$A$131:$A$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tables!$K$131:$K$154</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9742636907501151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E7DA-483B-8340-7FCBF7C44900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$O$130</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>conv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tables!$A$131:$A$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tables!$O$131:$O$154</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97326746432650402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E7DA-483B-8340-7FCBF7C44900}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1400,8 +1950,420 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tables!$M$130</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ref - 1s</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tables!$A$131:$A$154</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>800</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>7000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>9000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>60000</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>70000</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>90000</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tables!$M$131:$M$154</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.97394638595137184</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-2388-47D3-9303-580C226012F8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tables!$N$130</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ref + 1s</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tables!$A$131:$A$154</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>800</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>7000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>9000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>60000</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>70000</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>90000</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tables!$N$131:$N$154</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.97458099554885835</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-E7DA-483B-8340-7FCBF7C44900}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="4"/>
-                <c:order val="1"/>
+                <c:order val="2"/>
                 <c:tx>
                   <c:v>modèle symétrique v0.0.76</c:v>
                 </c:tx>
@@ -1420,7 +2382,13 @@
                   <c:noEndCap val="0"/>
                   <c:plus>
                     <c:numRef>
-                      <c:f>Tables!$C$86:$C$98</c:f>
+                      <c:extLst>
+                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Tables!$C$86:$C$98</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
                       <c:numCache>
                         <c:formatCode>General</c:formatCode>
                         <c:ptCount val="13"/>
@@ -1468,7 +2436,13 @@
                   </c:plus>
                   <c:minus>
                     <c:numRef>
-                      <c:f>Tables!$C$86:$C$98</c:f>
+                      <c:extLst>
+                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Tables!$C$86:$C$98</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
                       <c:numCache>
                         <c:formatCode>General</c:formatCode>
                         <c:ptCount val="13"/>
@@ -1524,8 +2498,8 @@
                 </c:errBars>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tables!$A$86:$A$99</c15:sqref>
                         </c15:formulaRef>
@@ -1581,8 +2555,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tables!$B$86:$B$99</c15:sqref>
                         </c15:formulaRef>
@@ -1634,7 +2608,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-2388-47D3-9303-580C226012F8}"/>
                   </c:ext>
@@ -1644,7 +2618,7 @@
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="5"/>
-                <c:order val="2"/>
+                <c:order val="3"/>
                 <c:tx>
                   <c:v>modèle asymétrique v0.0.76</c:v>
                 </c:tx>
@@ -1665,7 +2639,13 @@
                   <c:noEndCap val="0"/>
                   <c:plus>
                     <c:numRef>
-                      <c:f>Tables!$C$108:$C$120</c:f>
+                      <c:extLst>
+                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Tables!$C$108:$C$120</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
                       <c:numCache>
                         <c:formatCode>General</c:formatCode>
                         <c:ptCount val="13"/>
@@ -1710,7 +2690,13 @@
                   </c:plus>
                   <c:minus>
                     <c:numRef>
-                      <c:f>Tables!$C$108:$C$120</c:f>
+                      <c:extLst>
+                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Tables!$C$108:$C$120</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
                       <c:numCache>
                         <c:formatCode>General</c:formatCode>
                         <c:ptCount val="13"/>
@@ -1768,7 +2754,7 @@
                 </c:errBars>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tables!$A$108:$A$121</c15:sqref>
@@ -1825,7 +2811,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tables!$B$108:$B$121</c15:sqref>
@@ -1875,7 +2861,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-2388-47D3-9303-580C226012F8}"/>
                   </c:ext>
@@ -1890,7 +2876,6 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="25000"/>
           <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2123,10 +3108,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.47389374108969284"/>
-          <c:y val="3.5634738006759738E-2"/>
-          <c:w val="0.46403040095023379"/>
-          <c:h val="0.15688449130817311"/>
+          <c:x val="0.55319717250986422"/>
+          <c:y val="3.7729084637715952E-2"/>
+          <c:w val="0.38472697980993237"/>
+          <c:h val="0.16316749770280459"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2146,7 +3131,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2452,10 +3437,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tables!$G$153:$G$165</c:f>
+              <c:f>Tables!$G$162:$G$177</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2.5699951241173902</c:v>
                 </c:pt>
@@ -2490,9 +3475,18 @@
                   <c:v>1.08874409587036</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1.0198522897701501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1621205667410399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.09988595575304</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.1674823730130499</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>1.03444386627606</c:v>
                 </c:pt>
               </c:numCache>
@@ -2500,10 +3494,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tables!$F$153:$F$165</c:f>
+              <c:f>Tables!$F$162:$F$177</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2.6416163810667914E-2</c:v>
                 </c:pt>
@@ -2538,9 +3532,18 @@
                   <c:v>-1.1978634981496539E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>-9.2878882233660143E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1350871563386988E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7830126060440818E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.2393580262437531E-4</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>-1.9511211545968354E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -2583,10 +3586,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tables!$G$131:$G$144</c:f>
+              <c:f>Tables!$G$131:$G$154</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1.8196601152388401</c:v>
                 </c:pt>
@@ -2621,20 +3624,53 @@
                   <c:v>1.08853059837199</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1.0932755634731199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.00004085634782</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0639656719571799</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.0892637358011601</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>1.0406530935326901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0351749912163899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0351749912163899</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0819323614274901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0423994022168099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0901699434910901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0983005621868001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0932755634731199</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>1.04731743768034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tables!$F$131:$F$143</c:f>
+              <c:f>Tables!$F$131:$F$146</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2.6416162977398683E-2</c:v>
                 </c:pt>
@@ -2668,10 +3704,19 @@
                 <c:pt idx="10" formatCode="0.00%">
                   <c:v>8.6590505233696824E-4</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0.00%">
+                <c:pt idx="11">
+                  <c:v>-1.7509300444848996E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.4855639634548954E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.7109286046836925E-3</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00%">
                   <c:v>-1.8381795325845829E-3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>-2.6547865333960141E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -7242,7 +8287,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F388A5FC-AE15-4458-B3E9-16AF6815805A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7253,7 +8298,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{18989E30-B0EA-429F-B87A-6F4A60F8F2EB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7264,7 +8309,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="11623477" cy="7590234"/>
+    <xdr:ext cx="9288379" cy="6063916"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7297,7 +8342,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="11598088" cy="7563971"/>
+    <xdr:ext cx="9288379" cy="6063916"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7584,8 +8629,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{24B6E3DF-F151-43AB-98AE-88A67DD42249}" name="Table48" displayName="Table48" ref="A130:J144" totalsRowShown="0">
-  <autoFilter ref="A130:J144" xr:uid="{24B6E3DF-F151-43AB-98AE-88A67DD42249}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{24B6E3DF-F151-43AB-98AE-88A67DD42249}" name="Table48" displayName="Table48" ref="A130:J154" totalsRowShown="0">
+  <autoFilter ref="A130:J154" xr:uid="{24B6E3DF-F151-43AB-98AE-88A67DD42249}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{1A312C32-9FCA-41AE-BBF3-0E1189CFB3E5}" name="N"/>
     <tableColumn id="2" xr3:uid="{23CC626A-68F3-43FF-9384-035F3812EF42}" name="eff (stochastic)" dataDxfId="13" dataCellStyle="Percent"/>
@@ -7602,8 +8647,8 @@
     <tableColumn id="8" xr3:uid="{EC225E2A-8E22-4676-B463-53E0BCD0C837}" name="time /h" dataDxfId="8">
       <calculatedColumnFormula>Table48[[#This Row],[time /s]]/3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9D985096-4123-4E85-B451-0D523A795D58}" name="Z-score" dataDxfId="7">
-      <calculatedColumnFormula>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{9D985096-4123-4E85-B451-0D523A795D58}" name="Z-score" dataDxfId="1">
+      <calculatedColumnFormula>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7611,29 +8656,29 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2EAD48A6-0370-4313-99C6-706237C08F90}" name="Table479" displayName="Table479" ref="A152:M166" totalsRowShown="0">
-  <autoFilter ref="A152:M166" xr:uid="{2EAD48A6-0370-4313-99C6-706237C08F90}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2EAD48A6-0370-4313-99C6-706237C08F90}" name="Table479" displayName="Table479" ref="A161:M185" totalsRowShown="0">
+  <autoFilter ref="A161:M185" xr:uid="{2EAD48A6-0370-4313-99C6-706237C08F90}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{4936D717-6A48-44A9-B3F8-AD43FF4DBAEA}" name="N"/>
-    <tableColumn id="2" xr3:uid="{05152AB6-FBEE-4D8C-8972-8AADD038EDD3}" name="eff (stochastic)" dataDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{487B6454-47C0-473F-B56B-87BC9FBD6525}" name="std" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{05152AB6-FBEE-4D8C-8972-8AADD038EDD3}" name="eff (stochastic)" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{487B6454-47C0-473F-B56B-87BC9FBD6525}" name="std" dataDxfId="6" dataCellStyle="Percent"/>
     <tableColumn id="4" xr3:uid="{B06F9C07-E7BF-4288-BED3-4C97CB606F5D}" name="time /s"/>
-    <tableColumn id="9" xr3:uid="{175C5E83-32ED-47D6-837B-81D7CEDCF30F}" name="interation" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{581325E5-812B-46FB-AB3E-4F0EF2E9D513}" name="error" dataDxfId="3">
-      <calculatedColumnFormula>B153/B$5-1</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{175C5E83-32ED-47D6-837B-81D7CEDCF30F}" name="interation" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{581325E5-812B-46FB-AB3E-4F0EF2E9D513}" name="error" dataDxfId="4">
+      <calculatedColumnFormula>B162/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{234C2629-0DD0-4C9F-906A-25E8843F567A}" name="L /keV-1"/>
     <tableColumn id="13" xr3:uid="{EB7613CB-4675-4100-8500-0CC47CA99624}" name="LA /keV-1"/>
     <tableColumn id="12" xr3:uid="{247FDCBC-64CE-43CD-8AC9-8259472F6D90}" name="LB /keV-1"/>
     <tableColumn id="11" xr3:uid="{BC1F7DB4-29E0-4C86-B60F-ABD31D50B674}" name="LC /keV-1"/>
-    <tableColumn id="7" xr3:uid="{2AECCDA0-2990-4A3D-80AF-B2DAC0A52A36}" name="speed /s" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{2AECCDA0-2990-4A3D-80AF-B2DAC0A52A36}" name="speed /s" dataDxfId="3">
       <calculatedColumnFormula>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{47842E90-0810-4534-9AFB-FD27204EF560}" name="time /h" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{47842E90-0810-4534-9AFB-FD27204EF560}" name="time /h" dataDxfId="2">
       <calculatedColumnFormula>Table479[[#This Row],[time /s]]/3600</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{C2D7729C-B424-48AD-8D16-1C4AB2258D34}" name="Z-score" dataDxfId="0">
-      <calculatedColumnFormula>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</calculatedColumnFormula>
+      <calculatedColumnFormula>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7903,10 +8948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P166"/>
+  <dimension ref="A1:P223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G155" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView topLeftCell="E125" workbookViewId="0">
+      <selection activeCell="O131" sqref="O131:O154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7944,6 +8989,12 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2">
+        <v>7062</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -7952,6 +9003,16 @@
       <c r="E3">
         <f>E1/E2</f>
         <v>0.9742636907501151</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I3">
+        <f>H3/H2</f>
+        <v>3.2568677428490512E-4</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -9340,7 +10401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -9367,7 +10428,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E83" t="s">
         <v>47</v>
       </c>
@@ -9379,7 +10440,7 @@
         <v>7.1019712816277225E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -9414,7 +10475,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>10</v>
       </c>
@@ -9453,11 +10514,8 @@
         <f t="shared" ref="K86:K95" si="5">B$5</f>
         <v>0.9742636907501151</v>
       </c>
-      <c r="L86">
-        <v>1.00265302811656E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>20</v>
       </c>
@@ -9496,11 +10554,8 @@
         <f t="shared" si="5"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="L87">
-        <v>2.0395525828444099E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>50</v>
       </c>
@@ -9539,11 +10594,8 @@
         <f t="shared" si="5"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="L88">
-        <v>1.9879563526973999E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>100</v>
       </c>
@@ -9582,11 +10634,8 @@
         <f t="shared" si="5"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="L89">
-        <v>1.14097567092479E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>200</v>
       </c>
@@ -9617,7 +10666,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>0.30786678333333334</v>
       </c>
-      <c r="J90" s="33">
+      <c r="J90" s="31">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.75321157251008963</v>
       </c>
@@ -9625,11 +10674,8 @@
         <f t="shared" si="5"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="L90">
-        <v>3.7538272730722301E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>500</v>
       </c>
@@ -9660,7 +10706,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>0.7801351319444445</v>
       </c>
-      <c r="J91" s="33">
+      <c r="J91" s="31">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.59052928593604526</v>
       </c>
@@ -9668,11 +10714,8 @@
         <f t="shared" si="5"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="L91">
-        <v>3.13060226043556E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>800</v>
       </c>
@@ -9703,7 +10746,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>1.2436036622222224</v>
       </c>
-      <c r="J92" s="33">
+      <c r="J92" s="31">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>1.3579392458518909</v>
       </c>
@@ -9711,11 +10754,8 @@
         <f t="shared" si="5"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="L92">
-        <v>2.57491114706141E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1000</v>
       </c>
@@ -9746,7 +10786,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>1.5612693875000001</v>
       </c>
-      <c r="J93" s="33">
+      <c r="J93" s="31">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.36847538800239804</v>
       </c>
@@ -9754,11 +10794,8 @@
         <f t="shared" si="5"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="L93">
-        <v>1.76687281059551E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2000</v>
       </c>
@@ -9789,7 +10826,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>3.1180658544444446</v>
       </c>
-      <c r="J94" s="33">
+      <c r="J94" s="31">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.69778375218106037</v>
       </c>
@@ -9797,11 +10834,8 @@
         <f t="shared" si="5"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="L94">
-        <v>1.30808488959374E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>3000</v>
       </c>
@@ -9832,7 +10866,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>4.6683338922222228</v>
       </c>
-      <c r="J95" s="33">
+      <c r="J95" s="31">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.59053942442003371</v>
       </c>
@@ -9840,11 +10874,8 @@
         <f t="shared" si="5"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="L95">
-        <v>6.0922820321060401E-4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5000</v>
       </c>
@@ -9875,7 +10906,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>7.9086299905555553</v>
       </c>
-      <c r="J96" s="33">
+      <c r="J96" s="31">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>1.7480593605447583</v>
       </c>
@@ -9883,11 +10914,8 @@
         <f>B$5</f>
         <v>0.9742636907501151</v>
       </c>
-      <c r="L96">
-        <v>1.00060922820321</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>10000</v>
       </c>
@@ -9918,7 +10946,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>15.617344490000001</v>
       </c>
-      <c r="J97" s="33">
+      <c r="J97" s="31">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>1.0691180241689571</v>
       </c>
@@ -9926,11 +10954,8 @@
         <f>B$5</f>
         <v>0.9742636907501151</v>
       </c>
-      <c r="L97">
-        <v>2.00060922820321</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>20000</v>
       </c>
@@ -9961,7 +10986,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>31.092622802499999</v>
       </c>
-      <c r="J98" s="33">
+      <c r="J98" s="31">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.17010334657209036</v>
       </c>
@@ -9970,7 +10995,7 @@
         <v>0.9742636907501151</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>50000</v>
       </c>
@@ -9978,19 +11003,19 @@
       <c r="C99" s="24"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
-      <c r="F99" s="34"/>
+      <c r="F99" s="22"/>
       <c r="I99" s="5"/>
       <c r="J99" s="31"/>
       <c r="K99" s="14">
         <v>0.97430000000000005</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -10017,7 +11042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E105" t="s">
         <v>47</v>
       </c>
@@ -10029,7 +11054,7 @@
         <v>4.6098267241727206E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -10073,7 +11098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>10</v>
       </c>
@@ -10121,11 +11146,8 @@
         <f t="shared" ref="N108:N120" si="7">B$5</f>
         <v>0.9742636907501151</v>
       </c>
-      <c r="O108">
-        <v>1.00265302811656E-4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>20</v>
       </c>
@@ -10173,11 +11195,8 @@
         <f t="shared" si="7"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="O109">
-        <v>2.0395525828444099E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -10225,11 +11244,8 @@
         <f t="shared" si="7"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="O110">
-        <v>1.9879563526973999E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>100</v>
       </c>
@@ -10277,11 +11293,8 @@
         <f t="shared" si="7"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="O111">
-        <v>1.14097567092479E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>200</v>
       </c>
@@ -10329,11 +11342,8 @@
         <f t="shared" si="7"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="O112">
-        <v>3.7538272730722301E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>500</v>
       </c>
@@ -10381,11 +11391,8 @@
         <f t="shared" si="7"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="O113">
-        <v>3.13060226043556E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>800</v>
       </c>
@@ -10433,11 +11440,8 @@
         <f t="shared" si="7"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="O114">
-        <v>2.57491114706141E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1000</v>
       </c>
@@ -10485,11 +11489,8 @@
         <f t="shared" si="7"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="O115">
-        <v>1.76687281059551E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2000</v>
       </c>
@@ -10537,11 +11538,8 @@
         <f t="shared" si="7"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="O116">
-        <v>1.30808488959374E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>3000</v>
       </c>
@@ -10589,11 +11587,8 @@
         <f t="shared" si="7"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="O117">
-        <v>6.0922820321060401E-4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5000</v>
       </c>
@@ -10641,11 +11636,8 @@
         <f t="shared" si="7"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="O118">
-        <v>1.00060922820321</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>10000</v>
       </c>
@@ -10693,11 +11685,8 @@
         <f t="shared" si="7"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="O119">
-        <v>2.00060922820321</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>20000</v>
       </c>
@@ -10728,7 +11717,7 @@
         <v>0.9742636907501151</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>50000</v>
       </c>
@@ -10744,12 +11733,12 @@
       <c r="M121" s="31"/>
       <c r="N121" s="14"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>28</v>
       </c>
@@ -10776,7 +11765,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E128" t="s">
         <v>47</v>
       </c>
@@ -10788,7 +11777,7 @@
         <v>2.5954777181250956</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -10822,8 +11811,20 @@
       <c r="K130" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L130" t="s">
+        <v>37</v>
+      </c>
+      <c r="M130" t="s">
+        <v>59</v>
+      </c>
+      <c r="N130" t="s">
+        <v>60</v>
+      </c>
+      <c r="O130" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>10</v>
       </c>
@@ -10840,33 +11841,46 @@
         <v>20</v>
       </c>
       <c r="F131" s="9">
-        <f t="shared" ref="F131:F142" si="8">B131/B$5-1</f>
+        <f t="shared" ref="F131:F134" si="8">B131/B$5-1</f>
         <v>2.6416162977398683E-2</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="3">
         <v>1.8196601152388401</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="15">
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>216.9211513307028</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="25">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.5610944444444443E-4</v>
       </c>
       <c r="J131" s="30">
-        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
-        <v>264.16162976614913</v>
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>267.3253486063486</v>
       </c>
       <c r="K131" s="14">
         <f t="shared" ref="K131:K140" si="9">B$5</f>
         <v>0.9742636907501151</v>
       </c>
       <c r="L131">
-        <v>1.00265302811656E-4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+        <f>K131*I$3</f>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M131" s="14">
+        <f>K131-L131</f>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N131" s="14">
+        <f>K131+L131</f>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O131" s="21">
+        <f>$C$190</f>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>20</v>
       </c>
@@ -10886,30 +11900,43 @@
         <f t="shared" si="8"/>
         <v>-3.5002260446178601E-3</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="3">
         <v>1.9787137682881299</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="15">
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>220.71400982177343</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="25">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>5.0341666666666666E-4</v>
       </c>
-      <c r="J132" s="33">
-        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
-        <v>0.12327020153720541</v>
+      <c r="J132" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>-8.5012795433275418E-2</v>
       </c>
       <c r="K132" s="14">
         <f t="shared" si="9"/>
         <v>0.9742636907501151</v>
       </c>
       <c r="L132">
-        <v>2.0395525828444099E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L132:L154" si="10">K132*I$3</f>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M132" s="14">
+        <f t="shared" ref="M132:M154" si="11">K132-L132</f>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N132" s="14">
+        <f t="shared" ref="N132:N154" si="12">K132+L132</f>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O132" s="21">
+        <f t="shared" ref="O132:O154" si="13">$C$190</f>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>50</v>
       </c>
@@ -10929,30 +11956,43 @@
         <f t="shared" si="8"/>
         <v>5.4351200559337176E-3</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="3">
         <v>1.4156747295438501</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="15">
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>220.68848628443126</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="25">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>1.2586872222222223E-3</v>
       </c>
-      <c r="J133" s="33">
-        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
-        <v>0.35236591571079956</v>
+      <c r="J133" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>0.40788397475657451</v>
       </c>
       <c r="K133" s="14">
         <f t="shared" si="9"/>
         <v>0.9742636907501151</v>
       </c>
       <c r="L133">
-        <v>1.9879563526973999E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M133" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N133" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O133" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>100</v>
       </c>
@@ -10972,30 +12012,43 @@
         <f t="shared" si="8"/>
         <v>-3.533915470022575E-3</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="3">
         <v>1.6177539619694401</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="15">
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>212.96932049156726</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="25">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.6086177777777777E-3</v>
       </c>
-      <c r="J134" s="33">
-        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
-        <v>0.22706635146922907</v>
+      <c r="J134" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>-0.15721149141369237</v>
       </c>
       <c r="K134" s="14">
         <f t="shared" si="9"/>
         <v>0.9742636907501151</v>
       </c>
       <c r="L134">
-        <v>1.14097567092479E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M134" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N134" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O134" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>200</v>
       </c>
@@ -11015,30 +12068,43 @@
         <f>B135/B$5-1</f>
         <v>4.8134335658462923E-3</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="3">
         <v>1.6362146072069099</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="15">
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>222.41383173826472</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="25">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>4.9956925000000001E-3</v>
       </c>
-      <c r="J135" s="33">
-        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
-        <v>0.58735734280816199</v>
+      <c r="J135" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>0.69380507116584633</v>
       </c>
       <c r="K135" s="14">
         <f t="shared" si="9"/>
         <v>0.9742636907501151</v>
       </c>
       <c r="L135">
-        <v>3.7538272730722301E-3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M135" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N135" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O135" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>500</v>
       </c>
@@ -11058,30 +12124,43 @@
         <f>B136/B$5-1</f>
         <v>-2.9360894586523134E-3</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="3">
         <v>1.0444918509418399</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="15">
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>219.40237994976434</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="25">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>1.2660654722222222E-2</v>
       </c>
-      <c r="J136" s="33">
-        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
-        <v>0.49996000105065586</v>
+      <c r="J136" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>-0.31745452837920285</v>
       </c>
       <c r="K136" s="14">
         <f t="shared" si="9"/>
         <v>0.9742636907501151</v>
       </c>
       <c r="L136">
-        <v>3.13060226043556E-3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M136" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N136" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O136" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>800</v>
       </c>
@@ -11101,30 +12180,43 @@
         <f>B137/B$5-1</f>
         <v>-3.6023918944571021E-3</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="3">
         <v>1</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="15">
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>220.59361935989162</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="25">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.014765638888889E-2</v>
       </c>
-      <c r="J137" s="33">
-        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
-        <v>0.70554524054353573</v>
+      <c r="J137" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>-0.49227152232374477</v>
       </c>
       <c r="K137" s="14">
         <f t="shared" si="9"/>
         <v>0.9742636907501151</v>
       </c>
       <c r="L137">
-        <v>2.57491114706141E-3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M137" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N137" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O137" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1000</v>
       </c>
@@ -11141,33 +12233,46 @@
         <v>20</v>
       </c>
       <c r="F138" s="23">
-        <f t="shared" ref="F138:F149" si="10">B138/B$5-1</f>
+        <f t="shared" ref="F138:F139" si="14">B138/B$5-1</f>
         <v>7.4093994329316182E-4</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="3">
         <v>1.10835055967366</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="15">
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>220.26995007515498</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="25">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.5221577222222225E-2</v>
       </c>
-      <c r="J138" s="33">
-        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
-        <v>0.17931280954353371</v>
+      <c r="J138" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>0.41579193839605727</v>
       </c>
       <c r="K138" s="14">
         <f t="shared" si="9"/>
         <v>0.9742636907501151</v>
       </c>
       <c r="L138">
-        <v>1.76687281059551E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M138" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N138" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O138" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2000</v>
       </c>
@@ -11184,33 +12289,46 @@
         <v>20</v>
       </c>
       <c r="F139" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-4.3299072027237484E-3</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="3">
         <v>1.0181806160862901</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="15">
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>218.8935170214034</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="25">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>5.0760348055555557E-2</v>
       </c>
-      <c r="J139" s="33">
-        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
-        <v>1.3469175233882833</v>
+      <c r="J139" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>-1.0023536261496429</v>
       </c>
       <c r="K139" s="14">
         <f t="shared" si="9"/>
         <v>0.9742636907501151</v>
       </c>
       <c r="L139">
-        <v>1.30808488959374E-3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M139" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N139" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O139" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>3000</v>
       </c>
@@ -11230,30 +12348,43 @@
         <f>B140/B$5-1</f>
         <v>6.0780921488705619E-3</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="3">
         <v>1.31308230427802</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="15">
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>219.80522685179778</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="25">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>7.5824705833333325E-2</v>
       </c>
       <c r="J140" s="30">
-        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
-        <v>2.8654035064556895</v>
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>3.2613110158094019</v>
       </c>
       <c r="K140" s="14">
         <f t="shared" si="9"/>
         <v>0.9742636907501151</v>
       </c>
       <c r="L140">
-        <v>6.0922820321060401E-4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M140" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N140" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O140" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>5000</v>
       </c>
@@ -11270,913 +12401,2219 @@
         <v>20</v>
       </c>
       <c r="F141" s="23">
-        <f t="shared" ref="F141:F152" si="11">B141/B$5-1</f>
+        <f t="shared" ref="F141:F145" si="15">B141/B$5-1</f>
         <v>8.6590505233696824E-4</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="3">
         <v>1.08853059837199</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="15">
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>221.60552949053479</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="25">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.12534785500000001</v>
       </c>
-      <c r="J141" s="33">
-        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
-        <v>0.46539162915705701</v>
+      <c r="J141" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>0.98884866574488528</v>
       </c>
       <c r="K141" s="14">
         <f>B$5</f>
         <v>0.9742636907501151</v>
       </c>
       <c r="L141">
-        <v>1.00060922820321</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M141" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N141" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O141" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
+        <v>7000</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0.97255782318272999</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1.6474252699531699E-3</v>
+      </c>
+      <c r="D142" s="15">
+        <v>674.86001599999997</v>
+      </c>
+      <c r="E142" s="15">
+        <v>20</v>
+      </c>
+      <c r="F142" s="21">
+        <f>B142/B$5-1</f>
+        <v>-1.7509300444848996E-3</v>
+      </c>
+      <c r="G142" s="3">
+        <v>1.0932755634731199</v>
+      </c>
+      <c r="H142" s="15">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>207.45042924575932</v>
+      </c>
+      <c r="I142" s="25">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>0.18746111555555556</v>
+      </c>
+      <c r="J142" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>-0.4307577143054287</v>
+      </c>
+      <c r="K142" s="14">
+        <f t="shared" ref="K142:K154" si="16">B$5</f>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M142" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N142" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O142" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>8000</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0.97184209602948401</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1.57708983512519E-3</v>
+      </c>
+      <c r="D143" s="15">
+        <v>756.95043299999998</v>
+      </c>
+      <c r="E143" s="15">
+        <v>20</v>
+      </c>
+      <c r="F143" s="21">
+        <f>B143/B$5-1</f>
+        <v>-2.4855639634548954E-3</v>
+      </c>
+      <c r="G143" s="3">
+        <v>1.00004085634782</v>
+      </c>
+      <c r="H143" s="15">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>211.37447450274462</v>
+      </c>
+      <c r="I143" s="25">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>0.21026400916666665</v>
+      </c>
+      <c r="J143" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>-0.90379651512169934</v>
+      </c>
+      <c r="K143" s="14">
+        <f t="shared" si="16"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M143" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N143" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O143" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>9000</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0.97259679513310604</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1.4590034301809401E-3</v>
+      </c>
+      <c r="D144" s="15">
+        <v>843.74263900000005</v>
+      </c>
+      <c r="E144" s="15">
+        <v>20</v>
+      </c>
+      <c r="F144" s="21">
+        <f>B144/B$5-1</f>
+        <v>-1.7109286046836925E-3</v>
+      </c>
+      <c r="G144" s="3">
+        <v>1.0639656719571799</v>
+      </c>
+      <c r="H144" s="15">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>213.33519450117535</v>
+      </c>
+      <c r="I144" s="25">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>0.23437295527777779</v>
+      </c>
+      <c r="J144" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>-0.45967622798172797</v>
+      </c>
+      <c r="K144" s="14">
+        <f t="shared" si="16"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M144" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N144" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O144" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A145">
         <v>10000</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B145" s="1">
         <v>0.97247281917443795</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C145" s="1">
         <v>1.3904138338907599E-3</v>
       </c>
-      <c r="D142" s="15">
+      <c r="D145" s="15">
         <v>905.02535599999999</v>
       </c>
-      <c r="E142" s="15">
+      <c r="E145" s="15">
         <v>17</v>
       </c>
-      <c r="F142" s="23">
-        <f t="shared" si="11"/>
+      <c r="F145" s="23">
+        <f t="shared" si="15"/>
         <v>-1.8381795325845829E-3</v>
       </c>
-      <c r="G142">
+      <c r="G145" s="3">
         <v>1.0892637358011601</v>
       </c>
-      <c r="H142">
+      <c r="H145" s="15">
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>187.84004102532572</v>
       </c>
-      <c r="I142">
+      <c r="I145" s="25">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.25139593222222223</v>
       </c>
-      <c r="J142" s="33">
-        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
-        <v>1.3220377183970125</v>
-      </c>
-      <c r="K142" s="14">
-        <f>B$5</f>
+      <c r="J145" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>-0.57151700644579262</v>
+      </c>
+      <c r="K145" s="14">
+        <f t="shared" si="16"/>
         <v>0.9742636907501151</v>
       </c>
-      <c r="L142">
-        <v>2.00060922820321</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A143">
+      <c r="L145">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M145" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N145" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O145" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>20000</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B146" s="1">
         <v>0.97167722862393502</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C146" s="1">
         <v>1.0030663635827301E-3</v>
       </c>
-      <c r="D143" s="15">
+      <c r="D146" s="15">
         <v>1777.1452380000001</v>
       </c>
-      <c r="E143" s="15">
+      <c r="E146" s="15">
         <v>20</v>
       </c>
-      <c r="F143" s="21">
-        <f>B143/B$5-1</f>
+      <c r="F146" s="21">
+        <f>B146/B$5-1</f>
         <v>-2.6547865333960141E-3</v>
       </c>
-      <c r="G143">
+      <c r="G146" s="3">
         <v>1.0406530935326901</v>
       </c>
-      <c r="H143">
+      <c r="H146" s="15">
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>225.08008430991276</v>
       </c>
-      <c r="I143">
+      <c r="I146" s="25">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.49365145500000002</v>
       </c>
-      <c r="J143" s="30">
-        <f>ABS(Table48[[#This Row],[error]])/Table48[[#This Row],[std]]</f>
-        <v>2.6466708781996306</v>
-      </c>
-      <c r="K143" s="14">
-        <f>B$5</f>
+      <c r="J146" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>-1.585374368340924</v>
+      </c>
+      <c r="K146" s="14">
+        <f t="shared" si="16"/>
         <v>0.9742636907501151</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A144">
+      <c r="L146">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M146" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N146" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O146" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>30000</v>
+      </c>
+      <c r="B147" s="1">
+        <v>0.97386147249556498</v>
+      </c>
+      <c r="C147" s="1">
+        <v>7.8193127700400397E-4</v>
+      </c>
+      <c r="D147" s="15">
+        <v>2820.7693079999999</v>
+      </c>
+      <c r="E147" s="15">
+        <v>20</v>
+      </c>
+      <c r="F147" s="21">
+        <f>B147/B$5-1</f>
+        <v>-4.1284331785007566E-4</v>
+      </c>
+      <c r="G147" s="3">
+        <v>1.0351749912163899</v>
+      </c>
+      <c r="H147" s="15">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>212.70792981841393</v>
+      </c>
+      <c r="I147" s="25">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>0.78354702999999992</v>
+      </c>
+      <c r="J147" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>0.75966799964432807</v>
+      </c>
+      <c r="K147" s="14">
+        <f t="shared" si="16"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M147" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N147" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O147" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>40000</v>
+      </c>
+      <c r="B148" s="1">
+        <v>0.97315076202509598</v>
+      </c>
+      <c r="C148" s="1">
+        <v>6.8392417700342703E-4</v>
+      </c>
+      <c r="D148" s="15">
+        <v>3752.6048460000002</v>
+      </c>
+      <c r="E148" s="15">
+        <v>20</v>
+      </c>
+      <c r="F148" s="21">
+        <f>B148/B$5-1</f>
+        <v>-1.1423280325291163E-3</v>
+      </c>
+      <c r="G148" s="3">
+        <v>1.0351749912163899</v>
+      </c>
+      <c r="H148" s="15">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>213.1852494015566</v>
+      </c>
+      <c r="I148" s="25">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>1.0423902350000001</v>
+      </c>
+      <c r="J148" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>-0.17063631515317662</v>
+      </c>
+      <c r="K148" s="14">
+        <f t="shared" si="16"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M148" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N148" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O148" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A149">
         <v>50000</v>
       </c>
-      <c r="B144" s="1"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="34"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="31"/>
-      <c r="K144" s="14">
-        <v>0.97430000000000005</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>28</v>
-      </c>
-      <c r="B149" t="s">
-        <v>29</v>
-      </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149" t="s">
-        <v>30</v>
-      </c>
-      <c r="E149" t="s">
-        <v>33</v>
-      </c>
-      <c r="H149" s="25">
-        <f>AVERAGE(K153:K163)*3</f>
-        <v>213.5367421130548</v>
-      </c>
-      <c r="I149" t="s">
-        <v>49</v>
-      </c>
-      <c r="K149" t="s">
-        <v>53</v>
-      </c>
-      <c r="O149" s="29">
-        <f>H149/H104</f>
-        <v>62.743608336262362</v>
-      </c>
-      <c r="P149" s="35" t="s">
-        <v>56</v>
+      <c r="B149" s="1">
+        <v>0.97377929877157499</v>
+      </c>
+      <c r="C149" s="1">
+        <v>6.1367052850524301E-4</v>
+      </c>
+      <c r="D149" s="15">
+        <v>4580.2534340000002</v>
+      </c>
+      <c r="E149" s="15">
+        <v>20</v>
+      </c>
+      <c r="F149" s="21">
+        <f>B149/B$5-1</f>
+        <v>-4.9718775639395751E-4</v>
+      </c>
+      <c r="G149" s="3">
+        <v>1.0819323614274901</v>
+      </c>
+      <c r="H149" s="15">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>218.32853015879644</v>
+      </c>
+      <c r="I149" s="25">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>1.2722926205555556</v>
+      </c>
+      <c r="J149" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>0.83405414028546743</v>
+      </c>
+      <c r="K149" s="14">
+        <f t="shared" si="16"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M149" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N149" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O149" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E150" t="s">
-        <v>47</v>
-      </c>
-      <c r="F150">
+      <c r="A150">
+        <v>60000</v>
+      </c>
+      <c r="B150" s="1">
+        <v>0.97310247690642304</v>
+      </c>
+      <c r="C150" s="1">
+        <v>5.6481578904607802E-4</v>
+      </c>
+      <c r="D150" s="15">
+        <v>5676.9708179999998</v>
+      </c>
+      <c r="E150" s="15">
         <v>20</v>
       </c>
-      <c r="H150" s="25">
-        <f>_xlfn.STDEV.S(K153:K163)</f>
-        <v>4.4405190304637721</v>
+      <c r="F150" s="21">
+        <f>B150/B$5-1</f>
+        <v>-1.1918886588064836E-3</v>
+      </c>
+      <c r="G150" s="3">
+        <v>1.0423994022168099</v>
+      </c>
+      <c r="H150" s="15">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>211.38033618125252</v>
+      </c>
+      <c r="I150" s="25">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>1.5769363383333332</v>
+      </c>
+      <c r="J150" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>-0.29210837104894666</v>
+      </c>
+      <c r="K150" s="14">
+        <f t="shared" si="16"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M150" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N150" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O150" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>70000</v>
+      </c>
+      <c r="B151" s="1">
+        <v>0.97398609166737704</v>
+      </c>
+      <c r="C151" s="1">
+        <v>5.1666407229893801E-4</v>
+      </c>
+      <c r="D151" s="15">
+        <v>6579.9411419999997</v>
+      </c>
+      <c r="E151" s="15">
+        <v>20</v>
+      </c>
+      <c r="F151" s="21">
+        <f>B151/B$5-1</f>
+        <v>-2.8493218558145461E-4</v>
+      </c>
+      <c r="G151" s="3">
+        <v>1.0901699434910901</v>
+      </c>
+      <c r="H151" s="15">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>212.7678606520885</v>
+      </c>
+      <c r="I151" s="25">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>1.8277614283333332</v>
+      </c>
+      <c r="J151" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>1.3908986116945079</v>
+      </c>
+      <c r="K151" s="14">
+        <f t="shared" si="16"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M151" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N151" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O151" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>6</v>
-      </c>
-      <c r="B152" t="s">
-        <v>9</v>
-      </c>
-      <c r="C152" t="s">
-        <v>27</v>
-      </c>
-      <c r="D152" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" t="s">
-        <v>48</v>
-      </c>
-      <c r="F152" t="s">
-        <v>8</v>
-      </c>
-      <c r="G152" t="s">
-        <v>21</v>
-      </c>
-      <c r="H152" t="s">
-        <v>22</v>
-      </c>
-      <c r="I152" t="s">
-        <v>23</v>
-      </c>
-      <c r="J152" t="s">
-        <v>24</v>
-      </c>
-      <c r="K152" t="s">
-        <v>45</v>
-      </c>
-      <c r="L152" t="s">
-        <v>43</v>
-      </c>
-      <c r="M152" t="s">
-        <v>50</v>
-      </c>
-      <c r="N152" t="s">
-        <v>46</v>
+      <c r="A152">
+        <v>80000</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0.97407928076459804</v>
+      </c>
+      <c r="C152" s="1">
+        <v>4.84945225712072E-4</v>
+      </c>
+      <c r="D152" s="15">
+        <v>7463.976087</v>
+      </c>
+      <c r="E152" s="15">
+        <v>20</v>
+      </c>
+      <c r="F152" s="21">
+        <f>B152/B$5-1</f>
+        <v>-1.8928138990281784E-4</v>
+      </c>
+      <c r="G152" s="3">
+        <v>1.0983005621868001</v>
+      </c>
+      <c r="H152" s="15">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>214.36295901144678</v>
+      </c>
+      <c r="I152" s="25">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>2.0733266908333334</v>
+      </c>
+      <c r="J152" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>1.6740373861851947</v>
+      </c>
+      <c r="K152" s="14">
+        <f t="shared" si="16"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M152" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N152" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O152" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153">
+        <v>90000</v>
+      </c>
+      <c r="B153" s="1">
+        <v>0.97302268324139396</v>
+      </c>
+      <c r="C153" s="1">
+        <v>4.67831521301818E-4</v>
+      </c>
+      <c r="D153" s="15">
+        <v>8178.3266439999998</v>
+      </c>
+      <c r="E153" s="15">
+        <v>20</v>
+      </c>
+      <c r="F153" s="21">
+        <f>B153/B$5-1</f>
+        <v>-1.2737901663620876E-3</v>
+      </c>
+      <c r="G153" s="3">
+        <v>1.0932755634731199</v>
+      </c>
+      <c r="H153" s="15">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>220.09392365375422</v>
+      </c>
+      <c r="I153" s="25">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>2.271757401111111</v>
+      </c>
+      <c r="J153" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>-0.52322486614179786</v>
+      </c>
+      <c r="K153" s="14">
+        <f t="shared" si="16"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M153" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N153" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O153" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>100000</v>
+      </c>
+      <c r="B154" s="1">
+        <v>0.97250727618427102</v>
+      </c>
+      <c r="C154" s="1">
+        <v>4.4997537351935198E-4</v>
+      </c>
+      <c r="D154" s="15">
+        <v>9280.4419809999999</v>
+      </c>
+      <c r="E154" s="15">
+        <v>20</v>
+      </c>
+      <c r="F154" s="21">
+        <f>B154/B$5-1</f>
+        <v>-1.8028123007353125E-3</v>
+      </c>
+      <c r="G154">
+        <v>1.04731743768034</v>
+      </c>
+      <c r="H154">
+        <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
+        <v>215.50697737183557</v>
+      </c>
+      <c r="I154" s="25">
+        <f>Table48[[#This Row],[time /s]]/3600</f>
+        <v>2.5779005502777776</v>
+      </c>
+      <c r="J154" s="35">
+        <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
+        <v>-1.6893994359900339</v>
+      </c>
+      <c r="K154" s="14">
+        <f t="shared" si="16"/>
+        <v>0.9742636907501151</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="10"/>
+        <v>3.1730479874331137E-4</v>
+      </c>
+      <c r="M154" s="14">
+        <f t="shared" si="11"/>
+        <v>0.97394638595137184</v>
+      </c>
+      <c r="N154" s="14">
+        <f t="shared" si="12"/>
+        <v>0.97458099554885835</v>
+      </c>
+      <c r="O154" s="21">
+        <f t="shared" si="13"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158" t="s">
+        <v>29</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" t="s">
+        <v>33</v>
+      </c>
+      <c r="H158" s="25">
+        <f>AVERAGE(K162:K172)*3</f>
+        <v>213.5367421130548</v>
+      </c>
+      <c r="I158" t="s">
+        <v>49</v>
+      </c>
+      <c r="K158" t="s">
+        <v>53</v>
+      </c>
+      <c r="O158" s="29">
+        <f>H158/H104</f>
+        <v>62.743608336262362</v>
+      </c>
+      <c r="P158" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E159" t="s">
+        <v>47</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="H159" s="25">
+        <f>_xlfn.STDEV.S(K162:K172)</f>
+        <v>4.4405190304637721</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" t="s">
+        <v>48</v>
+      </c>
+      <c r="F161" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" t="s">
+        <v>21</v>
+      </c>
+      <c r="H161" t="s">
+        <v>22</v>
+      </c>
+      <c r="I161" t="s">
+        <v>23</v>
+      </c>
+      <c r="J161" t="s">
+        <v>24</v>
+      </c>
+      <c r="K161" t="s">
+        <v>45</v>
+      </c>
+      <c r="L161" t="s">
+        <v>43</v>
+      </c>
+      <c r="M161" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A162">
         <v>10</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B162" s="1">
         <v>0.99999999999975597</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C162" s="1">
         <v>1E-4</v>
       </c>
-      <c r="D153" s="15">
+      <c r="D162" s="15">
         <v>3.0923910000000001</v>
       </c>
-      <c r="E153">
+      <c r="E162">
         <v>20</v>
       </c>
-      <c r="F153" s="9">
-        <f t="shared" ref="F153:F166" si="12">B153/B$5-1</f>
+      <c r="F162" s="9">
+        <f t="shared" ref="F162:F180" si="17">B162/B$5-1</f>
         <v>2.6416163810667914E-2</v>
       </c>
-      <c r="G153">
+      <c r="G162">
         <v>2.5699951241173902</v>
       </c>
-      <c r="H153">
+      <c r="H162">
         <v>2.5278640600000002</v>
       </c>
-      <c r="I153">
+      <c r="I162">
         <v>2.6226589599999999</v>
       </c>
-      <c r="J153">
+      <c r="J162">
         <v>2.5594623599999999</v>
       </c>
-      <c r="K153">
+      <c r="K162">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>64.674874554996435</v>
       </c>
-      <c r="L153">
+      <c r="L162">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>8.5899750000000008E-4</v>
       </c>
-      <c r="M153" s="30">
-        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
-        <v>264.16163810667911</v>
-      </c>
-      <c r="N153" s="14">
-        <f t="shared" ref="N153:N165" si="13">B$5</f>
-        <v>0.9742636907501151</v>
-      </c>
-      <c r="O153">
-        <v>1.00265302811656E-4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A154">
+      <c r="M162" s="30">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>267.32535673251954</v>
+      </c>
+      <c r="N162" s="14"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A163">
         <v>20</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B163" s="1">
         <v>0.99999999998685996</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C163" s="1">
         <v>1E-4</v>
       </c>
-      <c r="D154" s="15">
+      <c r="D163" s="15">
         <v>5.907921</v>
       </c>
-      <c r="E154">
+      <c r="E163">
         <v>20</v>
       </c>
-      <c r="F154" s="21">
-        <f t="shared" si="12"/>
+      <c r="F163" s="21">
+        <f t="shared" si="17"/>
         <v>2.6416163797431169E-2</v>
       </c>
-      <c r="G154">
+      <c r="G163">
         <v>3.4324264855820998</v>
       </c>
-      <c r="H154">
+      <c r="H163">
         <v>3.4466985299999999</v>
       </c>
-      <c r="I154">
+      <c r="I163">
         <v>3.4466985299999999</v>
       </c>
-      <c r="J154">
+      <c r="J163">
         <v>3.4038824000000001</v>
       </c>
-      <c r="K154">
+      <c r="K163">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>67.705712381732937</v>
       </c>
-      <c r="L154">
+      <c r="L163">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>1.6410891666666667E-3</v>
       </c>
-      <c r="M154" s="30">
-        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
-        <v>264.1616379743117</v>
-      </c>
-      <c r="N154" s="14">
-        <f t="shared" si="13"/>
-        <v>0.9742636907501151</v>
-      </c>
-      <c r="O154">
-        <v>2.0395525828444099E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A155">
+      <c r="M163" s="30">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>267.32535660355938</v>
+      </c>
+      <c r="N163" s="14"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A164">
         <v>50</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B164" s="1">
         <v>0.99355282406985101</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C164" s="1">
         <v>4.4605023803087401E-3</v>
       </c>
-      <c r="D155" s="15">
+      <c r="D164" s="15">
         <v>12.671714</v>
       </c>
-      <c r="E155" s="15">
+      <c r="E164" s="15">
         <v>20</v>
       </c>
-      <c r="F155" s="21">
-        <f t="shared" si="12"/>
+      <c r="F164" s="21">
+        <f t="shared" si="17"/>
         <v>1.9798678225280808E-2</v>
       </c>
-      <c r="G155">
+      <c r="G164">
         <v>1.0098406394308499</v>
       </c>
-      <c r="H155">
+      <c r="H164">
         <v>1.0352274800000001</v>
       </c>
-      <c r="I155">
+      <c r="I164">
         <v>1.0035132200000001</v>
       </c>
-      <c r="J155">
+      <c r="J164">
         <v>0.99078122000000002</v>
       </c>
-      <c r="K155">
+      <c r="K164">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>78.915922502670128</v>
       </c>
-      <c r="L155">
+      <c r="L164">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>3.5199205555555553E-3</v>
       </c>
-      <c r="M155" s="30">
-        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
-        <v>4.4386655441960361</v>
-      </c>
-      <c r="N155" s="14">
-        <f t="shared" si="13"/>
-        <v>0.9742636907501151</v>
-      </c>
-      <c r="O155">
-        <v>1.9879563526973999E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A156">
+      <c r="M164" s="30">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>4.5477746706062554</v>
+      </c>
+      <c r="N164" s="14"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A165">
         <v>100</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B165" s="1">
         <v>0.99911541246763902</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C165" s="1">
         <v>5.6943984583410798E-4</v>
       </c>
-      <c r="D156" s="15">
+      <c r="D165" s="15">
         <v>29.937548</v>
       </c>
-      <c r="E156" s="15">
+      <c r="E165" s="15">
         <v>20</v>
       </c>
-      <c r="F156" s="23">
-        <f t="shared" si="12"/>
+      <c r="F165" s="23">
+        <f t="shared" si="17"/>
         <v>2.550820886939742E-2</v>
       </c>
-      <c r="G156">
+      <c r="G165">
         <v>2.0844665816284702</v>
       </c>
-      <c r="H156">
+      <c r="H165">
         <v>2.03590676</v>
       </c>
-      <c r="I156">
+      <c r="I165">
         <v>2.1109100500000002</v>
       </c>
-      <c r="J156">
+      <c r="J165">
         <v>2.10658294</v>
       </c>
-      <c r="K156">
+      <c r="K165">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>66.80573839915013</v>
       </c>
-      <c r="L156">
+      <c r="L165">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>8.3159855555555561E-3</v>
       </c>
-      <c r="M156" s="30">
-        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
-        <v>44.795265129424394</v>
-      </c>
-      <c r="N156" s="14">
-        <f t="shared" si="13"/>
-        <v>0.9742636907501151</v>
-      </c>
-      <c r="O156">
-        <v>1.14097567092479E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A157">
+      <c r="M165" s="30">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>45.391885253960879</v>
+      </c>
+      <c r="N165" s="14"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A166">
         <v>200</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B166" s="1">
         <v>0.95590071845454605</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C166" s="1">
         <v>1.3223967316902899E-2</v>
       </c>
-      <c r="D157" s="15">
+      <c r="D166" s="15">
         <v>56.891123999999998</v>
       </c>
-      <c r="E157" s="15">
+      <c r="E166" s="15">
         <v>20</v>
       </c>
-      <c r="F157" s="21">
-        <f t="shared" si="12"/>
+      <c r="F166" s="21">
+        <f t="shared" si="17"/>
         <v>-1.8848051579784197E-2</v>
       </c>
-      <c r="G157">
+      <c r="G166">
         <v>0.99414503320721703</v>
       </c>
-      <c r="H157">
+      <c r="H166">
         <v>0.97717580000000004</v>
       </c>
-      <c r="I157">
+      <c r="I166">
         <v>1.00523882</v>
       </c>
-      <c r="J157">
+      <c r="J166">
         <v>1.00002049</v>
       </c>
-      <c r="K157">
+      <c r="K166">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>70.30973759632522</v>
       </c>
-      <c r="L157">
+      <c r="L166">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>1.5803089999999999E-2</v>
       </c>
-      <c r="M157" s="31">
-        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
-        <v>1.4252947794034989</v>
-      </c>
-      <c r="N157" s="14">
-        <f t="shared" si="13"/>
-        <v>0.9742636907501151</v>
-      </c>
-      <c r="O157">
-        <v>3.7538272730722301E-3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A158">
+      <c r="M166" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>-1.3132780394700281</v>
+      </c>
+      <c r="N166" s="14"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A167">
         <v>500</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B167" s="1">
         <v>0.97021577784225399</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C167" s="1">
         <v>6.4163218616926703E-3</v>
       </c>
-      <c r="D158" s="15">
+      <c r="D167" s="15">
         <v>130.12619000000001</v>
       </c>
-      <c r="E158" s="15">
+      <c r="E167" s="15">
         <v>20</v>
       </c>
-      <c r="F158" s="21">
-        <f t="shared" si="12"/>
+      <c r="F167" s="21">
+        <f t="shared" si="17"/>
         <v>-4.154843238327488E-3</v>
       </c>
-      <c r="G158">
+      <c r="G167">
         <v>1.14174978691408</v>
       </c>
-      <c r="H158">
+      <c r="H167">
         <v>1.12704195</v>
       </c>
-      <c r="I158">
+      <c r="I167">
         <v>1.1679012200000001</v>
       </c>
-      <c r="J158">
+      <c r="J167">
         <v>1.13030619</v>
       </c>
-      <c r="K158">
+      <c r="K167">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>76.848480694009396</v>
       </c>
-      <c r="L158">
+      <c r="L167">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>3.6146163888888888E-2</v>
       </c>
-      <c r="M158" s="31">
-        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
-        <v>0.64754283340010188</v>
-      </c>
-      <c r="N158" s="14">
-        <f t="shared" si="13"/>
-        <v>0.9742636907501151</v>
-      </c>
-      <c r="O158">
-        <v>3.13060226043556E-3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A159">
+      <c r="M167" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>-0.47561306150638938</v>
+      </c>
+      <c r="N167" s="14"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A168">
         <v>800</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B168" s="1">
         <v>0.97455790938176401</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C168" s="1">
         <v>4.73780304218974E-3</v>
       </c>
-      <c r="D159" s="15">
+      <c r="D168" s="15">
         <v>229.84510399999999</v>
       </c>
-      <c r="E159" s="15">
+      <c r="E168" s="15">
         <v>20</v>
       </c>
-      <c r="F159" s="21">
-        <f t="shared" si="12"/>
+      <c r="F168" s="21">
+        <f t="shared" si="17"/>
         <v>3.0199075921877316E-4</v>
       </c>
-      <c r="G159">
+      <c r="G168">
         <v>1.16001002060544</v>
       </c>
-      <c r="H159">
+      <c r="H168">
         <v>1.1472860199999999</v>
       </c>
-      <c r="I159">
+      <c r="I168">
         <v>1.16384789</v>
       </c>
-      <c r="J159">
+      <c r="J168">
         <v>1.1688961600000001</v>
       </c>
-      <c r="K159">
+      <c r="K168">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>69.6120984156356</v>
       </c>
-      <c r="L159">
+      <c r="L168">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>6.3845862222222216E-2</v>
       </c>
-      <c r="M159" s="31">
-        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
-        <v>6.3740674006405651E-2</v>
-      </c>
-      <c r="N159" s="14">
-        <f t="shared" si="13"/>
-        <v>0.9742636907501151</v>
-      </c>
-      <c r="O159">
-        <v>2.57491114706141E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A160">
+      <c r="M168" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>0.27237203483738914</v>
+      </c>
+      <c r="N168" s="14"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A169">
         <v>1000</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B169" s="1">
         <v>0.97712675202761301</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C169" s="1">
         <v>4.0140669475216204E-3</v>
       </c>
-      <c r="D160" s="15">
+      <c r="D169" s="15">
         <v>290.81414999999998</v>
       </c>
-      <c r="E160" s="15">
+      <c r="E169" s="15">
         <v>20</v>
       </c>
-      <c r="F160" s="23">
-        <f t="shared" si="12"/>
+      <c r="F169" s="23">
+        <f t="shared" si="17"/>
         <v>2.9386923732050985E-3</v>
       </c>
-      <c r="G160">
+      <c r="G169">
         <v>1.1650378719602099</v>
       </c>
-      <c r="H160">
+      <c r="H169">
         <v>1.14593889</v>
       </c>
-      <c r="I160">
+      <c r="I169">
         <v>1.14593889</v>
       </c>
-      <c r="J160">
+      <c r="J169">
         <v>1.2032358299999999</v>
       </c>
-      <c r="K160">
+      <c r="K169">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>68.772444532014688</v>
       </c>
-      <c r="L160">
+      <c r="L169">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>8.0781708333333327E-2</v>
       </c>
-      <c r="M160" s="31">
-        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
-        <v>0.73209849552198336</v>
-      </c>
-      <c r="N160" s="14">
-        <f t="shared" si="13"/>
-        <v>0.9742636907501151</v>
-      </c>
-      <c r="O160">
-        <v>1.76687281059551E-3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A161">
+      <c r="M169" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>0.96144079098925062</v>
+      </c>
+      <c r="N169" s="14"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A170">
         <v>2000</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B170" s="1">
         <v>0.97130484785958604</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C170" s="1">
         <v>3.0745007242883502E-3</v>
       </c>
-      <c r="D161" s="15">
+      <c r="D170" s="15">
         <v>544.29601600000001</v>
       </c>
-      <c r="E161" s="15">
+      <c r="E170" s="15">
         <v>20</v>
       </c>
-      <c r="F161" s="23">
-        <f t="shared" si="12"/>
+      <c r="F170" s="23">
+        <f t="shared" si="17"/>
         <v>-3.0370041690160887E-3</v>
       </c>
-      <c r="G161">
+      <c r="G170">
         <v>1.0432196828253</v>
       </c>
-      <c r="H161">
+      <c r="H170">
         <v>1.0482080600000001</v>
       </c>
-      <c r="I161">
+      <c r="I170">
         <v>1.06150294</v>
       </c>
-      <c r="J161">
+      <c r="J170">
         <v>1.0199480400000001</v>
       </c>
-      <c r="K161">
+      <c r="K170">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>73.489422711482788</v>
       </c>
-      <c r="L161">
+      <c r="L170">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.15119333777777777</v>
       </c>
-      <c r="M161" s="31">
-        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
-        <v>0.9878040180716039</v>
-      </c>
-      <c r="N161" s="14">
-        <f t="shared" si="13"/>
-        <v>0.9742636907501151</v>
-      </c>
-      <c r="O161">
-        <v>1.30808488959374E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A162">
+      <c r="M170" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>-0.63835290439629366</v>
+      </c>
+      <c r="N170" s="14"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A171">
         <v>3000</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B171" s="1">
         <v>0.97469866140611805</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C171" s="1">
         <v>2.4024014575956499E-3</v>
       </c>
-      <c r="D162" s="15">
+      <c r="D171" s="15">
         <v>850.59076600000003</v>
       </c>
-      <c r="E162" s="15">
+      <c r="E171" s="15">
         <v>20</v>
       </c>
-      <c r="F162" s="23">
-        <f t="shared" si="12"/>
+      <c r="F171" s="23">
+        <f t="shared" si="17"/>
         <v>4.4646091210487349E-4</v>
       </c>
-      <c r="G162">
+      <c r="G171">
         <v>1.10277243577408</v>
       </c>
-      <c r="H162">
+      <c r="H171">
         <v>1.09896543</v>
       </c>
-      <c r="I162">
+      <c r="I171">
         <v>1.1009183</v>
       </c>
-      <c r="J162">
+      <c r="J171">
         <v>1.1084335700000001</v>
       </c>
-      <c r="K162">
+      <c r="K171">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>70.539209215915704</v>
       </c>
-      <c r="L162">
+      <c r="L171">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.2362752127777778</v>
       </c>
-      <c r="M162" s="33">
-        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
-        <v>0.18583942774980519</v>
-      </c>
-      <c r="N162" s="14">
-        <f t="shared" si="13"/>
-        <v>0.9742636907501151</v>
-      </c>
-      <c r="O162">
-        <v>6.0922820321060401E-4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A163">
+      <c r="M171" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>0.59573601867790682</v>
+      </c>
+      <c r="N171" s="14"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A172">
         <v>5000</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B172" s="1">
         <v>0.97309665583739302</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C172" s="1">
         <v>1.9070775078408901E-3</v>
       </c>
-      <c r="D163" s="15">
+      <c r="D172" s="15">
         <v>1328.1197830000001</v>
       </c>
-      <c r="E163" s="15">
+      <c r="E172" s="15">
         <v>20</v>
       </c>
-      <c r="F163" s="23">
-        <f t="shared" si="12"/>
+      <c r="F172" s="23">
+        <f t="shared" si="17"/>
         <v>-1.1978634981496539E-3</v>
       </c>
-      <c r="G163">
+      <c r="G172">
         <v>1.08874409587036</v>
       </c>
-      <c r="H163">
+      <c r="H172">
         <v>1.0889122899999999</v>
       </c>
-      <c r="I163">
+      <c r="I172">
         <v>1.1039235000000001</v>
       </c>
-      <c r="J163">
+      <c r="J172">
         <v>1.0733964899999999</v>
       </c>
-      <c r="K163">
+      <c r="K172">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>75.294413410601223</v>
       </c>
-      <c r="L163">
+      <c r="L172">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.36892216194444449</v>
       </c>
-      <c r="M163" s="31">
-        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
-        <v>0.62811474270168632</v>
-      </c>
-      <c r="N163" s="14">
-        <f t="shared" si="13"/>
-        <v>0.9742636907501151</v>
-      </c>
-      <c r="O163">
-        <v>1.00060922820321</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A164">
+      <c r="M172" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>-8.95655726674571E-2</v>
+      </c>
+      <c r="N172" s="14"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>7000</v>
+      </c>
+      <c r="B173" s="1">
+        <v>0.973358805524138</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1.6014163952188199E-3</v>
+      </c>
+      <c r="D173" s="15">
+        <v>2012.151895</v>
+      </c>
+      <c r="E173" s="15">
+        <v>20</v>
+      </c>
+      <c r="F173" s="21">
+        <f>B173/B$5-1</f>
+        <v>-9.2878882233660143E-4</v>
+      </c>
+      <c r="G173">
+        <v>1.0198522897701501</v>
+      </c>
+      <c r="H173">
+        <v>1.0114225800000001</v>
+      </c>
+      <c r="I173">
+        <v>1.04074942</v>
+      </c>
+      <c r="J173">
+        <v>1.0073848700000001</v>
+      </c>
+      <c r="K173" s="34">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>69.577252268025219</v>
+      </c>
+      <c r="L173" s="34">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>0.55893108194444441</v>
+      </c>
+      <c r="M173" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>5.7037756018169336E-2</v>
+      </c>
+      <c r="N173" s="14"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>8000</v>
+      </c>
+      <c r="B174" s="1">
+        <v>0.97437427817034095</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1.51089851546704E-3</v>
+      </c>
+      <c r="D174" s="15">
+        <v>2275.4293790000002</v>
+      </c>
+      <c r="E174" s="15">
+        <v>20</v>
+      </c>
+      <c r="F174" s="21">
+        <f>B174/B$5-1</f>
+        <v>1.1350871563386988E-4</v>
+      </c>
+      <c r="G174">
+        <v>1.1621205667410399</v>
+      </c>
+      <c r="H174">
+        <v>1.1468171899999999</v>
+      </c>
+      <c r="I174">
+        <v>1.2137188400000001</v>
+      </c>
+      <c r="J174">
+        <v>1.1258256600000001</v>
+      </c>
+      <c r="K174" s="34">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>70.316398951619576</v>
+      </c>
+      <c r="L174" s="34">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>0.63206371638888892</v>
+      </c>
+      <c r="M174" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>0.73255339952120957</v>
+      </c>
+      <c r="N174" s="14"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>9000</v>
+      </c>
+      <c r="B175" s="1">
+        <v>0.97502196140878705</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1.38959820358256E-3</v>
+      </c>
+      <c r="D175" s="15">
+        <v>2521.2965060000001</v>
+      </c>
+      <c r="E175" s="15">
+        <v>20</v>
+      </c>
+      <c r="F175" s="21">
+        <f>B175/B$5-1</f>
+        <v>7.7830126060440818E-4</v>
+      </c>
+      <c r="G175">
+        <v>1.09988595575304</v>
+      </c>
+      <c r="H175">
+        <v>1.09213911</v>
+      </c>
+      <c r="I175">
+        <v>1.11748106</v>
+      </c>
+      <c r="J175">
+        <v>1.0900376899999999</v>
+      </c>
+      <c r="K175" s="34">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>71.391841289451264</v>
+      </c>
+      <c r="L175" s="34">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>0.70036014055555562</v>
+      </c>
+      <c r="M175" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>1.262593084648296</v>
+      </c>
+      <c r="N175" s="14"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A176">
         <v>10000</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B176" s="1">
         <v>0.97438443690259602</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C176" s="1">
         <v>1.3555266911556799E-3</v>
       </c>
-      <c r="D164" s="15">
+      <c r="D176" s="15">
         <v>2645.7594319999998</v>
       </c>
-      <c r="E164" s="15">
+      <c r="E176" s="15">
         <v>20</v>
       </c>
-      <c r="F164" s="9">
-        <f t="shared" si="12"/>
+      <c r="F176" s="9">
+        <f t="shared" si="17"/>
         <v>1.2393580262437531E-4</v>
       </c>
-      <c r="G164">
+      <c r="G176">
         <v>1.1674823730130499</v>
       </c>
-      <c r="H164">
+      <c r="H176">
         <v>1.17347851</v>
       </c>
-      <c r="I164">
+      <c r="I176">
         <v>1.1681878000000001</v>
       </c>
-      <c r="J164">
+      <c r="J176">
         <v>1.1607808100000001</v>
       </c>
-      <c r="K164">
+      <c r="K176">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>75.592662575831653</v>
       </c>
-      <c r="L164">
+      <c r="L176">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.73493317555555548</v>
       </c>
-      <c r="M164" s="31">
-        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
-        <v>9.1429997972752197E-2</v>
-      </c>
-      <c r="N164" s="14">
-        <f t="shared" si="13"/>
-        <v>0.9742636907501151</v>
-      </c>
-      <c r="O164">
-        <v>2.00060922820321</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A165">
+      <c r="M176" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>0.82401370875235602</v>
+      </c>
+      <c r="N176" s="14"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A177">
         <v>20000</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B177" s="1">
         <v>0.97236278425293698</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C177" s="1">
         <v>9.8289246366712007E-4</v>
       </c>
-      <c r="D165" s="15">
+      <c r="D177" s="15">
         <v>5724.9130029999997</v>
       </c>
-      <c r="E165" s="15">
+      <c r="E177" s="15">
         <v>20</v>
       </c>
-      <c r="F165" s="21">
-        <f t="shared" si="12"/>
+      <c r="F177" s="21">
+        <f t="shared" si="17"/>
         <v>-1.9511211545968354E-3</v>
       </c>
-      <c r="G165">
+      <c r="G177">
         <v>1.03444386627606</v>
       </c>
-      <c r="H165">
+      <c r="H177">
         <v>1.0209981100000001</v>
       </c>
-      <c r="I165">
+      <c r="I177">
         <v>1.06160133</v>
       </c>
-      <c r="J165">
+      <c r="J177">
         <v>1.0207321499999999</v>
       </c>
-      <c r="K165">
+      <c r="K177">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>69.870057377359245</v>
       </c>
-      <c r="L165">
+      <c r="L177">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>1.5902536119444444</v>
       </c>
-      <c r="M165" s="32">
-        <f>ABS(Table479[[#This Row],[error]])/Table479[[#This Row],[std]]</f>
-        <v>1.9850809999267927</v>
-      </c>
-      <c r="N165" s="14">
-        <f t="shared" si="13"/>
-        <v>0.9742636907501151</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A166">
+      <c r="M177" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>-0.9204262999349071</v>
+      </c>
+      <c r="N177" s="14"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>30000</v>
+      </c>
+      <c r="B178" s="1">
+        <v>0.97476761088415897</v>
+      </c>
+      <c r="C178" s="1">
+        <v>7.6944479412988499E-4</v>
+      </c>
+      <c r="D178" s="15">
+        <v>9012.5571459999992</v>
+      </c>
+      <c r="E178" s="15">
+        <v>20</v>
+      </c>
+      <c r="F178" s="21">
+        <f>B178/B$5-1</f>
+        <v>5.1723177085238881E-4</v>
+      </c>
+      <c r="G178">
+        <v>1.10404359767787</v>
+      </c>
+      <c r="H178">
+        <v>1.0952846899999999</v>
+      </c>
+      <c r="I178">
+        <v>1.12237578</v>
+      </c>
+      <c r="J178">
+        <v>1.0944703200000001</v>
+      </c>
+      <c r="K178" s="34">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>66.573780368903982</v>
+      </c>
+      <c r="L178" s="34">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>2.503488096111111</v>
+      </c>
+      <c r="M178" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>1.9496480697505736</v>
+      </c>
+      <c r="N178" s="14"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>40000</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0.973679656802515</v>
+      </c>
+      <c r="C179" s="1">
+        <v>6.8345092491158498E-4</v>
+      </c>
+      <c r="D179" s="15">
+        <v>11653.928916000001</v>
+      </c>
+      <c r="E179" s="15">
+        <v>20</v>
+      </c>
+      <c r="F179" s="21">
+        <f>B179/B$5-1</f>
+        <v>-5.9946188403103839E-4</v>
+      </c>
+      <c r="G179">
+        <v>1.0712414002707</v>
+      </c>
+      <c r="H179">
+        <v>1.0630202200000001</v>
+      </c>
+      <c r="I179">
+        <v>1.08834119</v>
+      </c>
+      <c r="J179">
+        <v>1.0623627899999999</v>
+      </c>
+      <c r="K179" s="34">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>68.646377180287928</v>
+      </c>
+      <c r="L179" s="34">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>3.2372024766666669</v>
+      </c>
+      <c r="M179" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>0.60310471606181504</v>
+      </c>
+      <c r="N179" s="14"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A180">
         <v>50000</v>
       </c>
-      <c r="B166" s="1"/>
-      <c r="C166" s="24"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="15"/>
-      <c r="F166" s="22">
-        <f t="shared" si="12"/>
-        <v>-1</v>
-      </c>
-      <c r="L166" s="5"/>
-      <c r="M166" s="31"/>
-      <c r="N166" s="14"/>
+      <c r="B180" s="1">
+        <v>0.97121193616395196</v>
+      </c>
+      <c r="C180" s="24">
+        <v>6.4411024443377198E-4</v>
+      </c>
+      <c r="D180" s="15">
+        <v>13789.796058</v>
+      </c>
+      <c r="E180" s="15">
+        <v>20</v>
+      </c>
+      <c r="F180" s="22">
+        <f t="shared" si="17"/>
+        <v>-3.1323702352219485E-3</v>
+      </c>
+      <c r="G180">
+        <v>1.0419592244295299</v>
+      </c>
+      <c r="H180">
+        <v>1.0356652399999999</v>
+      </c>
+      <c r="I180">
+        <v>1.0642578199999999</v>
+      </c>
+      <c r="J180">
+        <v>1.0259546100000001</v>
+      </c>
+      <c r="K180">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>72.517388639686288</v>
+      </c>
+      <c r="L180">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>3.8304989049999998</v>
+      </c>
+      <c r="M180" s="30">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>-3.1912676134487525</v>
+      </c>
+      <c r="N180" s="14"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>60000</v>
+      </c>
+      <c r="B181" s="1">
+        <v>0.97326746432650402</v>
+      </c>
+      <c r="C181" s="24">
+        <v>5.6627169570918202E-4</v>
+      </c>
+      <c r="D181" s="15">
+        <v>17142.021636000001</v>
+      </c>
+      <c r="E181" s="15">
+        <v>20</v>
+      </c>
+      <c r="F181" s="22">
+        <f>B181/B$5-1</f>
+        <v>-1.0225429040099376E-3</v>
+      </c>
+      <c r="G181">
+        <v>1.0554674446363099</v>
+      </c>
+      <c r="H181">
+        <v>1.05184302</v>
+      </c>
+      <c r="I181">
+        <v>1.0763456600000001</v>
+      </c>
+      <c r="J181">
+        <v>1.03821366</v>
+      </c>
+      <c r="K181" s="34">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>70.003411819284906</v>
+      </c>
+      <c r="L181" s="34">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>4.7616726766666666</v>
+      </c>
+      <c r="M181" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>0</v>
+      </c>
+      <c r="N181" s="14"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>70000</v>
+      </c>
+      <c r="B182" s="1">
+        <v>0.97296981842303698</v>
+      </c>
+      <c r="C182" s="24">
+        <v>5.2653560070763398E-4</v>
+      </c>
+      <c r="D182" s="15">
+        <v>17750.953474999998</v>
+      </c>
+      <c r="E182" s="15">
+        <v>20</v>
+      </c>
+      <c r="F182" s="22">
+        <f>B182/B$5-1</f>
+        <v>-1.3280514704205881E-3</v>
+      </c>
+      <c r="G182">
+        <v>1.0359400566978001</v>
+      </c>
+      <c r="H182">
+        <v>1.02905918</v>
+      </c>
+      <c r="I182">
+        <v>1.0599867000000001</v>
+      </c>
+      <c r="J182">
+        <v>1.0187743</v>
+      </c>
+      <c r="K182" s="34">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>78.86900283817009</v>
+      </c>
+      <c r="L182" s="34">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>4.9308204097222221</v>
+      </c>
+      <c r="M182" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>-0.56529112764078482</v>
+      </c>
+      <c r="N182" s="14"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>80000</v>
+      </c>
+      <c r="B183" s="1">
+        <v>0.97386837005321503</v>
+      </c>
+      <c r="C183" s="24">
+        <v>4.8813942738869801E-4</v>
+      </c>
+      <c r="D183" s="15">
+        <v>21536.009803000001</v>
+      </c>
+      <c r="E183" s="15">
+        <v>20</v>
+      </c>
+      <c r="F183" s="22">
+        <f>B183/B$5-1</f>
+        <v>-4.0576355318722168E-4</v>
+      </c>
+      <c r="G183">
+        <v>1.07152831029939</v>
+      </c>
+      <c r="H183">
+        <v>1.06504738</v>
+      </c>
+      <c r="I183">
+        <v>1.0934756400000001</v>
+      </c>
+      <c r="J183">
+        <v>1.0560619099999999</v>
+      </c>
+      <c r="K183" s="34">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>74.294171233944994</v>
+      </c>
+      <c r="L183" s="34">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>5.9822249452777783</v>
+      </c>
+      <c r="M183" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>1.2310124792122508</v>
+      </c>
+      <c r="N183" s="14"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>90000</v>
+      </c>
+      <c r="B184" s="1">
+        <v>0.97368289695070898</v>
+      </c>
+      <c r="C184" s="24">
+        <v>4.6263515468804902E-4</v>
+      </c>
+      <c r="D184" s="15">
+        <v>22017.026491000001</v>
+      </c>
+      <c r="E184" s="15">
+        <v>20</v>
+      </c>
+      <c r="F184" s="22">
+        <f>B184/B$5-1</f>
+        <v>-5.961361435515844E-4</v>
+      </c>
+      <c r="G184">
+        <v>1.0911661403354</v>
+      </c>
+      <c r="H184">
+        <v>1.08071334</v>
+      </c>
+      <c r="I184">
+        <v>1.1045268100000001</v>
+      </c>
+      <c r="J184">
+        <v>1.0882582700000001</v>
+      </c>
+      <c r="K184" s="34">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>81.754909126161706</v>
+      </c>
+      <c r="L184" s="34">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>6.1158406919444444</v>
+      </c>
+      <c r="M184" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>0.89797029040104304</v>
+      </c>
+      <c r="N184" s="14"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>100000</v>
+      </c>
+      <c r="B185" s="1">
+        <v>0.97396948608297595</v>
+      </c>
+      <c r="C185" s="24">
+        <v>4.3690968675606399E-4</v>
+      </c>
+      <c r="D185" s="15">
+        <v>26773.913746999999</v>
+      </c>
+      <c r="E185" s="15">
+        <v>20</v>
+      </c>
+      <c r="F185" s="22">
+        <f>B185/B$5-1</f>
+        <v>-3.0197642582019402E-4</v>
+      </c>
+      <c r="G185">
+        <v>1.0972175134365201</v>
+      </c>
+      <c r="H185">
+        <v>1.09350418</v>
+      </c>
+      <c r="I185">
+        <v>1.1111762300000001</v>
+      </c>
+      <c r="J185">
+        <v>1.0869721299999999</v>
+      </c>
+      <c r="K185" s="34">
+        <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
+        <v>74.699575822160057</v>
+      </c>
+      <c r="L185" s="36">
+        <f>Table479[[#This Row],[time /s]]/3600</f>
+        <v>7.4371982630555555</v>
+      </c>
+      <c r="M185" s="35">
+        <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
+        <v>1.6067891780662018</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H189" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>61</v>
+      </c>
+      <c r="C190" s="21">
+        <f>MEDIAN(B149:B154,B180:B184)</f>
+        <v>0.97326746432650402</v>
+      </c>
+      <c r="D190">
+        <f>_xlfn.STDEV.S(B180:B184,B149:B154)</f>
+        <v>8.3248517282044621E-4</v>
+      </c>
+      <c r="E190" s="21">
+        <f>C190-D190</f>
+        <v>0.9724349791536836</v>
+      </c>
+      <c r="F190" s="21">
+        <f>C190+D190</f>
+        <v>0.97409994949932444</v>
+      </c>
+      <c r="H190" s="5">
+        <f>C190/B5-1</f>
+        <v>-1.0225429040099376E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>57</v>
+      </c>
+      <c r="B200">
+        <v>7062</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>66</v>
+      </c>
+      <c r="B202">
+        <v>-12</v>
+      </c>
+      <c r="C202" s="14">
+        <f>B202/B$200</f>
+        <v>-1.6992353440951572E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>-23</v>
+      </c>
+      <c r="C203" s="14">
+        <f t="shared" ref="C203:C221" si="18">B203/B$200</f>
+        <v>-3.2568677428490515E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>39</v>
+      </c>
+      <c r="C204" s="14">
+        <f t="shared" si="18"/>
+        <v>5.5225148683092605E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>-5</v>
+      </c>
+      <c r="C205" s="14">
+        <f t="shared" si="18"/>
+        <v>-7.0801472670631554E-4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>8</v>
+      </c>
+      <c r="C206" s="14">
+        <f t="shared" si="18"/>
+        <v>1.1328235627301047E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>3</v>
+      </c>
+      <c r="C207" s="14">
+        <f t="shared" si="18"/>
+        <v>4.248088360237893E-4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>-10</v>
+      </c>
+      <c r="C208" s="14">
+        <f t="shared" si="18"/>
+        <v>-1.4160294534126311E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>-14</v>
+      </c>
+      <c r="C209" s="14">
+        <f t="shared" si="18"/>
+        <v>-1.9824412347776836E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210" s="14">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>7</v>
+      </c>
+      <c r="C211" s="14">
+        <f t="shared" si="18"/>
+        <v>9.9122061738884178E-4</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212" s="14">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>-15</v>
+      </c>
+      <c r="C213" s="14">
+        <f t="shared" si="18"/>
+        <v>-2.1240441801189465E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>-13</v>
+      </c>
+      <c r="C214" s="14">
+        <f t="shared" si="18"/>
+        <v>-1.8408382894364204E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>14</v>
+      </c>
+      <c r="C215" s="14">
+        <f t="shared" si="18"/>
+        <v>1.9824412347776836E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>8</v>
+      </c>
+      <c r="C216" s="14">
+        <f t="shared" si="18"/>
+        <v>1.1328235627301047E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>34</v>
+      </c>
+      <c r="C217" s="14">
+        <f t="shared" si="18"/>
+        <v>4.8145001416029457E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>-4</v>
+      </c>
+      <c r="C218" s="14">
+        <f t="shared" si="18"/>
+        <v>-5.6641178136505237E-4</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>-4</v>
+      </c>
+      <c r="C219" s="14">
+        <f t="shared" si="18"/>
+        <v>-5.6641178136505237E-4</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>6</v>
+      </c>
+      <c r="C220" s="14">
+        <f t="shared" si="18"/>
+        <v>8.4961767204757861E-4</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221" s="14">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C223" s="14">
+        <f>AVERAGE(C202:C221)</f>
+        <v>1.3452279807419997E-4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/tdcrpy/validation/validationCo-60_v2.xlsx
+++ b/tdcrpy/validation/validationCo-60_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D076390-83EC-44D2-B88C-14F6B4AD4140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D240CE3-3A39-4C0B-AC4C-25BC5DEB3B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="264" yWindow="5544" windowWidth="18552" windowHeight="6684" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="71">
   <si>
     <t>Reference Co-60 (NIST)</t>
   </si>
@@ -249,6 +249,9 @@
   <si>
     <t>conv</t>
   </si>
+  <si>
+    <t>Version 1.1.6</t>
+  </si>
 </sst>
 </file>
 
@@ -394,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -429,15 +432,13 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="71">
     <dxf>
       <numFmt numFmtId="168" formatCode="0.0"/>
       <fill>
@@ -446,6 +447,51 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="0.0"/>
@@ -473,6 +519,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2160,7 +2215,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tables!$N$130</c15:sqref>
@@ -2180,7 +2235,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tables!$A$131:$A$154</c15:sqref>
@@ -2267,7 +2322,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tables!$N$131:$N$154</c15:sqref>
@@ -2353,7 +2408,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-E7DA-483B-8340-7FCBF7C44900}"/>
                   </c:ext>
@@ -2382,7 +2437,7 @@
                   <c:noEndCap val="0"/>
                   <c:plus>
                     <c:numRef>
-                      <c:extLst>
+                      <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                         <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
                             <c15:sqref>Tables!$C$86:$C$98</c15:sqref>
@@ -2436,7 +2491,7 @@
                   </c:plus>
                   <c:minus>
                     <c:numRef>
-                      <c:extLst>
+                      <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                         <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
                             <c15:sqref>Tables!$C$86:$C$98</c15:sqref>
@@ -2639,7 +2694,7 @@
                   <c:noEndCap val="0"/>
                   <c:plus>
                     <c:numRef>
-                      <c:extLst>
+                      <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                         <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
                             <c15:sqref>Tables!$C$108:$C$120</c15:sqref>
@@ -2690,7 +2745,7 @@
                   </c:plus>
                   <c:minus>
                     <c:numRef>
-                      <c:extLst>
+                      <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                         <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
                             <c15:sqref>Tables!$C$108:$C$120</c15:sqref>
@@ -8287,7 +8342,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F388A5FC-AE15-4458-B3E9-16AF6815805A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="36" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8298,7 +8353,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{18989E30-B0EA-429F-B87A-6F4A60F8F2EB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="36" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8309,7 +8364,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9288379" cy="6063916"/>
+    <xdr:ext cx="9296400" cy="6070600"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8342,7 +8397,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9288379" cy="6063916"/>
+    <xdr:ext cx="9296400" cy="6070600"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8493,30 +8548,60 @@
   <autoFilter ref="A14:I31" xr:uid="{CE154909-7646-477D-8B60-509F398D009F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DDAABB74-83B7-4A9A-A978-ACBC6E410C19}" name="N"/>
-    <tableColumn id="2" xr3:uid="{0AA70936-8F84-45A0-BDA6-0B48F50D8456}" name="eff (stochastic)" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{CC8B2236-DD4D-4D4A-B450-AF4A42700DB8}" name="u(eff)" dataDxfId="55" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{0AA70936-8F84-45A0-BDA6-0B48F50D8456}" name="eff (stochastic)" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{CC8B2236-DD4D-4D4A-B450-AF4A42700DB8}" name="u(eff)" dataDxfId="69" dataCellStyle="Percent"/>
     <tableColumn id="3" xr3:uid="{F519117B-BD8C-4D86-8925-34E52A9B33AA}" name="time /s"/>
-    <tableColumn id="4" xr3:uid="{4C05EF6D-660F-41D6-BD8A-A706F835288E}" name="error" dataDxfId="54" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{4C05EF6D-660F-41D6-BD8A-A706F835288E}" name="error" dataDxfId="68" dataCellStyle="Percent">
       <calculatedColumnFormula>B15/B$5-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C52CC8CE-0CF9-4BDD-85DA-B7B7E424ADFB}" name="L /keV-1" dataDxfId="53" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{FF4F8F5D-D5E2-4E8C-95FD-6BDE1A995214}" name="LA /keV-1" dataDxfId="52" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{AD370BAA-110E-45FB-8017-6C63B1F0C6DC}" name="LB /keV-1" dataDxfId="51" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{0D9EDC29-DB17-43EE-9A9E-873BA5DEC89A}" name="LC /keV-1" dataDxfId="50" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{C52CC8CE-0CF9-4BDD-85DA-B7B7E424ADFB}" name="L /keV-1" dataDxfId="67" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{FF4F8F5D-D5E2-4E8C-95FD-6BDE1A995214}" name="LA /keV-1" dataDxfId="66" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{AD370BAA-110E-45FB-8017-6C63B1F0C6DC}" name="LB /keV-1" dataDxfId="65" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{0D9EDC29-DB17-43EE-9A9E-873BA5DEC89A}" name="LC /keV-1" dataDxfId="64" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{78223100-27A6-46D3-9F45-28E2D0C102E0}" name="Table47912" displayName="Table47912" ref="A228:M251" totalsRowShown="0">
+  <autoFilter ref="A228:M251" xr:uid="{78223100-27A6-46D3-9F45-28E2D0C102E0}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{45FA29F9-7193-43B7-A1F5-19D385ED8402}" name="N"/>
+    <tableColumn id="2" xr3:uid="{DAAF6AD1-38AB-4EF8-96AC-F728FFC5D112}" name="eff (stochastic)" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{76970522-5EED-44C5-8AEE-275C57FE2786}" name="std" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{37E30C36-6877-4C75-A32C-8883F5BB106F}" name="time /s"/>
+    <tableColumn id="9" xr3:uid="{604AB221-91DC-4D68-B1E0-A7407FD493AB}" name="interation" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{38D53FAD-6F5C-4CF5-B95A-3D60E65BC1B8}" name="error" dataDxfId="3">
+      <calculatedColumnFormula>B229/B$5-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{9A9FA1C5-E36C-4C9F-A102-08E93FA78A66}" name="L /keV-1"/>
+    <tableColumn id="13" xr3:uid="{32ED1515-757B-4B11-8DAC-D9A2210702DC}" name="LA /keV-1"/>
+    <tableColumn id="12" xr3:uid="{9D36FEA7-0704-44F1-85BC-2248BA9A0657}" name="LB /keV-1"/>
+    <tableColumn id="11" xr3:uid="{E5A77F2A-B3C4-4422-92E1-7A19B202B4D7}" name="LC /keV-1"/>
+    <tableColumn id="7" xr3:uid="{CAB2DCDF-9259-4B12-BF2F-0B1C26960770}" name="speed /s" dataDxfId="2">
+      <calculatedColumnFormula>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{560AC3B3-9B23-4FE2-89D0-F2A1B551B6E4}" name="time /h" dataDxfId="1">
+      <calculatedColumnFormula>Table47912[[#This Row],[time /s]]/3600</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{A6CECFD7-C8F7-4CD3-9C8D-02D23C237D5B}" name="Z-score" dataDxfId="0">
+      <calculatedColumnFormula>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}" name="Table2" displayName="Table2" ref="A45:F54" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}" name="Table2" displayName="Table2" ref="A45:F54" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="62" tableBorderDxfId="61">
   <autoFilter ref="A45:F54" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2A7212F2-06BB-4D63-B68E-00B66F9BA6D8}" name="N"/>
-    <tableColumn id="2" xr3:uid="{D4B2378E-DEE0-403B-9A01-7D7DAF895C2A}" name="eff (stochastic)" dataDxfId="46" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{DCBF8CA2-4B7B-45F6-A4C1-21C25175DEC1}" name="std" dataDxfId="45" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{76B9D488-065E-48FD-8C5C-DFB2F4A7C18C}" name="time /s" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{B3632296-46F8-4FFB-B621-41267E9BD825}" name="error" dataDxfId="43">
+    <tableColumn id="2" xr3:uid="{D4B2378E-DEE0-403B-9A01-7D7DAF895C2A}" name="eff (stochastic)" dataDxfId="60" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{DCBF8CA2-4B7B-45F6-A4C1-21C25175DEC1}" name="std" dataDxfId="59" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{76B9D488-065E-48FD-8C5C-DFB2F4A7C18C}" name="time /s" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{B3632296-46F8-4FFB-B621-41267E9BD825}" name="error" dataDxfId="57">
       <calculatedColumnFormula>B46/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{FC6E204E-4636-4F11-8582-10674B968FF7}" name="L /keV-1"/>
@@ -8526,21 +8611,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}" name="Table24" displayName="Table24" ref="A62:H71" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}" name="Table24" displayName="Table24" ref="A62:H71" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54">
   <autoFilter ref="A62:H71" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8F2C12A2-FD44-4CE7-AE3E-946D17F8E77D}" name="N"/>
-    <tableColumn id="2" xr3:uid="{DFE623A6-4D03-4FC8-8636-F552CAFF9337}" name="eff (stochastic)" dataDxfId="39" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{79B4CF1D-0184-4DC2-9C5F-BA40F6EAABC6}" name="std" dataDxfId="38" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{7F75FB14-269C-48EF-ACB6-BFCBC8D8F3E9}" name="time /s" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{5373102D-9EEB-4008-B4E8-DDFBFA8B5659}" name="error" dataDxfId="36">
+    <tableColumn id="2" xr3:uid="{DFE623A6-4D03-4FC8-8636-F552CAFF9337}" name="eff (stochastic)" dataDxfId="53" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{79B4CF1D-0184-4DC2-9C5F-BA40F6EAABC6}" name="std" dataDxfId="52" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{7F75FB14-269C-48EF-ACB6-BFCBC8D8F3E9}" name="time /s" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{5373102D-9EEB-4008-B4E8-DDFBFA8B5659}" name="error" dataDxfId="50">
       <calculatedColumnFormula>B63/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{2EA1A9A7-9F1E-4C41-8D47-473AFC686CDF}" name="L /keV-1"/>
-    <tableColumn id="6" xr3:uid="{6FA56703-B0EB-4061-BA8B-CBE48889BD88}" name="speed" dataDxfId="35">
+    <tableColumn id="6" xr3:uid="{6FA56703-B0EB-4061-BA8B-CBE48889BD88}" name="speed" dataDxfId="49">
       <calculatedColumnFormula>Table24[[#This Row],[N]]/Table24[[#This Row],[time /s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4668A5EC-12A1-4427-BA2D-CC7DA1B9E712}" name="time/h" dataDxfId="34">
+    <tableColumn id="7" xr3:uid="{4668A5EC-12A1-4427-BA2D-CC7DA1B9E712}" name="time/h" dataDxfId="48">
       <calculatedColumnFormula>Table24[[#This Row],[time /s]]/3600</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8553,17 +8638,17 @@
   <autoFilter ref="A75:H78" xr:uid="{5754EABE-BCB3-4E1A-9DB8-2647BBDDC114}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{174981E2-18F0-4578-87C4-D60BCD6AD8B8}" name="Method"/>
-    <tableColumn id="2" xr3:uid="{4C63FD53-4E05-49BB-AE06-25A9EA64DA2A}" name="eff" dataDxfId="33" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{5F8FF70E-D2C0-49A0-8AE0-991399ADA1AA}" name="u" dataDxfId="32" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{2CB36EE8-CC8A-4E9E-A506-DCD96BBC92F2}" name="time /s" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{9D6C63CC-25B7-465E-BA81-97F393A00604}" name="error" dataDxfId="30">
+    <tableColumn id="2" xr3:uid="{4C63FD53-4E05-49BB-AE06-25A9EA64DA2A}" name="eff" dataDxfId="47" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{5F8FF70E-D2C0-49A0-8AE0-991399ADA1AA}" name="u" dataDxfId="46" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{2CB36EE8-CC8A-4E9E-A506-DCD96BBC92F2}" name="time /s" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{9D6C63CC-25B7-465E-BA81-97F393A00604}" name="error" dataDxfId="44">
       <calculatedColumnFormula>B76/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{8A97AEEF-A278-406A-9A09-82BAB22A8485}" name="L/keV-1"/>
-    <tableColumn id="7" xr3:uid="{18402C67-F13C-4B86-92DE-7941792C7C21}" name="speed" dataDxfId="29">
+    <tableColumn id="7" xr3:uid="{18402C67-F13C-4B86-92DE-7941792C7C21}" name="speed" dataDxfId="43">
       <calculatedColumnFormula>10000/Table5[[#This Row],[time /s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC928F03-2BC6-4639-8B90-568D89035180}" name="time/h" dataDxfId="28">
+    <tableColumn id="8" xr3:uid="{AC928F03-2BC6-4639-8B90-568D89035180}" name="time/h" dataDxfId="42">
       <calculatedColumnFormula>Table5[[#This Row],[time /s]]/3600</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8576,21 +8661,21 @@
   <autoFilter ref="A85:J99" xr:uid="{02403DAC-D5F4-4847-B640-D5ABB9BC5109}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F20144C8-F0B1-443F-8ACE-7A8491A3BD44}" name="N"/>
-    <tableColumn id="2" xr3:uid="{6D4919DB-A5DF-45B0-BB6B-C4792284C9D8}" name="eff (stochastic)" dataDxfId="27" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{CA5A0DF5-F5FE-4A6F-A33C-CC982089C42E}" name="std" dataDxfId="26" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{6D4919DB-A5DF-45B0-BB6B-C4792284C9D8}" name="eff (stochastic)" dataDxfId="41" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{CA5A0DF5-F5FE-4A6F-A33C-CC982089C42E}" name="std" dataDxfId="40" dataCellStyle="Percent"/>
     <tableColumn id="4" xr3:uid="{18704ADD-5A08-490C-8CA4-93F4A0C99976}" name="time /s"/>
-    <tableColumn id="9" xr3:uid="{24E1A1F8-7146-4275-9A11-ECCF568B0B0E}" name="interation" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{6B02D242-A899-4DBA-9577-367B45D4142B}" name="error" dataDxfId="24">
+    <tableColumn id="9" xr3:uid="{24E1A1F8-7146-4275-9A11-ECCF568B0B0E}" name="interation" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{6B02D242-A899-4DBA-9577-367B45D4142B}" name="error" dataDxfId="38">
       <calculatedColumnFormula>B86/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{26A8B87D-A16A-4AF0-BC8E-1B00C8A244CE}" name="L /keV-1"/>
-    <tableColumn id="7" xr3:uid="{7C23E836-A52A-498C-86AF-D0584542A557}" name="speed /s" dataDxfId="23">
+    <tableColumn id="7" xr3:uid="{7C23E836-A52A-498C-86AF-D0584542A557}" name="speed /s" dataDxfId="37">
       <calculatedColumnFormula>Table4[[#This Row],[N]]*Table4[[#This Row],[interation]]/Table4[[#This Row],[time /s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0A312CBD-58B9-48C7-9B79-0F6F994FEA00}" name="time /h" dataDxfId="22">
+    <tableColumn id="8" xr3:uid="{0A312CBD-58B9-48C7-9B79-0F6F994FEA00}" name="time /h" dataDxfId="36">
       <calculatedColumnFormula>Table4[[#This Row],[time /s]]/3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0C660F51-E374-40AD-A647-0D23A74A704A}" name="Z-score" dataDxfId="21">
+    <tableColumn id="10" xr3:uid="{0C660F51-E374-40AD-A647-0D23A74A704A}" name="Z-score" dataDxfId="35">
       <calculatedColumnFormula>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8603,24 +8688,24 @@
   <autoFilter ref="A107:M121" xr:uid="{BD8F3B19-3AF7-4026-99BD-ABC18E124E71}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{2034803E-B4B6-4901-A5F9-C484A76FD21C}" name="N"/>
-    <tableColumn id="2" xr3:uid="{AC62611A-36F0-4490-BE29-4F5C95567877}" name="eff (stochastic)" dataDxfId="20" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{8A3D8C01-2B92-4C5B-81E8-E7BF75D17D6E}" name="std" dataDxfId="19" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{AC62611A-36F0-4490-BE29-4F5C95567877}" name="eff (stochastic)" dataDxfId="34" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{8A3D8C01-2B92-4C5B-81E8-E7BF75D17D6E}" name="std" dataDxfId="33" dataCellStyle="Percent"/>
     <tableColumn id="4" xr3:uid="{F780DF52-214B-4153-B238-79C45B603F23}" name="time /s"/>
-    <tableColumn id="9" xr3:uid="{7FC33D46-B3E6-4ADA-AC9B-FDF0C695575A}" name="interation" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{51424C08-23C8-4135-A6F9-E6E1E3E9E069}" name="error" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{7FC33D46-B3E6-4ADA-AC9B-FDF0C695575A}" name="interation" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{51424C08-23C8-4135-A6F9-E6E1E3E9E069}" name="error" dataDxfId="31">
       <calculatedColumnFormula>B108/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{373866C6-6FF2-4DF9-8031-12E64AF26EE9}" name="L /keV-1"/>
     <tableColumn id="13" xr3:uid="{08D2C2DF-FD03-4D21-8243-DBD2E4E3B946}" name="LA /keV-1"/>
     <tableColumn id="12" xr3:uid="{60D36303-EAB7-40E2-8770-E17A8B5DD3AE}" name="LB /keV-1"/>
     <tableColumn id="11" xr3:uid="{FD3C92D0-B313-468F-9F2B-72309F29573B}" name="LC /keV-1"/>
-    <tableColumn id="7" xr3:uid="{013B7DB1-A952-4323-BD1D-3018A2EBCF91}" name="speed /s" dataDxfId="16">
+    <tableColumn id="7" xr3:uid="{013B7DB1-A952-4323-BD1D-3018A2EBCF91}" name="speed /s" dataDxfId="30">
       <calculatedColumnFormula>Table47[[#This Row],[N]]*Table47[[#This Row],[interation]]/Table47[[#This Row],[time /s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2142541B-6C24-4D72-823E-46165F298113}" name="time /h" dataDxfId="15">
+    <tableColumn id="8" xr3:uid="{2142541B-6C24-4D72-823E-46165F298113}" name="time /h" dataDxfId="29">
       <calculatedColumnFormula>Table47[[#This Row],[time /s]]/3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{BF5DCFC9-8584-484D-B4FC-744740AAE63E}" name="Z-score" dataDxfId="14">
+    <tableColumn id="10" xr3:uid="{BF5DCFC9-8584-484D-B4FC-744740AAE63E}" name="Z-score" dataDxfId="28">
       <calculatedColumnFormula>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8633,21 +8718,21 @@
   <autoFilter ref="A130:J154" xr:uid="{24B6E3DF-F151-43AB-98AE-88A67DD42249}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{1A312C32-9FCA-41AE-BBF3-0E1189CFB3E5}" name="N"/>
-    <tableColumn id="2" xr3:uid="{23CC626A-68F3-43FF-9384-035F3812EF42}" name="eff (stochastic)" dataDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{FEA266E2-E5E2-4F9E-BCAB-31B870556071}" name="std" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{23CC626A-68F3-43FF-9384-035F3812EF42}" name="eff (stochastic)" dataDxfId="27" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{FEA266E2-E5E2-4F9E-BCAB-31B870556071}" name="std" dataDxfId="26" dataCellStyle="Percent"/>
     <tableColumn id="4" xr3:uid="{448CB9AD-EE87-451E-8B25-0EE71085E792}" name="time /s"/>
-    <tableColumn id="9" xr3:uid="{3D2BDB44-7407-44AF-8B6D-19C74B3EF920}" name="interation" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{CF8B6E0E-B6BC-42B6-BD79-992F016E48F9}" name="error" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{3D2BDB44-7407-44AF-8B6D-19C74B3EF920}" name="interation" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{CF8B6E0E-B6BC-42B6-BD79-992F016E48F9}" name="error" dataDxfId="24">
       <calculatedColumnFormula>B131/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{6FFE4936-878E-4317-A067-EE4AC45CE5C5}" name="L /keV-1"/>
-    <tableColumn id="7" xr3:uid="{D2FB2BFE-9112-4705-9D7B-07D340DA3BBC}" name="speed /s" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{D2FB2BFE-9112-4705-9D7B-07D340DA3BBC}" name="speed /s" dataDxfId="23">
       <calculatedColumnFormula>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EC225E2A-8E22-4676-B463-53E0BCD0C837}" name="time /h" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{EC225E2A-8E22-4676-B463-53E0BCD0C837}" name="time /h" dataDxfId="22">
       <calculatedColumnFormula>Table48[[#This Row],[time /s]]/3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9D985096-4123-4E85-B451-0D523A795D58}" name="Z-score" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{9D985096-4123-4E85-B451-0D523A795D58}" name="Z-score" dataDxfId="21">
       <calculatedColumnFormula>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8660,25 +8745,52 @@
   <autoFilter ref="A161:M185" xr:uid="{2EAD48A6-0370-4313-99C6-706237C08F90}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{4936D717-6A48-44A9-B3F8-AD43FF4DBAEA}" name="N"/>
-    <tableColumn id="2" xr3:uid="{05152AB6-FBEE-4D8C-8972-8AADD038EDD3}" name="eff (stochastic)" dataDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{487B6454-47C0-473F-B56B-87BC9FBD6525}" name="std" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{05152AB6-FBEE-4D8C-8972-8AADD038EDD3}" name="eff (stochastic)" dataDxfId="20" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{487B6454-47C0-473F-B56B-87BC9FBD6525}" name="std" dataDxfId="19" dataCellStyle="Percent"/>
     <tableColumn id="4" xr3:uid="{B06F9C07-E7BF-4288-BED3-4C97CB606F5D}" name="time /s"/>
-    <tableColumn id="9" xr3:uid="{175C5E83-32ED-47D6-837B-81D7CEDCF30F}" name="interation" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{581325E5-812B-46FB-AB3E-4F0EF2E9D513}" name="error" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{175C5E83-32ED-47D6-837B-81D7CEDCF30F}" name="interation" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{581325E5-812B-46FB-AB3E-4F0EF2E9D513}" name="error" dataDxfId="17">
       <calculatedColumnFormula>B162/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{234C2629-0DD0-4C9F-906A-25E8843F567A}" name="L /keV-1"/>
     <tableColumn id="13" xr3:uid="{EB7613CB-4675-4100-8500-0CC47CA99624}" name="LA /keV-1"/>
     <tableColumn id="12" xr3:uid="{247FDCBC-64CE-43CD-8AC9-8259472F6D90}" name="LB /keV-1"/>
     <tableColumn id="11" xr3:uid="{BC1F7DB4-29E0-4C86-B60F-ABD31D50B674}" name="LC /keV-1"/>
-    <tableColumn id="7" xr3:uid="{2AECCDA0-2990-4A3D-80AF-B2DAC0A52A36}" name="speed /s" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{2AECCDA0-2990-4A3D-80AF-B2DAC0A52A36}" name="speed /s" dataDxfId="16">
       <calculatedColumnFormula>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{47842E90-0810-4534-9AFB-FD27204EF560}" name="time /h" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{47842E90-0810-4534-9AFB-FD27204EF560}" name="time /h" dataDxfId="15">
       <calculatedColumnFormula>Table479[[#This Row],[time /s]]/3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C2D7729C-B424-48AD-8D16-1C4AB2258D34}" name="Z-score" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{C2D7729C-B424-48AD-8D16-1C4AB2258D34}" name="Z-score" dataDxfId="14">
       <calculatedColumnFormula>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BFA4AC05-F008-4798-BA16-6E6B5E6F1B06}" name="Table4810" displayName="Table4810" ref="A199:J222" totalsRowShown="0">
+  <autoFilter ref="A199:J222" xr:uid="{BFA4AC05-F008-4798-BA16-6E6B5E6F1B06}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{70792504-3B62-4A4E-9A4E-561921A7B151}" name="N"/>
+    <tableColumn id="2" xr3:uid="{656063D4-AEE2-4F98-A3EC-B62963955180}" name="eff (stochastic)" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{D6444B7F-EAD4-46F9-893A-0E950CB0A556}" name="std" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{5DE5C07E-0F95-44AF-BFC7-19CF5F0AF257}" name="time /s"/>
+    <tableColumn id="9" xr3:uid="{0BC7E258-7448-4591-BD3D-0FB0BAA94BA5}" name="interation" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{75FA500D-7717-4566-A06E-97BB06EED6CD}" name="error" dataDxfId="7">
+      <calculatedColumnFormula>B200/B$5-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{75F858FE-A078-4D42-A783-27C2E82388D6}" name="L /keV-1"/>
+    <tableColumn id="7" xr3:uid="{0F5C4193-AE61-4DBD-BEDE-66F8A36CA71E}" name="speed /s" dataDxfId="10">
+      <calculatedColumnFormula>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{A476BBAA-4C9B-4896-A471-083FADE1DF38}" name="time /h" dataDxfId="9">
+      <calculatedColumnFormula>Table4810[[#This Row],[time /s]]/3600</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{FF9CD72C-0F4A-441D-8045-B680474B4E5D}" name="Z-score" dataDxfId="8">
+      <calculatedColumnFormula>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8948,10 +9060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P223"/>
+  <dimension ref="A1:P284"/>
   <sheetViews>
-    <sheetView topLeftCell="E125" workbookViewId="0">
-      <selection activeCell="O131" sqref="O131:O154"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11911,7 +12023,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>5.0341666666666666E-4</v>
       </c>
-      <c r="J132" s="35">
+      <c r="J132" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>-8.5012795433275418E-2</v>
       </c>
@@ -11967,7 +12079,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>1.2586872222222223E-3</v>
       </c>
-      <c r="J133" s="35">
+      <c r="J133" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>0.40788397475657451</v>
       </c>
@@ -12023,7 +12135,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.6086177777777777E-3</v>
       </c>
-      <c r="J134" s="35">
+      <c r="J134" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>-0.15721149141369237</v>
       </c>
@@ -12079,7 +12191,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>4.9956925000000001E-3</v>
       </c>
-      <c r="J135" s="35">
+      <c r="J135" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>0.69380507116584633</v>
       </c>
@@ -12135,7 +12247,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>1.2660654722222222E-2</v>
       </c>
-      <c r="J136" s="35">
+      <c r="J136" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>-0.31745452837920285</v>
       </c>
@@ -12191,7 +12303,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.014765638888889E-2</v>
       </c>
-      <c r="J137" s="35">
+      <c r="J137" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>-0.49227152232374477</v>
       </c>
@@ -12247,7 +12359,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.5221577222222225E-2</v>
       </c>
-      <c r="J138" s="35">
+      <c r="J138" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>0.41579193839605727</v>
       </c>
@@ -12303,7 +12415,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>5.0760348055555557E-2</v>
       </c>
-      <c r="J139" s="35">
+      <c r="J139" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>-1.0023536261496429</v>
       </c>
@@ -12415,7 +12527,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.12534785500000001</v>
       </c>
-      <c r="J141" s="35">
+      <c r="J141" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>0.98884866574488528</v>
       </c>
@@ -12471,7 +12583,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.18746111555555556</v>
       </c>
-      <c r="J142" s="35">
+      <c r="J142" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>-0.4307577143054287</v>
       </c>
@@ -12527,7 +12639,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.21026400916666665</v>
       </c>
-      <c r="J143" s="35">
+      <c r="J143" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>-0.90379651512169934</v>
       </c>
@@ -12583,7 +12695,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.23437295527777779</v>
       </c>
-      <c r="J144" s="35">
+      <c r="J144" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>-0.45967622798172797</v>
       </c>
@@ -12639,7 +12751,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.25139593222222223</v>
       </c>
-      <c r="J145" s="35">
+      <c r="J145" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>-0.57151700644579262</v>
       </c>
@@ -12681,7 +12793,7 @@
         <v>20</v>
       </c>
       <c r="F146" s="21">
-        <f>B146/B$5-1</f>
+        <f t="shared" ref="F146:F154" si="17">B146/B$5-1</f>
         <v>-2.6547865333960141E-3</v>
       </c>
       <c r="G146" s="3">
@@ -12695,7 +12807,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.49365145500000002</v>
       </c>
-      <c r="J146" s="35">
+      <c r="J146" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>-1.585374368340924</v>
       </c>
@@ -12737,7 +12849,7 @@
         <v>20</v>
       </c>
       <c r="F147" s="21">
-        <f>B147/B$5-1</f>
+        <f t="shared" si="17"/>
         <v>-4.1284331785007566E-4</v>
       </c>
       <c r="G147" s="3">
@@ -12751,7 +12863,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.78354702999999992</v>
       </c>
-      <c r="J147" s="35">
+      <c r="J147" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>0.75966799964432807</v>
       </c>
@@ -12793,7 +12905,7 @@
         <v>20</v>
       </c>
       <c r="F148" s="21">
-        <f>B148/B$5-1</f>
+        <f t="shared" si="17"/>
         <v>-1.1423280325291163E-3</v>
       </c>
       <c r="G148" s="3">
@@ -12807,7 +12919,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>1.0423902350000001</v>
       </c>
-      <c r="J148" s="35">
+      <c r="J148" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>-0.17063631515317662</v>
       </c>
@@ -12849,7 +12961,7 @@
         <v>20</v>
       </c>
       <c r="F149" s="21">
-        <f>B149/B$5-1</f>
+        <f t="shared" si="17"/>
         <v>-4.9718775639395751E-4</v>
       </c>
       <c r="G149" s="3">
@@ -12863,7 +12975,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>1.2722926205555556</v>
       </c>
-      <c r="J149" s="35">
+      <c r="J149" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>0.83405414028546743</v>
       </c>
@@ -12905,7 +13017,7 @@
         <v>20</v>
       </c>
       <c r="F150" s="21">
-        <f>B150/B$5-1</f>
+        <f t="shared" si="17"/>
         <v>-1.1918886588064836E-3</v>
       </c>
       <c r="G150" s="3">
@@ -12919,7 +13031,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>1.5769363383333332</v>
       </c>
-      <c r="J150" s="35">
+      <c r="J150" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>-0.29210837104894666</v>
       </c>
@@ -12961,7 +13073,7 @@
         <v>20</v>
       </c>
       <c r="F151" s="21">
-        <f>B151/B$5-1</f>
+        <f t="shared" si="17"/>
         <v>-2.8493218558145461E-4</v>
       </c>
       <c r="G151" s="3">
@@ -12975,7 +13087,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>1.8277614283333332</v>
       </c>
-      <c r="J151" s="35">
+      <c r="J151" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>1.3908986116945079</v>
       </c>
@@ -13017,7 +13129,7 @@
         <v>20</v>
       </c>
       <c r="F152" s="21">
-        <f>B152/B$5-1</f>
+        <f t="shared" si="17"/>
         <v>-1.8928138990281784E-4</v>
       </c>
       <c r="G152" s="3">
@@ -13031,7 +13143,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.0733266908333334</v>
       </c>
-      <c r="J152" s="35">
+      <c r="J152" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>1.6740373861851947</v>
       </c>
@@ -13073,7 +13185,7 @@
         <v>20</v>
       </c>
       <c r="F153" s="21">
-        <f>B153/B$5-1</f>
+        <f t="shared" si="17"/>
         <v>-1.2737901663620876E-3</v>
       </c>
       <c r="G153" s="3">
@@ -13087,7 +13199,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.271757401111111</v>
       </c>
-      <c r="J153" s="35">
+      <c r="J153" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>-0.52322486614179786</v>
       </c>
@@ -13129,7 +13241,7 @@
         <v>20</v>
       </c>
       <c r="F154" s="21">
-        <f>B154/B$5-1</f>
+        <f t="shared" si="17"/>
         <v>-1.8028123007353125E-3</v>
       </c>
       <c r="G154">
@@ -13143,7 +13255,7 @@
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.5779005502777776</v>
       </c>
-      <c r="J154" s="35">
+      <c r="J154" s="31">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
         <v>-1.6893994359900339</v>
       </c>
@@ -13277,7 +13389,7 @@
         <v>20</v>
       </c>
       <c r="F162" s="9">
-        <f t="shared" ref="F162:F180" si="17">B162/B$5-1</f>
+        <f t="shared" ref="F162:F180" si="18">B162/B$5-1</f>
         <v>2.6416163810667914E-2</v>
       </c>
       <c r="G162">
@@ -13323,7 +13435,7 @@
         <v>20</v>
       </c>
       <c r="F163" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.6416163797431169E-2</v>
       </c>
       <c r="G163">
@@ -13369,7 +13481,7 @@
         <v>20</v>
       </c>
       <c r="F164" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.9798678225280808E-2</v>
       </c>
       <c r="G164">
@@ -13415,7 +13527,7 @@
         <v>20</v>
       </c>
       <c r="F165" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.550820886939742E-2</v>
       </c>
       <c r="G165">
@@ -13461,7 +13573,7 @@
         <v>20</v>
       </c>
       <c r="F166" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.8848051579784197E-2</v>
       </c>
       <c r="G166">
@@ -13484,7 +13596,7 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>1.5803089999999999E-2</v>
       </c>
-      <c r="M166" s="35">
+      <c r="M166" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>-1.3132780394700281</v>
       </c>
@@ -13507,7 +13619,7 @@
         <v>20</v>
       </c>
       <c r="F167" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-4.154843238327488E-3</v>
       </c>
       <c r="G167">
@@ -13530,7 +13642,7 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>3.6146163888888888E-2</v>
       </c>
-      <c r="M167" s="35">
+      <c r="M167" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>-0.47561306150638938</v>
       </c>
@@ -13553,7 +13665,7 @@
         <v>20</v>
       </c>
       <c r="F168" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.0199075921877316E-4</v>
       </c>
       <c r="G168">
@@ -13576,7 +13688,7 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>6.3845862222222216E-2</v>
       </c>
-      <c r="M168" s="35">
+      <c r="M168" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>0.27237203483738914</v>
       </c>
@@ -13599,7 +13711,7 @@
         <v>20</v>
       </c>
       <c r="F169" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.9386923732050985E-3</v>
       </c>
       <c r="G169">
@@ -13622,7 +13734,7 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>8.0781708333333327E-2</v>
       </c>
-      <c r="M169" s="35">
+      <c r="M169" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>0.96144079098925062</v>
       </c>
@@ -13645,7 +13757,7 @@
         <v>20</v>
       </c>
       <c r="F170" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3.0370041690160887E-3</v>
       </c>
       <c r="G170">
@@ -13668,7 +13780,7 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.15119333777777777</v>
       </c>
-      <c r="M170" s="35">
+      <c r="M170" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>-0.63835290439629366</v>
       </c>
@@ -13691,7 +13803,7 @@
         <v>20</v>
       </c>
       <c r="F171" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.4646091210487349E-4</v>
       </c>
       <c r="G171">
@@ -13714,7 +13826,7 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.2362752127777778</v>
       </c>
-      <c r="M171" s="35">
+      <c r="M171" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>0.59573601867790682</v>
       </c>
@@ -13737,7 +13849,7 @@
         <v>20</v>
       </c>
       <c r="F172" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.1978634981496539E-3</v>
       </c>
       <c r="G172">
@@ -13760,7 +13872,7 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.36892216194444449</v>
       </c>
-      <c r="M172" s="35">
+      <c r="M172" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>-8.95655726674571E-2</v>
       </c>
@@ -13798,15 +13910,15 @@
       <c r="J173">
         <v>1.0073848700000001</v>
       </c>
-      <c r="K173" s="34">
+      <c r="K173">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>69.577252268025219</v>
       </c>
-      <c r="L173" s="34">
+      <c r="L173">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.55893108194444441</v>
       </c>
-      <c r="M173" s="35">
+      <c r="M173" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>5.7037756018169336E-2</v>
       </c>
@@ -13844,15 +13956,15 @@
       <c r="J174">
         <v>1.1258256600000001</v>
       </c>
-      <c r="K174" s="34">
+      <c r="K174">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>70.316398951619576</v>
       </c>
-      <c r="L174" s="34">
+      <c r="L174">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.63206371638888892</v>
       </c>
-      <c r="M174" s="35">
+      <c r="M174" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>0.73255339952120957</v>
       </c>
@@ -13890,15 +14002,15 @@
       <c r="J175">
         <v>1.0900376899999999</v>
       </c>
-      <c r="K175" s="34">
+      <c r="K175">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>71.391841289451264</v>
       </c>
-      <c r="L175" s="34">
+      <c r="L175">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.70036014055555562</v>
       </c>
-      <c r="M175" s="35">
+      <c r="M175" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>1.262593084648296</v>
       </c>
@@ -13921,7 +14033,7 @@
         <v>20</v>
       </c>
       <c r="F176" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.2393580262437531E-4</v>
       </c>
       <c r="G176">
@@ -13944,7 +14056,7 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.73493317555555548</v>
       </c>
-      <c r="M176" s="35">
+      <c r="M176" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>0.82401370875235602</v>
       </c>
@@ -13967,7 +14079,7 @@
         <v>20</v>
       </c>
       <c r="F177" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.9511211545968354E-3</v>
       </c>
       <c r="G177">
@@ -13990,7 +14102,7 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>1.5902536119444444</v>
       </c>
-      <c r="M177" s="35">
+      <c r="M177" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>-0.9204262999349071</v>
       </c>
@@ -14028,15 +14140,15 @@
       <c r="J178">
         <v>1.0944703200000001</v>
       </c>
-      <c r="K178" s="34">
+      <c r="K178">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>66.573780368903982</v>
       </c>
-      <c r="L178" s="34">
+      <c r="L178">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>2.503488096111111</v>
       </c>
-      <c r="M178" s="35">
+      <c r="M178" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>1.9496480697505736</v>
       </c>
@@ -14074,15 +14186,15 @@
       <c r="J179">
         <v>1.0623627899999999</v>
       </c>
-      <c r="K179" s="34">
+      <c r="K179">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>68.646377180287928</v>
       </c>
-      <c r="L179" s="34">
+      <c r="L179">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>3.2372024766666669</v>
       </c>
-      <c r="M179" s="35">
+      <c r="M179" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>0.60310471606181504</v>
       </c>
@@ -14105,7 +14217,7 @@
         <v>20</v>
       </c>
       <c r="F180" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3.1323702352219485E-3</v>
       </c>
       <c r="G180">
@@ -14166,15 +14278,15 @@
       <c r="J181">
         <v>1.03821366</v>
       </c>
-      <c r="K181" s="34">
+      <c r="K181">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>70.003411819284906</v>
       </c>
-      <c r="L181" s="34">
+      <c r="L181">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>4.7616726766666666</v>
       </c>
-      <c r="M181" s="35">
+      <c r="M181" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>0</v>
       </c>
@@ -14212,15 +14324,15 @@
       <c r="J182">
         <v>1.0187743</v>
       </c>
-      <c r="K182" s="34">
+      <c r="K182">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>78.86900283817009</v>
       </c>
-      <c r="L182" s="34">
+      <c r="L182">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>4.9308204097222221</v>
       </c>
-      <c r="M182" s="35">
+      <c r="M182" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>-0.56529112764078482</v>
       </c>
@@ -14258,15 +14370,15 @@
       <c r="J183">
         <v>1.0560619099999999</v>
       </c>
-      <c r="K183" s="34">
+      <c r="K183">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>74.294171233944994</v>
       </c>
-      <c r="L183" s="34">
+      <c r="L183">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>5.9822249452777783</v>
       </c>
-      <c r="M183" s="35">
+      <c r="M183" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>1.2310124792122508</v>
       </c>
@@ -14304,15 +14416,15 @@
       <c r="J184">
         <v>1.0882582700000001</v>
       </c>
-      <c r="K184" s="34">
+      <c r="K184">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>81.754909126161706</v>
       </c>
-      <c r="L184" s="34">
+      <c r="L184">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>6.1158406919444444</v>
       </c>
-      <c r="M184" s="35">
+      <c r="M184" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>0.89797029040104304</v>
       </c>
@@ -14350,15 +14462,15 @@
       <c r="J185">
         <v>1.0869721299999999</v>
       </c>
-      <c r="K185" s="34">
+      <c r="K185">
         <f>Table479[[#This Row],[N]]*Table479[[#This Row],[interation]]/Table479[[#This Row],[time /s]]</f>
         <v>74.699575822160057</v>
       </c>
-      <c r="L185" s="36">
+      <c r="L185" s="5">
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>7.4371982630555555</v>
       </c>
-      <c r="M185" s="35">
+      <c r="M185" s="31">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
         <v>1.6067891780662018</v>
       </c>
@@ -14393,225 +14505,2627 @@
         <v>-1.0225429040099376E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="5" t="s">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>28</v>
+      </c>
+      <c r="B196" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>30</v>
+      </c>
+      <c r="E196" t="s">
+        <v>31</v>
+      </c>
+      <c r="H196" s="25" t="e">
+        <f>AVERAGE(H200:H210)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I196" t="s">
+        <v>49</v>
+      </c>
+      <c r="K196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E197" t="s">
+        <v>47</v>
+      </c>
+      <c r="F197">
+        <v>20</v>
+      </c>
+      <c r="H197" s="25" t="e">
+        <f>_xlfn.STDEV.S(H200:H210)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" t="s">
+        <v>48</v>
+      </c>
+      <c r="F199" t="s">
+        <v>8</v>
+      </c>
+      <c r="G199" t="s">
+        <v>21</v>
+      </c>
+      <c r="H199" t="s">
+        <v>45</v>
+      </c>
+      <c r="I199" t="s">
+        <v>43</v>
+      </c>
+      <c r="J199" t="s">
+        <v>50</v>
+      </c>
+      <c r="K199" t="s">
+        <v>46</v>
+      </c>
+      <c r="L199" t="s">
+        <v>37</v>
+      </c>
+      <c r="M199" t="s">
+        <v>59</v>
+      </c>
+      <c r="N199" t="s">
+        <v>60</v>
+      </c>
+      <c r="O199" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>10</v>
+      </c>
+      <c r="B200" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C200" s="1">
+        <v>0.99778151056273101</v>
+      </c>
+      <c r="D200" s="15"/>
+      <c r="E200">
+        <v>20</v>
+      </c>
+      <c r="F200" s="9">
+        <f>B200/B$5-1</f>
+        <v>-0.98973583836189083</v>
+      </c>
+      <c r="G200" s="3">
+        <v>2.5278640565088999</v>
+      </c>
+      <c r="H200" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I200" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J200" s="30">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>-0.96540921447145112</v>
+      </c>
+      <c r="K200" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L200" t="e">
+        <f>K200*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M200" s="14" t="e">
+        <f>K200-L200</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N200" s="14" t="e">
+        <f>K200+L200</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O200" s="21">
+        <f>$C$190</f>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>20</v>
+      </c>
+      <c r="B201" s="1">
+        <v>0.99604425274276098</v>
+      </c>
+      <c r="C201" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D201" s="15"/>
+      <c r="E201">
+        <v>20</v>
+      </c>
+      <c r="F201" s="21">
+        <f>B201/B$5-1</f>
+        <v>2.235592088613747E-2</v>
+      </c>
+      <c r="G201" s="3">
+        <v>1.8378407328742301</v>
+      </c>
+      <c r="H201" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I201" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J201" s="30">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>2.2776788416256966</v>
+      </c>
+      <c r="K201" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L201" t="e">
+        <f>K201*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M201" s="14" t="e">
+        <f t="shared" ref="M201:M222" si="19">K201-L201</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N201" s="14" t="e">
+        <f t="shared" ref="N201:N222" si="20">K201+L201</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O201" s="21">
+        <f t="shared" ref="O201:O222" si="21">$C$190</f>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>50</v>
+      </c>
+      <c r="B202" s="1">
+        <v>0.97999999835377805</v>
+      </c>
+      <c r="C202" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15">
+        <v>20</v>
+      </c>
+      <c r="F202" s="21">
+        <f>B202/B$5-1</f>
+        <v>5.8878388449912222E-3</v>
+      </c>
+      <c r="G202" s="3">
+        <v>2.0000000044527302</v>
+      </c>
+      <c r="H202" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I202" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J202" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>0.67325340272740286</v>
+      </c>
+      <c r="K202" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L202" t="e">
+        <f>K202*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M202" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N202" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O202" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>100</v>
+      </c>
+      <c r="B203" s="1">
+        <v>0.96101446887658604</v>
+      </c>
+      <c r="C203" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15">
+        <v>20</v>
+      </c>
+      <c r="F203" s="23">
+        <f>B203/B$5-1</f>
+        <v>-1.3599215488907412E-2</v>
+      </c>
+      <c r="G203" s="3">
+        <v>1.67878707969189</v>
+      </c>
+      <c r="H203" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I203" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J203" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>-1.2252995449917981</v>
+      </c>
+      <c r="K203" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L203" t="e">
+        <f>K203*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M203" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N203" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O203" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>200</v>
+      </c>
+      <c r="B204" s="1">
+        <v>0.98381688494387798</v>
+      </c>
+      <c r="C204" s="1">
+        <v>7.8526443679022197E-3</v>
+      </c>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15">
+        <v>20</v>
+      </c>
+      <c r="F204" s="21">
+        <f>B204/B$5-1</f>
+        <v>9.8055529365028704E-3</v>
+      </c>
+      <c r="G204" s="3">
+        <v>1.70820393517531</v>
+      </c>
+      <c r="H204" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I204" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J204" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>1.3434226896222179</v>
+      </c>
+      <c r="K204" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L204" t="e">
+        <f>K204*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M204" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N204" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O204" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>500</v>
+      </c>
+      <c r="B205" s="1">
+        <v>0.96842317374154796</v>
+      </c>
+      <c r="C205" s="1">
+        <v>6.5933445012788796E-3</v>
+      </c>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15">
+        <v>20</v>
+      </c>
+      <c r="F205" s="21">
+        <f>B205/B$5-1</f>
+        <v>-5.994801062605859E-3</v>
+      </c>
+      <c r="G205" s="3">
+        <v>1.23606797759594</v>
+      </c>
+      <c r="H205" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I205" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J205" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>-0.73472432450881842</v>
+      </c>
+      <c r="K205" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L205" t="e">
+        <f>K205*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M205" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N205" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O205" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>800</v>
+      </c>
+      <c r="B206" s="1">
+        <v>0.98123697716501601</v>
+      </c>
+      <c r="C206" s="1">
+        <v>3.9772500991747898E-3</v>
+      </c>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15">
+        <v>20</v>
+      </c>
+      <c r="F206" s="21">
+        <f>B206/B$5-1</f>
+        <v>7.1574938911374009E-3</v>
+      </c>
+      <c r="G206" s="3">
+        <v>1.11529493707889</v>
+      </c>
+      <c r="H206" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I206" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J206" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>2.0037746281445892</v>
+      </c>
+      <c r="K206" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L206" t="e">
+        <f>K206*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M206" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N206" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O206" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1000</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0.98039252553870804</v>
+      </c>
+      <c r="C207" s="1">
+        <v>3.6593683388320098E-3</v>
+      </c>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15">
+        <v>20</v>
+      </c>
+      <c r="F207" s="23">
+        <f>B207/B$5-1</f>
+        <v>6.290735092338462E-3</v>
+      </c>
+      <c r="G207" s="3">
+        <v>1.6261646097200499</v>
+      </c>
+      <c r="H207" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I207" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J207" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>1.9470740719361921</v>
+      </c>
+      <c r="K207" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L207" t="e">
+        <f>K207*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M207" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N207" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O207" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>2000</v>
+      </c>
+      <c r="B208" s="1">
+        <v>0.97899261247595903</v>
+      </c>
+      <c r="C208" s="1">
+        <v>2.7098229053903302E-3</v>
+      </c>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15">
+        <v>20</v>
+      </c>
+      <c r="F208" s="23">
+        <f>B208/B$5-1</f>
+        <v>4.8538416968029185E-3</v>
+      </c>
+      <c r="G208" s="3">
+        <v>1.61803399102434</v>
+      </c>
+      <c r="H208" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I208" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J208" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>2.1127388576082433</v>
+      </c>
+      <c r="K208" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L208" t="e">
+        <f>K208*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M208" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N208" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O208" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>3000</v>
+      </c>
+      <c r="B209" s="1">
+        <v>0.97554422742768399</v>
+      </c>
+      <c r="C209" s="1">
+        <v>2.36329016122537E-3</v>
+      </c>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15">
+        <v>20</v>
+      </c>
+      <c r="F209" s="23">
+        <f>B209/B$5-1</f>
+        <v>1.3143635442094403E-3</v>
+      </c>
+      <c r="G209" s="3">
+        <v>1</v>
+      </c>
+      <c r="H209" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I209" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J209" s="34">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>0.96338703496292755</v>
+      </c>
+      <c r="K209" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L209" t="e">
+        <f>K209*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M209" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N209" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O209" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>5000</v>
+      </c>
+      <c r="B210" s="1">
+        <v>0.97142605865169895</v>
+      </c>
+      <c r="C210" s="1">
+        <v>2.00369256336264E-3</v>
+      </c>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15">
+        <v>20</v>
+      </c>
+      <c r="F210" s="23">
+        <f>B210/B$5-1</f>
+        <v>-2.9125914527630137E-3</v>
+      </c>
+      <c r="G210" s="3">
+        <v>1.0130486540650101</v>
+      </c>
+      <c r="H210" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I210" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J210" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>-0.91900609328747351</v>
+      </c>
+      <c r="K210" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L210" t="e">
+        <f>K210*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M210" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N210" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O210" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>7000</v>
+      </c>
+      <c r="B211" s="1">
+        <v>0.97147549422273705</v>
+      </c>
+      <c r="C211" s="1">
+        <v>1.6303606546548401E-3</v>
+      </c>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15">
+        <v>20</v>
+      </c>
+      <c r="F211" s="21">
+        <f>B211/B$5-1</f>
+        <v>-2.8618499835822986E-3</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0.94427191054632198</v>
+      </c>
+      <c r="H211" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I211" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J211" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>-1.0991249688531921</v>
+      </c>
+      <c r="K211" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L211" t="e">
+        <f>K211*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M211" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N211" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O211" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>8000</v>
+      </c>
+      <c r="B212" s="1">
+        <v>0.97163373175414403</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1.5695898843485401E-3</v>
+      </c>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15">
+        <v>20</v>
+      </c>
+      <c r="F212" s="21">
+        <f>B212/B$5-1</f>
+        <v>-2.6994324236246925E-3</v>
+      </c>
+      <c r="G212" s="3">
+        <v>1.0062112399500101</v>
+      </c>
+      <c r="H212" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I212" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J212" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>-1.0408658902883245</v>
+      </c>
+      <c r="K212" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L212" t="e">
+        <f>K212*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M212" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N212" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O212" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>9000</v>
+      </c>
+      <c r="B213" s="1">
+        <v>0.97045839649051802</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1.5003346884566E-3</v>
+      </c>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15">
+        <v>20</v>
+      </c>
+      <c r="F213" s="21">
+        <f>B213/B$5-1</f>
+        <v>-3.9058155361073599E-3</v>
+      </c>
+      <c r="G213" s="3">
+        <v>1</v>
+      </c>
+      <c r="H213" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I213" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J213" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>-1.8722941338346979</v>
+      </c>
+      <c r="K213" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L213" t="e">
+        <f>K213*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M213" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N213" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O213" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>10000</v>
+      </c>
+      <c r="B214" s="1">
+        <v>0.97550100952841601</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1.3045292308946901E-3</v>
+      </c>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15">
+        <v>17</v>
+      </c>
+      <c r="F214" s="23">
+        <f>B214/B$5-1</f>
+        <v>1.2700039938349228E-3</v>
+      </c>
+      <c r="G214" s="3">
+        <v>1.13968679345817</v>
+      </c>
+      <c r="H214" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I214" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J214" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>1.7121465345626252</v>
+      </c>
+      <c r="K214" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L214" t="e">
+        <f>K214*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M214" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N214" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O214" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>20000</v>
+      </c>
+      <c r="B215" s="1">
+        <v>0.97366738058981706</v>
+      </c>
+      <c r="C215" s="1">
+        <v>9.6926193914101801E-4</v>
+      </c>
+      <c r="D215" s="15"/>
+      <c r="E215" s="15">
+        <v>20</v>
+      </c>
+      <c r="F215" s="21">
+        <f>B215/B$5-1</f>
+        <v>-6.1206238717459449E-4</v>
+      </c>
+      <c r="G215" s="3">
+        <v>1.0770143261184699</v>
+      </c>
+      <c r="H215" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I215" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J215" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>0.41259874876285052</v>
+      </c>
+      <c r="K215" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L215" t="e">
+        <f>K215*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M215" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N215" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O215" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>30000</v>
+      </c>
+      <c r="B216" s="1">
+        <v>0.97302916245732296</v>
+      </c>
+      <c r="C216" s="1">
+        <v>7.9224219322948295E-4</v>
+      </c>
+      <c r="D216" s="15"/>
+      <c r="E216" s="15">
+        <v>20</v>
+      </c>
+      <c r="F216" s="21">
+        <f>B216/B$5-1</f>
+        <v>-1.2671397944037377E-3</v>
+      </c>
+      <c r="G216" s="3">
+        <v>1.0475974712581599</v>
+      </c>
+      <c r="H216" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I216" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J216" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>-0.30079421573047882</v>
+      </c>
+      <c r="K216" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L216" t="e">
+        <f>K216*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M216" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N216" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O216" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>40000</v>
+      </c>
+      <c r="B217" s="1">
+        <v>0.97173194120821604</v>
+      </c>
+      <c r="C217" s="1">
+        <v>7.10473958237109E-4</v>
+      </c>
+      <c r="D217" s="15"/>
+      <c r="E217" s="15">
+        <v>20</v>
+      </c>
+      <c r="F217" s="21">
+        <f>B217/B$5-1</f>
+        <v>-2.5986286525260249E-3</v>
+      </c>
+      <c r="G217" s="3">
+        <v>1.03444185353721</v>
+      </c>
+      <c r="H217" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I217" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J217" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>-2.161265871163033</v>
+      </c>
+      <c r="K217" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L217" t="e">
+        <f>K217*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M217" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N217" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O217" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>60000</v>
+      </c>
+      <c r="B218" s="1">
+        <v>0.97386592139766803</v>
+      </c>
+      <c r="C218" s="1">
+        <v>5.6050154178285201E-4</v>
+      </c>
+      <c r="D218" s="15"/>
+      <c r="E218" s="15">
+        <v>20</v>
+      </c>
+      <c r="F218" s="21">
+        <f>B218/B$5-1</f>
+        <v>-4.0827689282030288E-4</v>
+      </c>
+      <c r="G218" s="3">
+        <v>1.08943680606933</v>
+      </c>
+      <c r="H218" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I218" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J218" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>1.0677170829190483</v>
+      </c>
+      <c r="K218" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L218" t="e">
+        <f>K218*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M218" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N218" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O218" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>70000</v>
+      </c>
+      <c r="B219" s="1">
+        <v>0.97254630290233501</v>
+      </c>
+      <c r="C219" s="1">
+        <v>5.3113888234301897E-4</v>
+      </c>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15">
+        <v>20</v>
+      </c>
+      <c r="F219" s="21">
+        <f>B219/B$5-1</f>
+        <v>-1.7627546464938915E-3</v>
+      </c>
+      <c r="G219" s="3">
+        <v>1.0770143260222</v>
+      </c>
+      <c r="H219" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I219" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J219" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>-1.3577643214289563</v>
+      </c>
+      <c r="K219" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L219" t="e">
+        <f>K219*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M219" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N219" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O219" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>80000</v>
+      </c>
+      <c r="B220" s="1">
+        <v>0.97282099917831999</v>
+      </c>
+      <c r="C220" s="1">
+        <v>4.9469940309467095E-4</v>
+      </c>
+      <c r="D220" s="15"/>
+      <c r="E220" s="15">
+        <v>20</v>
+      </c>
+      <c r="F220" s="21">
+        <f>B220/B$5-1</f>
+        <v>-1.4808019486842738E-3</v>
+      </c>
+      <c r="G220" s="3">
+        <v>1.0425724724849801</v>
+      </c>
+      <c r="H220" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I220" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J220" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>-0.90249785100021085</v>
+      </c>
+      <c r="K220" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L220" t="e">
+        <f>K220*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M220" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N220" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O220" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>90000</v>
+      </c>
+      <c r="B221" s="1">
+        <v>0.97247964813441801</v>
+      </c>
+      <c r="C221" s="1">
+        <v>4.7184712979378402E-4</v>
+      </c>
+      <c r="D221" s="15"/>
+      <c r="E221" s="15">
+        <v>20</v>
+      </c>
+      <c r="F221" s="21">
+        <f>B221/B$5-1</f>
+        <v>-1.8311701776789757E-3</v>
+      </c>
+      <c r="G221" s="3">
+        <v>1.0433056099716</v>
+      </c>
+      <c r="H221" s="15" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I221" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J221" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>-1.6696428617258254</v>
+      </c>
+      <c r="K221" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L221" t="e">
+        <f>K221*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M221" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N221" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O221" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>100000</v>
+      </c>
+      <c r="B222" s="1">
+        <v>0.972742820219895</v>
+      </c>
+      <c r="C222" s="1">
+        <v>4.4602393481509402E-4</v>
+      </c>
+      <c r="D222" s="15"/>
+      <c r="E222" s="15">
+        <v>20</v>
+      </c>
+      <c r="F222" s="21">
+        <f>B222/B$5-1</f>
+        <v>-1.5610460952816263E-3</v>
+      </c>
+      <c r="G222">
+        <v>1.0557280899538699</v>
+      </c>
+      <c r="H222" t="e">
+        <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I222" s="25">
+        <f>Table4810[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J222" s="31">
+        <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
+        <v>-1.1762689525317001</v>
+      </c>
+      <c r="K222" s="14" t="str">
+        <f>D$5</f>
+        <v>eff (anaytical)</v>
+      </c>
+      <c r="L222" t="e">
+        <f>K222*K$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M222" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N222" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O222" s="21">
+        <f t="shared" si="21"/>
+        <v>0.97326746432650402</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>28</v>
+      </c>
+      <c r="B225" t="s">
+        <v>29</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225" t="s">
+        <v>30</v>
+      </c>
+      <c r="E225" t="s">
+        <v>33</v>
+      </c>
+      <c r="H225" s="25" t="e">
+        <f>AVERAGE(K229:K239)*3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I225" t="s">
+        <v>49</v>
+      </c>
+      <c r="K225" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E226" t="s">
+        <v>47</v>
+      </c>
+      <c r="F226">
+        <v>20</v>
+      </c>
+      <c r="H226" s="25" t="e">
+        <f>_xlfn.STDEV.S(K229:K239)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" t="s">
+        <v>27</v>
+      </c>
+      <c r="D228" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228" t="s">
+        <v>48</v>
+      </c>
+      <c r="F228" t="s">
+        <v>8</v>
+      </c>
+      <c r="G228" t="s">
+        <v>21</v>
+      </c>
+      <c r="H228" t="s">
+        <v>22</v>
+      </c>
+      <c r="I228" t="s">
+        <v>23</v>
+      </c>
+      <c r="J228" t="s">
+        <v>24</v>
+      </c>
+      <c r="K228" t="s">
+        <v>45</v>
+      </c>
+      <c r="L228" t="s">
+        <v>43</v>
+      </c>
+      <c r="M228" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>10</v>
+      </c>
+      <c r="B229" s="1">
+        <v>0.93450916376549398</v>
+      </c>
+      <c r="C229" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D229" s="15"/>
+      <c r="E229">
+        <v>20</v>
+      </c>
+      <c r="F229" s="9">
+        <f t="shared" ref="F229:F239" si="22">B229/B$5-1</f>
+        <v>-4.0804689081672452E-2</v>
+      </c>
+      <c r="G229">
+        <v>4.0368364330743303</v>
+      </c>
+      <c r="H229">
+        <v>4.0986145499999997</v>
+      </c>
+      <c r="I229">
+        <v>4.0874667699999998</v>
+      </c>
+      <c r="J229">
+        <v>3.9244279799999999</v>
+      </c>
+      <c r="K229" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L229">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M229" s="30">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>-3.875830056101004</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>20</v>
+      </c>
+      <c r="B230" s="1">
+        <v>0.97869541156450501</v>
+      </c>
+      <c r="C230" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D230" s="15"/>
+      <c r="E230">
+        <v>20</v>
+      </c>
+      <c r="F230" s="21">
+        <f t="shared" si="22"/>
+        <v>4.5487898773870494E-3</v>
+      </c>
+      <c r="G230">
+        <v>2.9018462997320902</v>
+      </c>
+      <c r="H230">
+        <v>3.0445600499999999</v>
+      </c>
+      <c r="I230">
+        <v>2.87806067</v>
+      </c>
+      <c r="J230">
+        <v>2.7829181699999999</v>
+      </c>
+      <c r="K230" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L230">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M230" s="30">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>0.54279472380009963</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>50</v>
+      </c>
+      <c r="B231" s="1">
+        <v>0.93816997184992801</v>
+      </c>
+      <c r="C231" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D231" s="15"/>
+      <c r="E231" s="15">
+        <v>20</v>
+      </c>
+      <c r="F231" s="21">
+        <f t="shared" si="22"/>
+        <v>-3.7047176491199707E-2</v>
+      </c>
+      <c r="G231">
+        <v>1.0165979456018499</v>
+      </c>
+      <c r="H231">
+        <v>1.0246853300000001</v>
+      </c>
+      <c r="I231">
+        <v>1.00007595</v>
+      </c>
+      <c r="J231">
+        <v>1.0250325499999999</v>
+      </c>
+      <c r="K231" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L231">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M231" s="30">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>-3.5097492476576009</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>100</v>
+      </c>
+      <c r="B232" s="1">
+        <v>0.97289296112007895</v>
+      </c>
+      <c r="C232" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D232" s="15"/>
+      <c r="E232" s="15">
+        <v>20</v>
+      </c>
+      <c r="F232" s="23">
+        <f t="shared" si="22"/>
+        <v>-1.4069390484836575E-3</v>
+      </c>
+      <c r="G232">
+        <v>1.0074074074074</v>
+      </c>
+      <c r="H232">
+        <v>1.03703704</v>
+      </c>
+      <c r="I232">
+        <v>1.03703704</v>
+      </c>
+      <c r="J232">
+        <v>0.94814814999999997</v>
+      </c>
+      <c r="K232" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L232">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M232" s="30">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>-3.7450320642506973E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>200</v>
+      </c>
+      <c r="B233" s="1">
+        <v>0.97543719781386695</v>
+      </c>
+      <c r="C233" s="1">
+        <v>9.8395618072187503E-3</v>
+      </c>
+      <c r="D233" s="15"/>
+      <c r="E233" s="15">
+        <v>20</v>
+      </c>
+      <c r="F233" s="21">
+        <f t="shared" si="22"/>
+        <v>1.2045066185812914E-3</v>
+      </c>
+      <c r="G233">
+        <v>1.39415607225691</v>
+      </c>
+      <c r="H233">
+        <v>1.36378625</v>
+      </c>
+      <c r="I233">
+        <v>1.43832457</v>
+      </c>
+      <c r="J233">
+        <v>1.3803574000000001</v>
+      </c>
+      <c r="K233" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L233">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M233" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>0.22051119042426459</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>500</v>
+      </c>
+      <c r="B234" s="1">
+        <v>0.97029361394063696</v>
+      </c>
+      <c r="C234" s="1">
+        <v>6.4093961290366897E-3</v>
+      </c>
+      <c r="D234" s="15"/>
+      <c r="E234" s="15">
+        <v>20</v>
+      </c>
+      <c r="F234" s="21">
+        <f t="shared" si="22"/>
+        <v>-4.074951008819272E-3</v>
+      </c>
+      <c r="G234">
+        <v>1.00236395031238</v>
+      </c>
+      <c r="H234">
+        <v>1.0002800300000001</v>
+      </c>
+      <c r="I234">
+        <v>1.00653178</v>
+      </c>
+      <c r="J234">
+        <v>1.0002800300000001</v>
+      </c>
+      <c r="K234" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L234">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M234" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>-0.46398292850000833</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>800</v>
+      </c>
+      <c r="B235" s="1">
+        <v>0.97468823329890497</v>
+      </c>
+      <c r="C235" s="1">
+        <v>4.6233842384465996E-3</v>
+      </c>
+      <c r="D235" s="15"/>
+      <c r="E235" s="15">
+        <v>20</v>
+      </c>
+      <c r="F235" s="21">
+        <f t="shared" si="22"/>
+        <v>4.3575733430345487E-4</v>
+      </c>
+      <c r="G235">
+        <v>1.10316348515197</v>
+      </c>
+      <c r="H235">
+        <v>1.08507884</v>
+      </c>
+      <c r="I235">
+        <v>1.1393327799999999</v>
+      </c>
+      <c r="J235">
+        <v>1.08507884</v>
+      </c>
+      <c r="K235" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L235">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M235" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>0.30730064799423101</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1000</v>
+      </c>
+      <c r="B236" s="1">
+        <v>0.97891659343794302</v>
+      </c>
+      <c r="C236" s="1">
+        <v>4.0099214797694903E-3</v>
+      </c>
+      <c r="D236" s="15"/>
+      <c r="E236" s="15">
+        <v>20</v>
+      </c>
+      <c r="F236" s="23">
+        <f t="shared" si="22"/>
+        <v>4.7758145274259256E-3</v>
+      </c>
+      <c r="G236">
+        <v>1.1133123301401999</v>
+      </c>
+      <c r="H236">
+        <v>1.1145179000000001</v>
+      </c>
+      <c r="I236">
+        <v>1.13296949</v>
+      </c>
+      <c r="J236">
+        <v>1.0924495999999999</v>
+      </c>
+      <c r="K236" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L236">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M236" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>1.4087879625422837</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>2000</v>
+      </c>
+      <c r="B237" s="1">
+        <v>0.96754814632254404</v>
+      </c>
+      <c r="C237" s="1">
+        <v>3.3564970231109801E-3</v>
+      </c>
+      <c r="D237" s="15"/>
+      <c r="E237" s="15">
+        <v>20</v>
+      </c>
+      <c r="F237" s="23">
+        <f t="shared" si="22"/>
+        <v>-6.8929433492492809E-3</v>
+      </c>
+      <c r="G237">
+        <v>0.92873605472418796</v>
+      </c>
+      <c r="H237">
+        <v>0.91709686000000001</v>
+      </c>
+      <c r="I237">
+        <v>0.95102695999999998</v>
+      </c>
+      <c r="J237">
+        <v>0.91808434999999999</v>
+      </c>
+      <c r="K237" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L237">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M237" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>-1.7039544395779038</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>3000</v>
+      </c>
+      <c r="B238" s="1">
+        <v>0.97267008325387505</v>
+      </c>
+      <c r="C238" s="1">
+        <v>2.51907446833882E-3</v>
+      </c>
+      <c r="D238" s="15"/>
+      <c r="E238" s="15">
+        <v>20</v>
+      </c>
+      <c r="F238" s="23">
+        <f t="shared" si="22"/>
+        <v>-1.6357044929110609E-3</v>
+      </c>
+      <c r="G238">
+        <v>1.0084005377335501</v>
+      </c>
+      <c r="H238">
+        <v>1.0414628500000001</v>
+      </c>
+      <c r="I238">
+        <v>0.99186938000000002</v>
+      </c>
+      <c r="J238">
+        <v>0.99186938000000002</v>
+      </c>
+      <c r="K238" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L238">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M238" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>-0.23714307779988086</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>5000</v>
+      </c>
+      <c r="B239" s="1">
+        <v>0.97160071871703002</v>
+      </c>
+      <c r="C239" s="1">
+        <v>1.9544728371047901E-3</v>
+      </c>
+      <c r="D239" s="15"/>
+      <c r="E239" s="15">
+        <v>20</v>
+      </c>
+      <c r="F239" s="23">
+        <f t="shared" si="22"/>
+        <v>-2.7333175385348962E-3</v>
+      </c>
+      <c r="G239">
+        <v>0.94865499547389498</v>
+      </c>
+      <c r="H239">
+        <v>0.93843957</v>
+      </c>
+      <c r="I239">
+        <v>0.95209728000000005</v>
+      </c>
+      <c r="J239">
+        <v>0.95542813999999998</v>
+      </c>
+      <c r="K239" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L239">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M239" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>-0.85278525126140337</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>7000</v>
+      </c>
+      <c r="B240" s="1">
+        <v>0.97612852099638903</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1.52240246336817E-3</v>
+      </c>
+      <c r="D240" s="15"/>
+      <c r="E240" s="15">
+        <v>20</v>
+      </c>
+      <c r="F240" s="21">
+        <f>B240/B$5-1</f>
+        <v>1.9140919075391061E-3</v>
+      </c>
+      <c r="G240">
+        <v>1.0784913888436201</v>
+      </c>
+      <c r="H240">
+        <v>1.0641694799999999</v>
+      </c>
+      <c r="I240">
+        <v>1.1056443</v>
+      </c>
+      <c r="J240">
+        <v>1.0656603899999999</v>
+      </c>
+      <c r="K240" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L240">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M240" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>1.8793037575328109</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>8000</v>
+      </c>
+      <c r="B241" s="1">
+        <v>0.97462985071487296</v>
+      </c>
+      <c r="C241" s="1">
+        <v>1.47780303234547E-3</v>
+      </c>
+      <c r="D241" s="15"/>
+      <c r="E241" s="15">
+        <v>20</v>
+      </c>
+      <c r="F241" s="21">
+        <f>B241/B$5-1</f>
+        <v>3.7583250636785692E-4</v>
+      </c>
+      <c r="G241">
+        <v>1.0878918523082799</v>
+      </c>
+      <c r="H241">
+        <v>1.07403223</v>
+      </c>
+      <c r="I241">
+        <v>1.1127658600000001</v>
+      </c>
+      <c r="J241">
+        <v>1.07687746</v>
+      </c>
+      <c r="K241" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L241">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M241" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>0.92189984629186539</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>9000</v>
+      </c>
+      <c r="B242" s="1">
+        <v>0.97439023942940295</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1.3981512838358099E-3</v>
+      </c>
+      <c r="D242" s="15"/>
+      <c r="E242" s="15">
+        <v>20</v>
+      </c>
+      <c r="F242" s="21">
+        <f>B242/B$5-1</f>
+        <v>1.2989160992993298E-4</v>
+      </c>
+      <c r="G242">
+        <v>1.0637414407197501</v>
+      </c>
+      <c r="H242">
+        <v>1.05572512</v>
+      </c>
+      <c r="I242">
+        <v>1.08174974</v>
+      </c>
+      <c r="J242">
+        <v>1.0537494599999999</v>
+      </c>
+      <c r="K242" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L242">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M242" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>0.8030426434388509</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>10000</v>
+      </c>
+      <c r="B243" s="1">
+        <v>0.972634040637954</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1.3792076766175E-3</v>
+      </c>
+      <c r="D243" s="15"/>
+      <c r="E243" s="15">
+        <v>20</v>
+      </c>
+      <c r="F243" s="9">
+        <f t="shared" ref="F243:F244" si="23">B243/B$5-1</f>
+        <v>-1.6726992164783905E-3</v>
+      </c>
+      <c r="G243">
+        <v>1.1036447157967699</v>
+      </c>
+      <c r="H243">
+        <v>1.08576563</v>
+      </c>
+      <c r="I243">
+        <v>1.13966926</v>
+      </c>
+      <c r="J243">
+        <v>1.08549926</v>
+      </c>
+      <c r="K243" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L243">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M243" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>-0.45926635943869243</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>20000</v>
+      </c>
+      <c r="B244" s="1">
+        <v>0.97378125659533799</v>
+      </c>
+      <c r="C244" s="1">
+        <v>9.6727936931309902E-4</v>
+      </c>
+      <c r="D244" s="15"/>
+      <c r="E244" s="15">
+        <v>20</v>
+      </c>
+      <c r="F244" s="21">
+        <f t="shared" si="23"/>
+        <v>-4.9517821443767485E-4</v>
+      </c>
+      <c r="G244">
+        <v>1.0963796279126701</v>
+      </c>
+      <c r="H244">
+        <v>1.0908777300000001</v>
+      </c>
+      <c r="I244">
+        <v>1.1128291800000001</v>
+      </c>
+      <c r="J244">
+        <v>1.0854319699999999</v>
+      </c>
+      <c r="K244" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L244">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M244" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>0.53117257033904375</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>30000</v>
+      </c>
+      <c r="B245" s="1">
+        <v>0.974199460870523</v>
+      </c>
+      <c r="C245" s="1">
+        <v>7.7669906616381602E-4</v>
+      </c>
+      <c r="D245" s="15"/>
+      <c r="E245" s="15">
+        <v>20</v>
+      </c>
+      <c r="F245" s="21">
+        <f>B245/B$5-1</f>
+        <v>-6.5926586612974347E-5</v>
+      </c>
+      <c r="G245">
+        <v>1.0922866585598101</v>
+      </c>
+      <c r="H245">
+        <v>1.07815846</v>
+      </c>
+      <c r="I245">
+        <v>1.1099469099999999</v>
+      </c>
+      <c r="J245">
+        <v>1.0887546100000001</v>
+      </c>
+      <c r="K245" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L245">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M245" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>1.1999454932039493</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>40000</v>
+      </c>
+      <c r="B246" s="1">
+        <v>0.97234407008623602</v>
+      </c>
+      <c r="C246" s="1">
+        <v>7.0650682818022403E-4</v>
+      </c>
+      <c r="D246" s="15"/>
+      <c r="E246" s="15">
+        <v>20</v>
+      </c>
+      <c r="F246" s="21">
+        <f>B246/B$5-1</f>
+        <v>-1.9703296777908719E-3</v>
+      </c>
+      <c r="G246">
+        <v>1.0549978983847801</v>
+      </c>
+      <c r="H246">
+        <v>1.0480488100000001</v>
+      </c>
+      <c r="I246">
+        <v>1.0733032600000001</v>
+      </c>
+      <c r="J246">
+        <v>1.04364163</v>
+      </c>
+      <c r="K246" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L246">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M246" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>-1.3069855851873575</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>60000</v>
+      </c>
+      <c r="B247" s="1">
+        <v>0.97215806362563195</v>
+      </c>
+      <c r="C247" s="24">
+        <v>5.79752614690079E-4</v>
+      </c>
+      <c r="D247" s="15"/>
+      <c r="E247" s="15">
+        <v>20</v>
+      </c>
+      <c r="F247" s="22">
+        <f>B247/B$5-1</f>
+        <v>-2.161249715528224E-3</v>
+      </c>
+      <c r="G247">
+        <v>1.0493053241535</v>
+      </c>
+      <c r="H247">
+        <v>1.04121321</v>
+      </c>
+      <c r="I247">
+        <v>1.06901651</v>
+      </c>
+      <c r="J247">
+        <v>1.0376862499999999</v>
+      </c>
+      <c r="K247" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L247">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M247" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>-1.9135760197737488</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>70000</v>
+      </c>
+      <c r="B248" s="1">
+        <v>0.97256866184810697</v>
+      </c>
+      <c r="C248" s="24">
+        <v>5.3117779113690596E-4</v>
+      </c>
+      <c r="D248" s="15"/>
+      <c r="E248" s="15">
+        <v>20</v>
+      </c>
+      <c r="F248" s="22">
+        <f>B248/B$5-1</f>
+        <v>-1.739805063147859E-3</v>
+      </c>
+      <c r="G248">
+        <v>1.04805033853489</v>
+      </c>
+      <c r="H248">
+        <v>1.04420446</v>
+      </c>
+      <c r="I248">
+        <v>1.06857801</v>
+      </c>
+      <c r="J248">
+        <v>1.0313685399999999</v>
+      </c>
+      <c r="K248" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L248">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M248" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>-1.3155717163952982</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>80000</v>
+      </c>
+      <c r="B249" s="1">
+        <v>0.97285065629054002</v>
+      </c>
+      <c r="C249" s="24">
+        <v>4.9806844688671801E-4</v>
+      </c>
+      <c r="D249" s="15"/>
+      <c r="E249" s="15">
+        <v>20</v>
+      </c>
+      <c r="F249" s="22">
+        <f>B249/B$5-1</f>
+        <v>-1.4503614093296369E-3</v>
+      </c>
+      <c r="G249">
+        <v>1.0785408377810599</v>
+      </c>
+      <c r="H249">
+        <v>1.0706824800000001</v>
+      </c>
+      <c r="I249">
+        <v>1.10433176</v>
+      </c>
+      <c r="J249">
+        <v>1.0606082800000001</v>
+      </c>
+      <c r="K249" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L249">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M249" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>-0.83684890815579049</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>90000</v>
+      </c>
+      <c r="B250" s="1">
+        <v>0.97398483701930805</v>
+      </c>
+      <c r="C250" s="24">
+        <v>4.5871639258491999E-4</v>
+      </c>
+      <c r="D250" s="15"/>
+      <c r="E250" s="15">
+        <v>20</v>
+      </c>
+      <c r="F250" s="22">
+        <f>B250/B$5-1</f>
+        <v>-2.8621997663935694E-4</v>
+      </c>
+      <c r="G250">
+        <v>1.0865785018196701</v>
+      </c>
+      <c r="H250">
+        <v>1.0833461900000001</v>
+      </c>
+      <c r="I250">
+        <v>1.09927054</v>
+      </c>
+      <c r="J250">
+        <v>1.0771187799999999</v>
+      </c>
+      <c r="K250" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L250">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M250" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>1.5638697556927321</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>100000</v>
+      </c>
+      <c r="B251" s="1">
+        <v>0.97261275469606201</v>
+      </c>
+      <c r="C251" s="24">
+        <v>4.4868113413586001E-4</v>
+      </c>
+      <c r="D251" s="15"/>
+      <c r="E251" s="15">
+        <v>20</v>
+      </c>
+      <c r="F251" s="22">
+        <f>B251/B$5-1</f>
+        <v>-1.6945474512982672E-3</v>
+      </c>
+      <c r="G251">
+        <v>1.04068526668376</v>
+      </c>
+      <c r="H251">
+        <v>1.03471326</v>
+      </c>
+      <c r="I251">
+        <v>1.06496455</v>
+      </c>
+      <c r="J251">
+        <v>1.022378</v>
+      </c>
+      <c r="K251" t="e">
+        <f>Table47912[[#This Row],[N]]*Table47912[[#This Row],[interation]]/Table47912[[#This Row],[time /s]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L251" s="5">
+        <f>Table47912[[#This Row],[time /s]]/3600</f>
+        <v>0</v>
+      </c>
+      <c r="M251" s="31">
+        <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
+        <v>-1.4591868938348593</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A255" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="5" t="s">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A256" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="5" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="5" t="s">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>57</v>
       </c>
-      <c r="B200">
+      <c r="B261">
         <v>7062</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C201" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C262" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>66</v>
       </c>
-      <c r="B202">
+      <c r="B263">
         <v>-12</v>
       </c>
-      <c r="C202" s="14">
-        <f>B202/B$200</f>
+      <c r="C263" s="14">
+        <f>B263/B$261</f>
         <v>-1.6992353440951572E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B203">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B264">
         <v>-23</v>
       </c>
-      <c r="C203" s="14">
-        <f t="shared" ref="C203:C221" si="18">B203/B$200</f>
+      <c r="C264" s="14">
+        <f t="shared" ref="C264:C282" si="24">B264/B$261</f>
         <v>-3.2568677428490515E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B204">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B265">
         <v>39</v>
       </c>
-      <c r="C204" s="14">
-        <f t="shared" si="18"/>
+      <c r="C265" s="14">
+        <f t="shared" si="24"/>
         <v>5.5225148683092605E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B205">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B266">
         <v>-5</v>
       </c>
-      <c r="C205" s="14">
-        <f t="shared" si="18"/>
+      <c r="C266" s="14">
+        <f t="shared" si="24"/>
         <v>-7.0801472670631554E-4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B206">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B267">
         <v>8</v>
       </c>
-      <c r="C206" s="14">
-        <f t="shared" si="18"/>
+      <c r="C267" s="14">
+        <f t="shared" si="24"/>
         <v>1.1328235627301047E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B207">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B268">
         <v>3</v>
       </c>
-      <c r="C207" s="14">
-        <f t="shared" si="18"/>
+      <c r="C268" s="14">
+        <f t="shared" si="24"/>
         <v>4.248088360237893E-4</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B208">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B269">
         <v>-10</v>
       </c>
-      <c r="C208" s="14">
-        <f t="shared" si="18"/>
+      <c r="C269" s="14">
+        <f t="shared" si="24"/>
         <v>-1.4160294534126311E-3</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B209">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B270">
         <v>-14</v>
       </c>
-      <c r="C209" s="14">
-        <f t="shared" si="18"/>
+      <c r="C270" s="14">
+        <f t="shared" si="24"/>
         <v>-1.9824412347776836E-3</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B210">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B271">
         <v>0</v>
       </c>
-      <c r="C210" s="14">
-        <f t="shared" si="18"/>
+      <c r="C271" s="14">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B211">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B272">
         <v>7</v>
       </c>
-      <c r="C211" s="14">
-        <f t="shared" si="18"/>
+      <c r="C272" s="14">
+        <f t="shared" si="24"/>
         <v>9.9122061738884178E-4</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B212">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B273">
         <v>0</v>
       </c>
-      <c r="C212" s="14">
-        <f t="shared" si="18"/>
+      <c r="C273" s="14">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B213">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B274">
         <v>-15</v>
       </c>
-      <c r="C213" s="14">
-        <f t="shared" si="18"/>
+      <c r="C274" s="14">
+        <f t="shared" si="24"/>
         <v>-2.1240441801189465E-3</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B214">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B275">
         <v>-13</v>
       </c>
-      <c r="C214" s="14">
-        <f t="shared" si="18"/>
+      <c r="C275" s="14">
+        <f t="shared" si="24"/>
         <v>-1.8408382894364204E-3</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B215">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B276">
         <v>14</v>
       </c>
-      <c r="C215" s="14">
-        <f t="shared" si="18"/>
+      <c r="C276" s="14">
+        <f t="shared" si="24"/>
         <v>1.9824412347776836E-3</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B216">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B277">
         <v>8</v>
       </c>
-      <c r="C216" s="14">
-        <f t="shared" si="18"/>
+      <c r="C277" s="14">
+        <f t="shared" si="24"/>
         <v>1.1328235627301047E-3</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B217">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B278">
         <v>34</v>
       </c>
-      <c r="C217" s="14">
-        <f t="shared" si="18"/>
+      <c r="C278" s="14">
+        <f t="shared" si="24"/>
         <v>4.8145001416029457E-3</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B218">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B279">
         <v>-4</v>
       </c>
-      <c r="C218" s="14">
-        <f t="shared" si="18"/>
+      <c r="C279" s="14">
+        <f t="shared" si="24"/>
         <v>-5.6641178136505237E-4</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B219">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B280">
         <v>-4</v>
       </c>
-      <c r="C219" s="14">
-        <f t="shared" si="18"/>
+      <c r="C280" s="14">
+        <f t="shared" si="24"/>
         <v>-5.6641178136505237E-4</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B220">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B281">
         <v>6</v>
       </c>
-      <c r="C220" s="14">
-        <f t="shared" si="18"/>
+      <c r="C281" s="14">
+        <f t="shared" si="24"/>
         <v>8.4961767204757861E-4</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B221">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B282">
         <v>0</v>
       </c>
-      <c r="C221" s="14">
-        <f t="shared" si="18"/>
+      <c r="C282" s="14">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C223" s="14">
-        <f>AVERAGE(C202:C221)</f>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C284" s="14">
+        <f>AVERAGE(C263:C282)</f>
         <v>1.3452279807419997E-4</v>
       </c>
     </row>
@@ -14620,7 +17134,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="8">
+  <tableParts count="10">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -14629,6 +17143,8 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tdcrpy/validation/validationCo-60_v2.xlsx
+++ b/tdcrpy/validation/validationCo-60_v2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8677CC-9097-4C81-8A3F-B88509994D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7489A3AB-A347-482E-803D-A529659634D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
     <sheet name="Free_paramter correlation" sheetId="4" r:id="rId2"/>
     <sheet name="Tables" sheetId="1" r:id="rId3"/>
     <sheet name="Feuil1" sheetId="5" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="100">
   <si>
     <t>Reference Co-60 (NIST)</t>
   </si>
@@ -253,17 +254,105 @@
   <si>
     <t>Version 1.1.6</t>
   </si>
+  <si>
+    <t>V1 symetrical</t>
+  </si>
+  <si>
+    <t>v2 asym</t>
+  </si>
+  <si>
+    <t>ueff</t>
+  </si>
+  <si>
+    <t>Symetrical</t>
+  </si>
+  <si>
+    <t>kB</t>
+  </si>
+  <si>
+    <t>eff sym</t>
+  </si>
+  <si>
+    <t>eff asym</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>(1.2245028526119592, 1.2245028526119592, 1.2245028526119592)</t>
+  </si>
+  <si>
+    <t>sym</t>
+  </si>
+  <si>
+    <t>kB 0.01</t>
+  </si>
+  <si>
+    <t>N 10000</t>
+  </si>
+  <si>
+    <t>[1.08597453 1.12394721 1.10253238]</t>
+  </si>
+  <si>
+    <t>asym</t>
+  </si>
+  <si>
+    <t>N 50000</t>
+  </si>
+  <si>
+    <t>[1.19572072 1.21807153 1.19312392]</t>
+  </si>
+  <si>
+    <t>(1.1406209586312994, 1.1406209586312994, 1.1406209586312994)</t>
+  </si>
+  <si>
+    <t>[1.16773877 1.19697535 1.16228331]</t>
+  </si>
+  <si>
+    <t>(1.1829166848458894, 1.1829166848458894, 1.1829166848458894)</t>
+  </si>
+  <si>
+    <t>kB 0.008</t>
+  </si>
+  <si>
+    <t>(1.0392221879042352, 1.0392221879042352, 1.0392221879042352)</t>
+  </si>
+  <si>
+    <t>kB = 0.008</t>
+  </si>
+  <si>
+    <t>[1.11221506 1.14087995 1.10231884]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asym </t>
+  </si>
+  <si>
+    <t>kB = 0.012</t>
+  </si>
+  <si>
+    <t>[1.24102059 1.27365046 1.22951792]</t>
+  </si>
+  <si>
+    <t>(1.1114338167459779, 1.1114338167459779, 1.1114338167459779)</t>
+  </si>
+  <si>
+    <t>[1.11598133 1.15394524 1.11935089]</t>
+  </si>
+  <si>
+    <t>[1.17059503 1.19567784 1.16361699]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -416,7 +505,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -433,6 +521,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,7 +1019,7 @@
             <c:v>symmetrical model</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="19050">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -1117,77 +1206,65 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Tables!$A$131:$A$154</c:f>
+              <c:f>Feuil1!$A$12:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>800</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1195,78 +1272,66 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tables!$B$131:$B$154</c:f>
+              <c:f>Feuil1!$B$12:$B$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.94934267475711298</c:v>
+                  <c:v>0.97140316539775595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97957331328959696</c:v>
+                  <c:v>0.97075401112749304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96595199848387403</c:v>
+                  <c:v>0.97498556163389205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95785877364049798</c:v>
+                  <c:v>0.970045219378184</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95501693276030197</c:v>
+                  <c:v>0.980185355239793</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97723951981593304</c:v>
+                  <c:v>0.97510731060224398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97354384236607105</c:v>
+                  <c:v>0.97255782318272999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96363739083850497</c:v>
+                  <c:v>0.97184209602948401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97039664451421803</c:v>
+                  <c:v>0.97259679513310604</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96813885456906201</c:v>
+                  <c:v>0.97247281917443795</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97103187144924497</c:v>
+                  <c:v>0.97167722862393502</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96818437938268498</c:v>
+                  <c:v>0.97386147249556498</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97174668033061695</c:v>
+                  <c:v>0.97315076202509598</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96955095523422397</c:v>
+                  <c:v>0.97377929877157499</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.96526124268628899</c:v>
+                  <c:v>0.97310247690642304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96980874840673903</c:v>
+                  <c:v>0.97398609166737704</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.96986334163071097</c:v>
+                  <c:v>0.97407928076459804</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.96914501415389298</c:v>
+                  <c:v>0.97302268324139396</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97008775787077695</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.96958918982659903</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.96923880872934498</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.97035523854055095</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.96983619955914702</c:v>
+                  <c:v>0.97250727618427102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1285,11 +1350,9 @@
             <c:v>asymmetrical model</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050">
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -1488,7 +1551,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Tables!$A$162:$A$185</c:f>
+              <c:f>Feuil1!$A$38:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1569,7 +1632,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tables!$B$162:$B$185</c:f>
+              <c:f>Feuil1!$B$38:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1935,73 +1998,73 @@
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97078358735225145</c:v>
+                  <c:v>0.97322773068076551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2939,9 +3002,9 @@
       <c:valAx>
         <c:axId val="377683408"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="50"/>
+          <c:max val="11000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9432,7 +9495,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F388A5FC-AE15-4458-B3E9-16AF6815805A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0"/>
+    <sheetView zoomScale="60" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9443,7 +9506,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{18989E30-B0EA-429F-B87A-6F4A60F8F2EB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9454,7 +9517,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="7442200" cy="4876800"/>
+    <xdr:ext cx="9302750" cy="6096000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9487,7 +9550,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="7445829" cy="4876800"/>
+    <xdr:ext cx="9299222" cy="6088944"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10245,8 +10308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P284"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131:G153"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10322,7 +10385,7 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="33">
         <f>E3</f>
         <v>0.9742636907501151</v>
       </c>
@@ -10349,6 +10412,15 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <f>I3*B5</f>
+        <v>3.1730479874331137E-4</v>
+      </c>
+    </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>17</v>
@@ -10868,7 +10940,7 @@
       <c r="A29">
         <v>9000</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <v>0.97432484706725697</v>
       </c>
       <c r="C29" s="1">
@@ -11041,22 +11113,22 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11070,7 +11142,7 @@
       <c r="C46" s="9">
         <v>0</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="26">
         <v>5.2425560000000004</v>
       </c>
       <c r="E46" s="9">
@@ -11091,7 +11163,7 @@
       <c r="C47" s="11">
         <v>5.2350578762301402E-5</v>
       </c>
-      <c r="D47" s="28">
+      <c r="D47" s="27">
         <v>11.377882</v>
       </c>
       <c r="E47" s="11">
@@ -11112,7 +11184,7 @@
       <c r="C48" s="9">
         <v>1.7151998059231201E-2</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="26">
         <v>28.254159999999999</v>
       </c>
       <c r="E48" s="9">
@@ -11133,7 +11205,7 @@
       <c r="C49" s="11">
         <v>1.3704898814054099E-3</v>
       </c>
-      <c r="D49" s="28">
+      <c r="D49" s="27">
         <v>55.383166000000003</v>
       </c>
       <c r="E49" s="11">
@@ -11199,7 +11271,7 @@
       <c r="D52" s="15">
         <v>1751.653804</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="20">
         <f t="shared" si="2"/>
         <v>-2.7516285093787118E-6</v>
       </c>
@@ -11220,7 +11292,7 @@
       <c r="D53" s="15">
         <v>2804.289049</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="20">
         <f t="shared" si="2"/>
         <v>-7.1770950027683078E-4</v>
       </c>
@@ -11241,7 +11313,7 @@
       <c r="D54" s="15">
         <v>5691.679948</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="20">
         <f t="shared" si="2"/>
         <v>5.03912470422474E-4</v>
       </c>
@@ -11252,22 +11324,22 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="E55" s="21"/>
+      <c r="E55" s="20"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="E56" s="21"/>
+      <c r="E56" s="20"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="E57" s="21"/>
+      <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="E58" s="21"/>
+      <c r="E58" s="20"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -11287,28 +11359,28 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G62" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="20" t="s">
+      <c r="H62" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11322,7 +11394,7 @@
       <c r="C63" s="9">
         <v>9.0054235389743999E-8</v>
       </c>
-      <c r="D63" s="27">
+      <c r="D63" s="26">
         <v>5.4687739999999998</v>
       </c>
       <c r="E63" s="9">
@@ -11351,7 +11423,7 @@
       <c r="C64" s="11">
         <v>2.3457292431222801E-3</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D64" s="27">
         <v>11.343603</v>
       </c>
       <c r="E64" s="11">
@@ -11380,7 +11452,7 @@
       <c r="C65" s="9">
         <v>8.8425708328747996E-3</v>
       </c>
-      <c r="D65" s="27">
+      <c r="D65" s="26">
         <v>28.603586</v>
       </c>
       <c r="E65" s="9">
@@ -11409,7 +11481,7 @@
       <c r="C66" s="11">
         <v>9.45806051909002E-3</v>
       </c>
-      <c r="D66" s="28">
+      <c r="D66" s="27">
         <v>55.921340999999998</v>
       </c>
       <c r="E66" s="11">
@@ -11470,7 +11542,7 @@
       <c r="D68" s="15">
         <v>1113.903869</v>
       </c>
-      <c r="E68" s="21">
+      <c r="E68" s="20">
         <f t="shared" si="3"/>
         <v>2.1163970037640922E-4</v>
       </c>
@@ -11499,7 +11571,7 @@
       <c r="D69" s="15">
         <v>1702.973512</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E69" s="20">
         <f t="shared" si="3"/>
         <v>-5.709510962779718E-3</v>
       </c>
@@ -11528,7 +11600,7 @@
       <c r="D70" s="15">
         <v>2867.006691</v>
       </c>
-      <c r="E70" s="21">
+      <c r="E70" s="20">
         <f t="shared" si="3"/>
         <v>-4.9911984637518447E-4</v>
       </c>
@@ -11557,7 +11629,7 @@
       <c r="D71" s="15">
         <v>5732.1051889999999</v>
       </c>
-      <c r="E71" s="21">
+      <c r="E71" s="20">
         <f t="shared" si="3"/>
         <v>-1.2855328266178079E-3</v>
       </c>
@@ -11646,7 +11718,7 @@
       <c r="D77" s="15">
         <v>5012.1046740000002</v>
       </c>
-      <c r="E77" s="21">
+      <c r="E77" s="20">
         <f>B77/B$5-1</f>
         <v>-5.9119318066995774E-3</v>
       </c>
@@ -11666,16 +11738,16 @@
       <c r="A78" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B78" s="24">
+      <c r="B78" s="23">
         <v>0.97255643046974405</v>
       </c>
-      <c r="C78" s="24">
+      <c r="C78" s="23">
         <v>1.38806657060112E-3</v>
       </c>
-      <c r="D78" s="26">
+      <c r="D78" s="25">
         <v>3161.9371609999998</v>
       </c>
-      <c r="E78" s="22">
+      <c r="E78" s="21">
         <f>B78/B$5-1</f>
         <v>-1.7523595476052201E-3</v>
       </c>
@@ -11712,7 +11784,7 @@
       <c r="E82" t="s">
         <v>31</v>
       </c>
-      <c r="H82" s="25">
+      <c r="H82" s="24">
         <f>AVERAGE(H86:H96)</f>
         <v>3.5297902205180307</v>
       </c>
@@ -11730,7 +11802,7 @@
       <c r="F83">
         <v>20</v>
       </c>
-      <c r="H83" s="25">
+      <c r="H83" s="24">
         <f>_xlfn.STDEV.S(H86:H96)</f>
         <v>7.1019712816277225E-2</v>
       </c>
@@ -11801,7 +11873,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>1.5922342222222222E-2</v>
       </c>
-      <c r="J86" s="30">
+      <c r="J86" s="29">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>264.1616381091838</v>
       </c>
@@ -11826,7 +11898,7 @@
       <c r="E87">
         <v>20</v>
       </c>
-      <c r="F87" s="21">
+      <c r="F87" s="20">
         <f t="shared" si="4"/>
         <v>2.641516340979666E-2</v>
       </c>
@@ -11841,7 +11913,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>3.1126325833333333E-2</v>
       </c>
-      <c r="J87" s="30">
+      <c r="J87" s="29">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>264.14100767231861</v>
       </c>
@@ -11866,7 +11938,7 @@
       <c r="E88" s="15">
         <v>20</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F88" s="20">
         <f t="shared" si="4"/>
         <v>1.0086834895826513E-2</v>
       </c>
@@ -11881,7 +11953,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>8.2740062499999989E-2</v>
       </c>
-      <c r="J88" s="30">
+      <c r="J88" s="29">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.64063705779426539</v>
       </c>
@@ -11906,7 +11978,7 @@
       <c r="E89" s="15">
         <v>20</v>
       </c>
-      <c r="F89" s="23">
+      <c r="F89" s="22">
         <f t="shared" si="4"/>
         <v>2.4803513801217925E-2</v>
       </c>
@@ -11921,7 +11993,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>0.16039078722222222</v>
       </c>
-      <c r="J89" s="30">
+      <c r="J89" s="29">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>17.103753411899092</v>
       </c>
@@ -11946,7 +12018,7 @@
       <c r="E90" s="15">
         <v>20</v>
       </c>
-      <c r="F90" s="21">
+      <c r="F90" s="20">
         <f>B90/B$5-1</f>
         <v>-8.4571277402705203E-3</v>
       </c>
@@ -11961,7 +12033,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>0.30786678333333334</v>
       </c>
-      <c r="J90" s="31">
+      <c r="J90" s="30">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.75321157251008963</v>
       </c>
@@ -11986,7 +12058,7 @@
       <c r="E91" s="15">
         <v>20</v>
       </c>
-      <c r="F91" s="21">
+      <c r="F91" s="20">
         <f>B91/B$5-1</f>
         <v>3.1588643726960797E-3</v>
       </c>
@@ -12001,7 +12073,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>0.7801351319444445</v>
       </c>
-      <c r="J91" s="31">
+      <c r="J91" s="30">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.59052928593604526</v>
       </c>
@@ -12026,7 +12098,7 @@
       <c r="E92" s="15">
         <v>20</v>
       </c>
-      <c r="F92" s="21">
+      <c r="F92" s="20">
         <f>B92/B$5-1</f>
         <v>-6.6751958759777574E-3</v>
       </c>
@@ -12041,7 +12113,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>1.2436036622222224</v>
       </c>
-      <c r="J92" s="31">
+      <c r="J92" s="30">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>1.3579392458518909</v>
       </c>
@@ -12066,7 +12138,7 @@
       <c r="E93" s="15">
         <v>20</v>
       </c>
-      <c r="F93" s="23">
+      <c r="F93" s="22">
         <f t="shared" si="4"/>
         <v>1.5252236546050568E-3</v>
       </c>
@@ -12081,7 +12153,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>1.5612693875000001</v>
       </c>
-      <c r="J93" s="31">
+      <c r="J93" s="30">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.36847538800239804</v>
       </c>
@@ -12106,7 +12178,7 @@
       <c r="E94" s="15">
         <v>20</v>
       </c>
-      <c r="F94" s="23">
+      <c r="F94" s="22">
         <f t="shared" si="4"/>
         <v>1.9788946761503112E-3</v>
       </c>
@@ -12121,7 +12193,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>3.1180658544444446</v>
       </c>
-      <c r="J94" s="31">
+      <c r="J94" s="30">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.69778375218106037</v>
       </c>
@@ -12146,7 +12218,7 @@
       <c r="E95" s="15">
         <v>20</v>
       </c>
-      <c r="F95" s="23">
+      <c r="F95" s="22">
         <f>B95/B$5-1</f>
         <v>-1.5060003984510573E-3</v>
       </c>
@@ -12161,7 +12233,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>4.6683338922222228</v>
       </c>
-      <c r="J95" s="31">
+      <c r="J95" s="30">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.59053942442003371</v>
       </c>
@@ -12186,7 +12258,7 @@
       <c r="E96" s="15">
         <v>20</v>
       </c>
-      <c r="F96" s="23">
+      <c r="F96" s="22">
         <f t="shared" si="4"/>
         <v>-3.5479984062422032E-3</v>
       </c>
@@ -12201,7 +12273,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>7.9086299905555553</v>
       </c>
-      <c r="J96" s="31">
+      <c r="J96" s="30">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>1.7480593605447583</v>
       </c>
@@ -12226,7 +12298,7 @@
       <c r="E97" s="15">
         <v>17</v>
       </c>
-      <c r="F97" s="23">
+      <c r="F97" s="22">
         <f t="shared" si="4"/>
         <v>-1.4620703139202051E-3</v>
       </c>
@@ -12241,7 +12313,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>15.617344490000001</v>
       </c>
-      <c r="J97" s="31">
+      <c r="J97" s="30">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>1.0691180241689571</v>
       </c>
@@ -12266,7 +12338,7 @@
       <c r="E98" s="15">
         <v>20</v>
       </c>
-      <c r="F98" s="21">
+      <c r="F98" s="20">
         <f>B98/B$5-1</f>
         <v>1.6324937678890983E-4</v>
       </c>
@@ -12281,7 +12353,7 @@
         <f>Table4[[#This Row],[time /s]]/3600</f>
         <v>31.092622802499999</v>
       </c>
-      <c r="J98" s="31">
+      <c r="J98" s="30">
         <f>ABS(Table4[[#This Row],[error]])/Table4[[#This Row],[std]]</f>
         <v>0.17010334657209036</v>
       </c>
@@ -12295,12 +12367,12 @@
         <v>50000</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="24"/>
+      <c r="C99" s="23"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
-      <c r="F99" s="22"/>
+      <c r="F99" s="21"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="31"/>
+      <c r="J99" s="30"/>
       <c r="K99" s="14">
         <v>0.97430000000000005</v>
       </c>
@@ -12326,7 +12398,7 @@
       <c r="E104" t="s">
         <v>33</v>
       </c>
-      <c r="H104" s="25">
+      <c r="H104" s="24">
         <f>AVERAGE(K108:K118)*3</f>
         <v>3.4033226295919339</v>
       </c>
@@ -12344,7 +12416,7 @@
       <c r="F105">
         <v>20</v>
       </c>
-      <c r="H105" s="25">
+      <c r="H105" s="24">
         <f>_xlfn.STDEV.S(K108:K118)</f>
         <v>4.6098267241727206E-2</v>
       </c>
@@ -12433,7 +12505,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>4.891553972222222E-2</v>
       </c>
-      <c r="M108" s="30">
+      <c r="M108" s="29">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>0.80348637294937952</v>
       </c>
@@ -12458,7 +12530,7 @@
       <c r="E109">
         <v>20</v>
       </c>
-      <c r="F109" s="21">
+      <c r="F109" s="20">
         <f t="shared" si="6"/>
         <v>2.6395396276458039E-2</v>
       </c>
@@ -12482,7 +12554,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>9.6833791944444442E-2</v>
       </c>
-      <c r="M109" s="30">
+      <c r="M109" s="29">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>261.5557744330913</v>
       </c>
@@ -12507,7 +12579,7 @@
       <c r="E110" s="15">
         <v>20</v>
       </c>
-      <c r="F110" s="21">
+      <c r="F110" s="20">
         <f t="shared" si="6"/>
         <v>2.6246014947354013E-2</v>
       </c>
@@ -12531,7 +12603,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>0.25766752138888888</v>
       </c>
-      <c r="M110" s="30">
+      <c r="M110" s="29">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>172.34984397420689</v>
       </c>
@@ -12556,7 +12628,7 @@
       <c r="E111" s="15">
         <v>20</v>
       </c>
-      <c r="F111" s="23">
+      <c r="F111" s="22">
         <f t="shared" si="6"/>
         <v>-3.9419172208513542E-3</v>
       </c>
@@ -12580,7 +12652,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>0.5088818094444445</v>
       </c>
-      <c r="M111" s="31">
+      <c r="M111" s="30">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>0.26890985735689038</v>
       </c>
@@ -12605,7 +12677,7 @@
       <c r="E112" s="15">
         <v>20</v>
       </c>
-      <c r="F112" s="21">
+      <c r="F112" s="20">
         <f t="shared" si="6"/>
         <v>-2.3538411896939504E-4</v>
       </c>
@@ -12629,7 +12701,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>1.0197733841666665</v>
       </c>
-      <c r="M112" s="31">
+      <c r="M112" s="30">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>2.4233900362220711E-2</v>
       </c>
@@ -12654,7 +12726,7 @@
       <c r="E113" s="15">
         <v>20</v>
       </c>
-      <c r="F113" s="21">
+      <c r="F113" s="20">
         <f t="shared" si="6"/>
         <v>-3.3935399696786162E-3</v>
       </c>
@@ -12678,7 +12750,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>2.510755708888889</v>
       </c>
-      <c r="M113" s="31">
+      <c r="M113" s="30">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>0.51991702514683646</v>
       </c>
@@ -12703,7 +12775,7 @@
       <c r="E114" s="15">
         <v>20</v>
       </c>
-      <c r="F114" s="21">
+      <c r="F114" s="20">
         <f t="shared" si="6"/>
         <v>4.5863675502366696E-4</v>
       </c>
@@ -12727,7 +12799,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>4.0010231877777782</v>
       </c>
-      <c r="M114" s="31">
+      <c r="M114" s="30">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>9.8995957761396039E-2</v>
       </c>
@@ -12752,7 +12824,7 @@
       <c r="E115" s="15">
         <v>20</v>
       </c>
-      <c r="F115" s="23">
+      <c r="F115" s="22">
         <f t="shared" si="6"/>
         <v>2.316624818724522E-3</v>
       </c>
@@ -12776,7 +12848,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>4.5997675261111111</v>
       </c>
-      <c r="M115" s="31">
+      <c r="M115" s="30">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>0.5788501453060575</v>
       </c>
@@ -12801,7 +12873,7 @@
       <c r="E116" s="15">
         <v>20</v>
       </c>
-      <c r="F116" s="23">
+      <c r="F116" s="22">
         <f t="shared" si="6"/>
         <v>-1.6984253988240328E-3</v>
       </c>
@@ -12825,7 +12897,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>9.8766944961111118</v>
       </c>
-      <c r="M116" s="31">
+      <c r="M116" s="30">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>0.54125133944052917</v>
       </c>
@@ -12850,7 +12922,7 @@
       <c r="E117" s="15">
         <v>20</v>
       </c>
-      <c r="F117" s="23">
+      <c r="F117" s="22">
         <f t="shared" si="6"/>
         <v>-5.5486284857285684E-3</v>
       </c>
@@ -12874,7 +12946,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>14.122815863055557</v>
       </c>
-      <c r="M117" s="32">
+      <c r="M117" s="31">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>2.0829563591647076</v>
       </c>
@@ -12899,7 +12971,7 @@
       <c r="E118" s="15">
         <v>20</v>
       </c>
-      <c r="F118" s="23">
+      <c r="F118" s="22">
         <f t="shared" si="6"/>
         <v>-1.4684328394694024E-3</v>
       </c>
@@ -12923,7 +12995,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>23.028087439166665</v>
       </c>
-      <c r="M118" s="31">
+      <c r="M118" s="30">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>0.74644609352354552</v>
       </c>
@@ -12972,7 +13044,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>47.888290981111112</v>
       </c>
-      <c r="M119" s="31">
+      <c r="M119" s="30">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>1.0272944133494091</v>
       </c>
@@ -12991,7 +13063,7 @@
       <c r="E120" s="15">
         <v>20</v>
       </c>
-      <c r="F120" s="21">
+      <c r="F120" s="20">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
@@ -13003,7 +13075,7 @@
         <f>Table47[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M120" s="31" t="e">
+      <c r="M120" s="30" t="e">
         <f>ABS(Table47[[#This Row],[error]])/Table47[[#This Row],[std]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -13017,15 +13089,15 @@
         <v>50000</v>
       </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="24"/>
+      <c r="C121" s="23"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
-      <c r="F121" s="22">
+      <c r="F121" s="21">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="L121" s="5"/>
-      <c r="M121" s="31"/>
+      <c r="M121" s="30"/>
       <c r="N121" s="14"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -13049,7 +13121,7 @@
       <c r="E127" t="s">
         <v>31</v>
       </c>
-      <c r="H127" s="25">
+      <c r="H127" s="24">
         <f>AVERAGE(H131:H141)</f>
         <v>219.47972931048059</v>
       </c>
@@ -13067,7 +13139,7 @@
       <c r="F128">
         <v>20</v>
       </c>
-      <c r="H128" s="25">
+      <c r="H128" s="24">
         <f>_xlfn.STDEV.S(H131:H141)</f>
         <v>2.5954777181250956</v>
       </c>
@@ -13146,13 +13218,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>216.9211513307028</v>
       </c>
-      <c r="I131" s="25">
+      <c r="I131" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.5610944444444443E-4</v>
       </c>
-      <c r="J131" s="30">
+      <c r="J131" s="29">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-2.1440912595138473E-2</v>
+        <v>-2.3885055923652532E-2</v>
       </c>
       <c r="K131" s="14">
         <f t="shared" ref="K131:K140" si="9">B$5</f>
@@ -13170,9 +13242,9 @@
         <f>K131+L131</f>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O131" s="21">
+      <c r="O131" s="20">
         <f>$C$190</f>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
@@ -13191,7 +13263,7 @@
       <c r="E132">
         <v>20</v>
       </c>
-      <c r="F132" s="21">
+      <c r="F132" s="20">
         <f t="shared" si="8"/>
         <v>5.4498823982589428E-3</v>
       </c>
@@ -13202,33 +13274,33 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>220.71400982177343</v>
       </c>
-      <c r="I132" s="25">
+      <c r="I132" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>5.0341666666666666E-4</v>
       </c>
-      <c r="J132" s="31">
+      <c r="J132" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>8.789725937345505E-3</v>
+        <v>6.345582608831446E-3</v>
       </c>
       <c r="K132" s="14">
         <f t="shared" si="9"/>
         <v>0.9742636907501151</v>
       </c>
       <c r="L132">
-        <f t="shared" ref="L132:L154" si="10">K132*I$3</f>
+        <f t="shared" ref="L132:L153" si="10">K132*I$3</f>
         <v>3.1730479874331137E-4</v>
       </c>
       <c r="M132" s="14">
-        <f t="shared" ref="M132:M154" si="11">K132-L132</f>
+        <f t="shared" ref="M132:M153" si="11">K132-L132</f>
         <v>0.97394638595137184</v>
       </c>
       <c r="N132" s="14">
-        <f t="shared" ref="N132:N154" si="12">K132+L132</f>
+        <f t="shared" ref="N132:N153" si="12">K132+L132</f>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O132" s="21">
-        <f t="shared" ref="O132:O154" si="13">$C$190</f>
-        <v>0.97078358735225145</v>
+      <c r="O132" s="20">
+        <f t="shared" ref="O132:O153" si="13">$C$190</f>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
@@ -13247,7 +13319,7 @@
       <c r="E133" s="15">
         <v>20</v>
       </c>
-      <c r="F133" s="21">
+      <c r="F133" s="20">
         <f t="shared" si="8"/>
         <v>-8.5312552906919858E-3</v>
       </c>
@@ -13258,13 +13330,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>220.68848628443126</v>
       </c>
-      <c r="I133" s="25">
+      <c r="I133" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>1.2586872222222223E-3</v>
       </c>
-      <c r="J133" s="31">
+      <c r="J133" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-4.8315888683774233E-3</v>
+        <v>-7.2757321968914823E-3</v>
       </c>
       <c r="K133" s="14">
         <f t="shared" si="9"/>
@@ -13282,9 +13354,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O133" s="21">
+      <c r="O133" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
@@ -13303,7 +13375,7 @@
       <c r="E134" s="15">
         <v>20</v>
       </c>
-      <c r="F134" s="23">
+      <c r="F134" s="22">
         <f t="shared" si="8"/>
         <v>-1.6838272087289274E-2</v>
       </c>
@@ -13314,13 +13386,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>212.96932049156726</v>
       </c>
-      <c r="I134" s="25">
+      <c r="I134" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.6086177777777777E-3</v>
       </c>
-      <c r="J134" s="31">
+      <c r="J134" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-1.2924813711753469E-2</v>
+        <v>-1.5368957040267528E-2</v>
       </c>
       <c r="K134" s="14">
         <f t="shared" si="9"/>
@@ -13338,9 +13410,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O134" s="21">
+      <c r="O134" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
@@ -13359,7 +13431,7 @@
       <c r="E135" s="15">
         <v>20</v>
       </c>
-      <c r="F135" s="21">
+      <c r="F135" s="20">
         <f>B135/B$5-1</f>
         <v>-1.9755183501701135E-2</v>
       </c>
@@ -13370,13 +13442,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>222.41383173826472</v>
       </c>
-      <c r="I135" s="25">
+      <c r="I135" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>4.9956925000000001E-3</v>
       </c>
-      <c r="J135" s="31">
+      <c r="J135" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-1.3149377412863776</v>
+        <v>-1.5187791008489495</v>
       </c>
       <c r="K135" s="14">
         <f t="shared" si="9"/>
@@ -13394,9 +13466,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O135" s="21">
+      <c r="O135" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
@@ -13415,7 +13487,7 @@
       <c r="E136" s="15">
         <v>20</v>
       </c>
-      <c r="F136" s="21">
+      <c r="F136" s="20">
         <f>B136/B$5-1</f>
         <v>3.0544390538937982E-3</v>
       </c>
@@ -13426,13 +13498,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>219.40237994976434</v>
       </c>
-      <c r="I136" s="25">
+      <c r="I136" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>1.2660654722222222E-2</v>
       </c>
-      <c r="J136" s="31">
+      <c r="J136" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>1.1913404403434846</v>
+        <v>0.74031236567957648</v>
       </c>
       <c r="K136" s="14">
         <f t="shared" si="9"/>
@@ -13450,9 +13522,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O136" s="21">
+      <c r="O136" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
@@ -13471,7 +13543,7 @@
       <c r="E137" s="15">
         <v>20</v>
       </c>
-      <c r="F137" s="21">
+      <c r="F137" s="20">
         <f>B137/B$5-1</f>
         <v>-7.3886401687595082E-4</v>
       </c>
@@ -13482,13 +13554,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>220.59361935989162</v>
       </c>
-      <c r="I137" s="25">
+      <c r="I137" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.014765638888889E-2</v>
       </c>
-      <c r="J137" s="31">
+      <c r="J137" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>0.62687616096703247</v>
+        <v>7.1791511555645046E-2</v>
       </c>
       <c r="K137" s="14">
         <f t="shared" si="9"/>
@@ -13506,9 +13578,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O137" s="21">
+      <c r="O137" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
@@ -13527,7 +13599,7 @@
       <c r="E138" s="15">
         <v>20</v>
       </c>
-      <c r="F138" s="23">
+      <c r="F138" s="22">
         <f t="shared" ref="F138:F139" si="14">B138/B$5-1</f>
         <v>-1.0907005990779206E-2</v>
       </c>
@@ -13538,13 +13610,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>220.26995007515498</v>
       </c>
-      <c r="I138" s="25">
+      <c r="I138" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.5221577222222225E-2</v>
       </c>
-      <c r="J138" s="31">
+      <c r="J138" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-1.5473420066034633</v>
+        <v>-2.0765641788589377</v>
       </c>
       <c r="K138" s="14">
         <f t="shared" si="9"/>
@@ -13562,9 +13634,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O138" s="21">
+      <c r="O138" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
@@ -13583,7 +13655,7 @@
       <c r="E139" s="15">
         <v>20</v>
       </c>
-      <c r="F139" s="23">
+      <c r="F139" s="22">
         <f t="shared" si="14"/>
         <v>-3.9691987627289427E-3</v>
       </c>
@@ -13594,13 +13666,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>218.8935170214034</v>
       </c>
-      <c r="I139" s="25">
+      <c r="I139" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>5.0760348055555557E-2</v>
       </c>
-      <c r="J139" s="31">
+      <c r="J139" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-0.13306650634135675</v>
+        <v>-0.97358759047836108</v>
       </c>
       <c r="K139" s="14">
         <f t="shared" si="9"/>
@@ -13618,9 +13690,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O139" s="21">
+      <c r="O139" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
@@ -13639,7 +13711,7 @@
       <c r="E140" s="15">
         <v>20</v>
       </c>
-      <c r="F140" s="23">
+      <c r="F140" s="22">
         <f>B140/B$5-1</f>
         <v>-6.2866308569268226E-3</v>
       </c>
@@ -13650,13 +13722,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>219.80522685179778</v>
       </c>
-      <c r="I140" s="25">
+      <c r="I140" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>7.5824705833333325E-2</v>
       </c>
-      <c r="J140" s="30">
+      <c r="J140" s="29">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-1.0572217218104629</v>
+        <v>-2.0342585833594731</v>
       </c>
       <c r="K140" s="14">
         <f t="shared" si="9"/>
@@ -13674,9 +13746,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O140" s="21">
+      <c r="O140" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
@@ -13695,7 +13767,7 @@
       <c r="E141" s="15">
         <v>20</v>
       </c>
-      <c r="F141" s="23">
+      <c r="F141" s="22">
         <f t="shared" ref="F141:F145" si="15">B141/B$5-1</f>
         <v>-3.3171915689291787E-3</v>
       </c>
@@ -13706,13 +13778,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>221.60552949053479</v>
       </c>
-      <c r="I141" s="25">
+      <c r="I141" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.12534785500000001</v>
       </c>
-      <c r="J141" s="31">
+      <c r="J141" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>0.13402050747652114</v>
+        <v>-1.1852960866965145</v>
       </c>
       <c r="K141" s="14">
         <f>B$5</f>
@@ -13730,9 +13802,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O141" s="21">
+      <c r="O141" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
@@ -13751,7 +13823,7 @@
       <c r="E142" s="15">
         <v>20</v>
       </c>
-      <c r="F142" s="21">
+      <c r="F142" s="20">
         <f>B142/B$5-1</f>
         <v>-6.2399034523696884E-3</v>
       </c>
@@ -13762,16 +13834,16 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>207.45042924575932</v>
       </c>
-      <c r="I142" s="25">
+      <c r="I142" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.18746111555555556</v>
       </c>
-      <c r="J142" s="31">
+      <c r="J142" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-1.6014737220062818</v>
+        <v>-3.1074060518787125</v>
       </c>
       <c r="K142" s="14">
-        <f t="shared" ref="K142:K154" si="16">B$5</f>
+        <f t="shared" ref="K142:K153" si="16">B$5</f>
         <v>0.9742636907501151</v>
       </c>
       <c r="L142">
@@ -13786,9 +13858,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O142" s="21">
+      <c r="O142" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
@@ -13807,7 +13879,7 @@
       <c r="E143" s="15">
         <v>20</v>
       </c>
-      <c r="F143" s="21">
+      <c r="F143" s="20">
         <f>B143/B$5-1</f>
         <v>-2.5835001790533996E-3</v>
       </c>
@@ -13818,13 +13890,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>211.37447450274462</v>
       </c>
-      <c r="I143" s="25">
+      <c r="I143" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.21026400916666665</v>
       </c>
-      <c r="J143" s="31">
+      <c r="J143" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>0.66753119012747164</v>
+        <v>-1.0265336006823018</v>
       </c>
       <c r="K143" s="14">
         <f t="shared" si="16"/>
@@ -13842,9 +13914,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O143" s="21">
+      <c r="O143" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
@@ -13863,7 +13935,7 @@
       <c r="E144" s="15">
         <v>20</v>
       </c>
-      <c r="F144" s="21">
+      <c r="F144" s="20">
         <f>B144/B$5-1</f>
         <v>-4.8372279092764314E-3</v>
       </c>
@@ -13874,13 +13946,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>213.33519450117535</v>
       </c>
-      <c r="I144" s="25">
+      <c r="I144" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.23437295527777779</v>
       </c>
-      <c r="J144" s="31">
+      <c r="J144" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-0.86202924097290801</v>
+        <v>-2.5713170223748416</v>
       </c>
       <c r="K144" s="14">
         <f t="shared" si="16"/>
@@ -13898,9 +13970,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O144" s="21">
+      <c r="O144" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
@@ -13919,7 +13991,7 @@
       <c r="E145" s="15">
         <v>17</v>
       </c>
-      <c r="F145" s="23">
+      <c r="F145" s="22">
         <f t="shared" si="15"/>
         <v>-9.2402582065794769E-3</v>
       </c>
@@ -13930,13 +14002,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>187.84004102532572</v>
       </c>
-      <c r="I145" s="25">
+      <c r="I145" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.25139593222222223</v>
       </c>
-      <c r="J145" s="31">
+      <c r="J145" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-3.8636237581762027</v>
+        <v>-5.5736311560554439</v>
       </c>
       <c r="K145" s="14">
         <f t="shared" si="16"/>
@@ -13954,9 +14026,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O145" s="21">
+      <c r="O145" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
@@ -13975,8 +14047,8 @@
       <c r="E146" s="15">
         <v>20</v>
       </c>
-      <c r="F146" s="21">
-        <f t="shared" ref="F146:F154" si="17">B146/B$5-1</f>
+      <c r="F146" s="20">
+        <f t="shared" ref="F146:F153" si="17">B146/B$5-1</f>
         <v>-4.5726248300869132E-3</v>
       </c>
       <c r="G146">
@@ -13986,13 +14058,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>225.08008430991276</v>
       </c>
-      <c r="I146" s="25">
+      <c r="I146" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.49365145500000002</v>
       </c>
-      <c r="J146" s="31">
+      <c r="J146" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-1.0347876009624188</v>
+        <v>-3.6292358664570914</v>
       </c>
       <c r="K146" s="14">
         <f t="shared" si="16"/>
@@ -14010,9 +14082,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O146" s="21">
+      <c r="O146" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
@@ -14031,7 +14103,7 @@
       <c r="E147" s="15">
         <v>20</v>
       </c>
-      <c r="F147" s="21">
+      <c r="F147" s="20">
         <f t="shared" si="17"/>
         <v>-4.5165894625674996E-3</v>
       </c>
@@ -14042,13 +14114,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>212.70792981841393</v>
       </c>
-      <c r="I147" s="25">
+      <c r="I147" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>0.78354702999999992</v>
       </c>
-      <c r="J147" s="31">
+      <c r="J147" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-1.1897081790451953</v>
+        <v>-4.3495352128772815</v>
       </c>
       <c r="K147" s="14">
         <f t="shared" si="16"/>
@@ -14066,9 +14138,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O147" s="21">
+      <c r="O147" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
@@ -14087,7 +14159,7 @@
       <c r="E148" s="15">
         <v>20</v>
       </c>
-      <c r="F148" s="21">
+      <c r="F148" s="20">
         <f t="shared" si="17"/>
         <v>-5.2538923956830796E-3</v>
       </c>
@@ -14098,13 +14170,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>213.1852494015566</v>
       </c>
-      <c r="I148" s="25">
+      <c r="I148" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>1.0423902350000001</v>
       </c>
-      <c r="J148" s="31">
+      <c r="J148" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-2.396008976445807</v>
+        <v>-5.9699654897749426</v>
       </c>
       <c r="K148" s="14">
         <f t="shared" si="16"/>
@@ -14122,9 +14194,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O148" s="21">
+      <c r="O148" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
@@ -14143,7 +14215,7 @@
       <c r="E149" s="15">
         <v>20</v>
       </c>
-      <c r="F149" s="21">
+      <c r="F149" s="20">
         <f t="shared" si="17"/>
         <v>-4.2862450063421154E-3</v>
       </c>
@@ -14154,13 +14226,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>261.99423619055574</v>
       </c>
-      <c r="I149" s="25">
+      <c r="I149" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>1.2722926205555556</v>
       </c>
-      <c r="J149" s="31">
+      <c r="J149" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-1.2628499814526566</v>
+        <v>-5.6986872652379539</v>
       </c>
       <c r="K149" s="14">
         <f t="shared" si="16"/>
@@ -14178,9 +14250,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O149" s="21">
+      <c r="O149" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
@@ -14199,7 +14271,7 @@
       <c r="E150" s="15">
         <v>20</v>
       </c>
-      <c r="F150" s="21">
+      <c r="F150" s="20">
         <f t="shared" si="17"/>
         <v>-4.7979833056459587E-3</v>
       </c>
@@ -14210,13 +14282,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>246.61039221146126</v>
       </c>
-      <c r="I150" s="25">
+      <c r="I150" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>1.5769363383333332</v>
       </c>
-      <c r="J150" s="31">
+      <c r="J150" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-2.3188041540597437</v>
+        <v>-7.0638656445212344</v>
       </c>
       <c r="K150" s="14">
         <f t="shared" si="16"/>
@@ -14234,9 +14306,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O150" s="21">
+      <c r="O150" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
@@ -14255,7 +14327,7 @@
       <c r="E151" s="15">
         <v>20</v>
       </c>
-      <c r="F151" s="21">
+      <c r="F151" s="20">
         <f t="shared" si="17"/>
         <v>-5.1576201273613176E-3</v>
       </c>
@@ -14266,13 +14338,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>243.16326931667257</v>
       </c>
-      <c r="I151" s="25">
+      <c r="I151" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>1.8277614283333332</v>
       </c>
-      <c r="J151" s="31">
+      <c r="J151" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-3.174848311935742</v>
+        <v>-8.1980821951584204</v>
       </c>
       <c r="K151" s="14">
         <f t="shared" si="16"/>
@@ -14290,9 +14362,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O151" s="21">
+      <c r="O151" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
@@ -14311,7 +14383,7 @@
       <c r="E152" s="15">
         <v>20</v>
       </c>
-      <c r="F152" s="21">
+      <c r="F152" s="20">
         <f t="shared" si="17"/>
         <v>-4.0116985233791258E-3</v>
       </c>
@@ -14322,13 +14394,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>241.15832888787764</v>
       </c>
-      <c r="I152" s="25">
+      <c r="I152" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.0733266908333334</v>
       </c>
-      <c r="J152" s="31">
+      <c r="J152" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-0.94944172608088195</v>
+        <v>-6.36692298720775</v>
       </c>
       <c r="K152" s="14">
         <f t="shared" si="16"/>
@@ -14346,9 +14418,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O152" s="21">
+      <c r="O152" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
@@ -14367,7 +14439,7 @@
       <c r="E153" s="15">
         <v>20</v>
       </c>
-      <c r="F153" s="21">
+      <c r="F153" s="20">
         <f t="shared" si="17"/>
         <v>-4.5444485235400789E-3</v>
       </c>
@@ -14378,13 +14450,13 @@
         <f>Table48[[#This Row],[N]]*Table48[[#This Row],[interation]]/Table48[[#This Row],[time /s]]</f>
         <v>244.54880405972693</v>
       </c>
-      <c r="I153" s="25">
+      <c r="I153" s="24">
         <f>Table48[[#This Row],[time /s]]/3600</f>
         <v>2.271757401111111</v>
       </c>
-      <c r="J153" s="31">
+      <c r="J153" s="30">
         <f>(Table48[[#This Row],[eff (stochastic)]]-$C$190)/Table48[[#This Row],[std]]</f>
-        <v>-2.1825014435738188</v>
+        <v>-7.8130852252198313</v>
       </c>
       <c r="K153" s="14">
         <f t="shared" si="16"/>
@@ -14402,9 +14474,9 @@
         <f t="shared" si="12"/>
         <v>0.97458099554885835</v>
       </c>
-      <c r="O153" s="21">
+      <c r="O153" s="20">
         <f t="shared" si="13"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
@@ -14412,13 +14484,13 @@
       <c r="C154" s="1"/>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
-      <c r="F154" s="21"/>
-      <c r="I154" s="25"/>
-      <c r="J154" s="31"/>
+      <c r="F154" s="20"/>
+      <c r="I154" s="24"/>
+      <c r="J154" s="30"/>
       <c r="K154" s="14"/>
       <c r="M154" s="14"/>
       <c r="N154" s="14"/>
-      <c r="O154" s="21"/>
+      <c r="O154" s="20"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -14441,7 +14513,7 @@
       <c r="E158" t="s">
         <v>33</v>
       </c>
-      <c r="H158" s="25">
+      <c r="H158" s="24">
         <f>AVERAGE(K162:K172)*3</f>
         <v>213.5367421130548</v>
       </c>
@@ -14451,11 +14523,11 @@
       <c r="K158" t="s">
         <v>53</v>
       </c>
-      <c r="O158" s="29">
+      <c r="O158" s="28">
         <f>H158/H104</f>
         <v>62.743608336262362</v>
       </c>
-      <c r="P158" s="33" t="s">
+      <c r="P158" s="32" t="s">
         <v>56</v>
       </c>
     </row>
@@ -14466,7 +14538,7 @@
       <c r="F159">
         <v>20</v>
       </c>
-      <c r="H159" s="25">
+      <c r="H159" s="24">
         <f>_xlfn.STDEV.S(K162:K172)</f>
         <v>4.4405190304637721</v>
       </c>
@@ -14552,9 +14624,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>8.5899750000000008E-4</v>
       </c>
-      <c r="M162" s="30">
+      <c r="M162" s="29">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>292.16412647504518</v>
+        <v>267.72269318990459</v>
       </c>
       <c r="N162" s="14"/>
     </row>
@@ -14574,7 +14646,7 @@
       <c r="E163">
         <v>20</v>
       </c>
-      <c r="F163" s="21">
+      <c r="F163" s="20">
         <f t="shared" si="18"/>
         <v>2.6416163797431169E-2</v>
       </c>
@@ -14598,9 +14670,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>1.6410891666666667E-3</v>
       </c>
-      <c r="M163" s="30">
+      <c r="M163" s="29">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>292.16412634608503</v>
+        <v>267.72269306094444</v>
       </c>
       <c r="N163" s="14"/>
     </row>
@@ -14620,7 +14692,7 @@
       <c r="E164" s="15">
         <v>20</v>
       </c>
-      <c r="F164" s="21">
+      <c r="F164" s="20">
         <f t="shared" si="18"/>
         <v>1.9798678225280808E-2</v>
       </c>
@@ -14644,9 +14716,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>3.5199205555555553E-3</v>
       </c>
-      <c r="M164" s="30">
+      <c r="M164" s="29">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>5.1046350335146675</v>
+        <v>4.5566825563892364</v>
       </c>
       <c r="N164" s="14"/>
     </row>
@@ -14666,7 +14738,7 @@
       <c r="E165" s="15">
         <v>20</v>
       </c>
-      <c r="F165" s="23">
+      <c r="F165" s="22">
         <f t="shared" si="18"/>
         <v>2.550820886939742E-2</v>
       </c>
@@ -14690,9 +14762,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>8.3159855555555561E-3</v>
       </c>
-      <c r="M165" s="30">
+      <c r="M165" s="29">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>49.753850775734669</v>
+        <v>45.461661975820419</v>
       </c>
       <c r="N165" s="14"/>
     </row>
@@ -14712,7 +14784,7 @@
       <c r="E166" s="15">
         <v>20</v>
       </c>
-      <c r="F166" s="21">
+      <c r="F166" s="20">
         <f t="shared" si="18"/>
         <v>-1.8848051579784197E-2</v>
       </c>
@@ -14736,9 +14808,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>1.5803089999999999E-2</v>
       </c>
-      <c r="M166" s="31">
+      <c r="M166" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>-1.1254465880811799</v>
+        <v>-1.310273370388026</v>
       </c>
       <c r="N166" s="14"/>
     </row>
@@ -14758,7 +14830,7 @@
       <c r="E167" s="15">
         <v>20</v>
       </c>
-      <c r="F167" s="21">
+      <c r="F167" s="20">
         <f t="shared" si="18"/>
         <v>-4.154843238327488E-3</v>
       </c>
@@ -14782,9 +14854,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>3.6146163888888888E-2</v>
       </c>
-      <c r="M167" s="31">
+      <c r="M167" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>-8.8494549094778621E-2</v>
+        <v>-0.46942047226367606</v>
       </c>
       <c r="N167" s="14"/>
     </row>
@@ -14804,7 +14876,7 @@
       <c r="E168" s="15">
         <v>20</v>
       </c>
-      <c r="F168" s="21">
+      <c r="F168" s="20">
         <f t="shared" si="18"/>
         <v>3.0199075921877316E-4</v>
       </c>
@@ -14828,9 +14900,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>6.3845862222222216E-2</v>
       </c>
-      <c r="M168" s="31">
+      <c r="M168" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>0.79663970745565693</v>
+        <v>0.2807585476123356</v>
       </c>
       <c r="N168" s="14"/>
     </row>
@@ -14850,7 +14922,7 @@
       <c r="E169" s="15">
         <v>20</v>
       </c>
-      <c r="F169" s="23">
+      <c r="F169" s="22">
         <f t="shared" si="18"/>
         <v>2.9386923732050985E-3</v>
       </c>
@@ -14874,9 +14946,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>8.0781708333333327E-2</v>
       </c>
-      <c r="M169" s="31">
+      <c r="M169" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>1.580233901997568</v>
+        <v>0.97133939164986904</v>
       </c>
       <c r="N169" s="14"/>
     </row>
@@ -14896,7 +14968,7 @@
       <c r="E170" s="15">
         <v>20</v>
       </c>
-      <c r="F170" s="23">
+      <c r="F170" s="22">
         <f t="shared" si="18"/>
         <v>-3.0370041690160887E-3</v>
       </c>
@@ -14920,9 +14992,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.15119333777777777</v>
       </c>
-      <c r="M170" s="31">
+      <c r="M170" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>0.16954314019725658</v>
+        <v>-0.62542929523119861</v>
       </c>
       <c r="N170" s="14"/>
     </row>
@@ -14942,7 +15014,7 @@
       <c r="E171" s="15">
         <v>20</v>
       </c>
-      <c r="F171" s="23">
+      <c r="F171" s="22">
         <f t="shared" si="18"/>
         <v>4.4646091210487349E-4</v>
       </c>
@@ -14966,9 +15038,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.2362752127777778</v>
       </c>
-      <c r="M171" s="31">
+      <c r="M171" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>1.6296502158239805</v>
+        <v>0.61227515522100162</v>
       </c>
       <c r="N171" s="14"/>
     </row>
@@ -14988,7 +15060,7 @@
       <c r="E172" s="15">
         <v>20</v>
       </c>
-      <c r="F172" s="23">
+      <c r="F172" s="22">
         <f t="shared" si="18"/>
         <v>-1.1978634981496539E-3</v>
       </c>
@@ -15012,9 +15084,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.36892216194444449</v>
       </c>
-      <c r="M172" s="31">
+      <c r="M172" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>1.2128864587996333</v>
+        <v>-6.8730737389320354E-2</v>
       </c>
       <c r="N172" s="14"/>
     </row>
@@ -15034,7 +15106,7 @@
       <c r="E173" s="15">
         <v>20</v>
       </c>
-      <c r="F173" s="21">
+      <c r="F173" s="20">
         <f>B173/B$5-1</f>
         <v>-9.2878882233660143E-4</v>
       </c>
@@ -15058,9 +15130,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.55893108194444441</v>
       </c>
-      <c r="M173" s="31">
+      <c r="M173" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>1.6080878025072729</v>
+        <v>8.1849320241648635E-2</v>
       </c>
       <c r="N173" s="14"/>
     </row>
@@ -15080,7 +15152,7 @@
       <c r="E174" s="15">
         <v>20</v>
       </c>
-      <c r="F174" s="21">
+      <c r="F174" s="20">
         <f>B174/B$5-1</f>
         <v>1.1350871563386988E-4</v>
       </c>
@@ -15104,9 +15176,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.63206371638888892</v>
       </c>
-      <c r="M174" s="31">
+      <c r="M174" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>2.3765268026486606</v>
+        <v>0.75885142373114289</v>
       </c>
       <c r="N174" s="14"/>
     </row>
@@ -15126,7 +15198,7 @@
       <c r="E175" s="15">
         <v>20</v>
       </c>
-      <c r="F175" s="21">
+      <c r="F175" s="20">
         <f>B175/B$5-1</f>
         <v>7.7830126060440818E-4</v>
       </c>
@@ -15150,9 +15222,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.70036014055555562</v>
       </c>
-      <c r="M175" s="31">
+      <c r="M175" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>3.0500716290568985</v>
+        <v>1.2911867066291434</v>
       </c>
       <c r="N175" s="14"/>
     </row>
@@ -15196,9 +15268,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>0.73493317555555548</v>
       </c>
-      <c r="M176" s="31">
+      <c r="M176" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>2.6564209866458568</v>
+        <v>0.85332603878447721</v>
       </c>
       <c r="N176" s="14"/>
     </row>
@@ -15218,7 +15290,7 @@
       <c r="E177" s="15">
         <v>20</v>
       </c>
-      <c r="F177" s="21">
+      <c r="F177" s="20">
         <f t="shared" si="18"/>
         <v>-1.9511211545968354E-3</v>
       </c>
@@ -15242,9 +15314,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>1.5902536119444444</v>
       </c>
-      <c r="M177" s="31">
+      <c r="M177" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>1.606683293504592</v>
+        <v>-0.88000107824762264</v>
       </c>
       <c r="N177" s="14"/>
     </row>
@@ -15264,7 +15336,7 @@
       <c r="E178" s="15">
         <v>20</v>
       </c>
-      <c r="F178" s="21">
+      <c r="F178" s="20">
         <f>B178/B$5-1</f>
         <v>5.1723177085238881E-4</v>
       </c>
@@ -15288,9 +15360,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>2.503488096111111</v>
       </c>
-      <c r="M178" s="31">
+      <c r="M178" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>5.1777899627130415</v>
+        <v>2.001287441465911</v>
       </c>
       <c r="N178" s="14"/>
     </row>
@@ -15310,7 +15382,7 @@
       <c r="E179" s="15">
         <v>20</v>
       </c>
-      <c r="F179" s="21">
+      <c r="F179" s="20">
         <f>B179/B$5-1</f>
         <v>-5.9946188403103839E-4</v>
       </c>
@@ -15334,9 +15406,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>3.2372024766666669</v>
       </c>
-      <c r="M179" s="31">
+      <c r="M179" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>4.2374212173876291</v>
+        <v>0.66124151021955879</v>
       </c>
       <c r="N179" s="14"/>
     </row>
@@ -15347,7 +15419,7 @@
       <c r="B180" s="1">
         <v>0.97121193616395196</v>
       </c>
-      <c r="C180" s="24">
+      <c r="C180" s="23">
         <v>6.4411024443377198E-4</v>
       </c>
       <c r="D180" s="15">
@@ -15356,7 +15428,7 @@
       <c r="E180" s="15">
         <v>20</v>
       </c>
-      <c r="F180" s="22">
+      <c r="F180" s="21">
         <f t="shared" si="18"/>
         <v>-3.1323702352219485E-3</v>
       </c>
@@ -15380,9 +15452,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>3.8304989049999998</v>
       </c>
-      <c r="M180" s="30">
+      <c r="M180" s="29">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>0.66502406288703375</v>
+        <v>-3.1295799659041403</v>
       </c>
       <c r="N180" s="14"/>
     </row>
@@ -15393,7 +15465,7 @@
       <c r="B181" s="1">
         <v>0.97326746432650402</v>
       </c>
-      <c r="C181" s="24">
+      <c r="C181" s="23">
         <v>5.6627169570918202E-4</v>
       </c>
       <c r="D181" s="15">
@@ -15402,7 +15474,7 @@
       <c r="E181" s="15">
         <v>20</v>
       </c>
-      <c r="F181" s="22">
+      <c r="F181" s="21">
         <f>B181/B$5-1</f>
         <v>-1.0225429040099376E-3</v>
       </c>
@@ -15426,9 +15498,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>4.7616726766666666</v>
       </c>
-      <c r="M181" s="31">
+      <c r="M181" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>4.3863696403575831</v>
+        <v>7.016710536581422E-2</v>
       </c>
       <c r="N181" s="14"/>
     </row>
@@ -15439,7 +15511,7 @@
       <c r="B182" s="1">
         <v>0.97296981842303698</v>
       </c>
-      <c r="C182" s="24">
+      <c r="C182" s="23">
         <v>5.2653560070763398E-4</v>
       </c>
       <c r="D182" s="15">
@@ -15448,7 +15520,7 @@
       <c r="E182" s="15">
         <v>20</v>
       </c>
-      <c r="F182" s="22">
+      <c r="F182" s="21">
         <f>B182/B$5-1</f>
         <v>-1.3280514704205881E-3</v>
       </c>
@@ -15472,9 +15544,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>4.9308204097222221</v>
       </c>
-      <c r="M182" s="31">
+      <c r="M182" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>4.1521049438012483</v>
+        <v>-0.48982871696028252</v>
       </c>
       <c r="N182" s="14"/>
     </row>
@@ -15485,7 +15557,7 @@
       <c r="B183" s="1">
         <v>0.97386837005321503</v>
       </c>
-      <c r="C183" s="24">
+      <c r="C183" s="23">
         <v>4.8813942738869801E-4</v>
       </c>
       <c r="D183" s="15">
@@ -15494,7 +15566,7 @@
       <c r="E183" s="15">
         <v>20</v>
       </c>
-      <c r="F183" s="22">
+      <c r="F183" s="21">
         <f>B183/B$5-1</f>
         <v>-4.0576355318722168E-4</v>
       </c>
@@ -15518,9 +15590,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>5.9822249452777783</v>
       </c>
-      <c r="M183" s="31">
+      <c r="M183" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>6.3194704788867782</v>
+        <v>1.3124106279974443</v>
       </c>
       <c r="N183" s="14"/>
     </row>
@@ -15531,7 +15603,7 @@
       <c r="B184" s="1">
         <v>0.97368289695070898</v>
       </c>
-      <c r="C184" s="24">
+      <c r="C184" s="23">
         <v>4.6263515468804902E-4</v>
       </c>
       <c r="D184" s="15">
@@ -15540,7 +15612,7 @@
       <c r="E184" s="15">
         <v>20</v>
       </c>
-      <c r="F184" s="22">
+      <c r="F184" s="21">
         <f>B184/B$5-1</f>
         <v>-5.961361435515844E-4</v>
       </c>
@@ -15564,9 +15636,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>6.1158406919444444</v>
       </c>
-      <c r="M184" s="31">
+      <c r="M184" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>6.2669461433653959</v>
+        <v>0.98385577777888078</v>
       </c>
       <c r="N184" s="14"/>
     </row>
@@ -15577,7 +15649,7 @@
       <c r="B185" s="1">
         <v>0.97396948608297595</v>
       </c>
-      <c r="C185" s="24">
+      <c r="C185" s="23">
         <v>4.3690968675606399E-4</v>
       </c>
       <c r="D185" s="15">
@@ -15586,7 +15658,7 @@
       <c r="E185" s="15">
         <v>20</v>
       </c>
-      <c r="F185" s="22">
+      <c r="F185" s="21">
         <f>B185/B$5-1</f>
         <v>-3.0197642582019402E-4</v>
       </c>
@@ -15610,9 +15682,9 @@
         <f>Table479[[#This Row],[time /s]]/3600</f>
         <v>7.4371982630555555</v>
       </c>
-      <c r="M185" s="31">
+      <c r="M185" s="30">
         <f>(Table479[[#This Row],[eff (stochastic)]]-$C$190)/Table479[[#This Row],[std]]</f>
-        <v>7.2918931012469326</v>
+        <v>1.6977316472833894</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -15624,25 +15696,25 @@
       <c r="B190" t="s">
         <v>61</v>
       </c>
-      <c r="C190" s="21">
-        <f>MEDIAN(B149:B154,B180:B184)</f>
-        <v>0.97078358735225145</v>
+      <c r="C190" s="20">
+        <f>MEDIAN(Feuil1!B17:B21,Feuil1!B48:B52)</f>
+        <v>0.97322773068076551</v>
       </c>
       <c r="D190">
         <f>_xlfn.STDEV.S(B180:B184,B149:B154)</f>
         <v>1.8408690436248075E-3</v>
       </c>
-      <c r="E190" s="21">
+      <c r="E190" s="20">
         <f>C190-D190</f>
-        <v>0.96894271830862666</v>
-      </c>
-      <c r="F190" s="21">
+        <v>0.97138686163714072</v>
+      </c>
+      <c r="F190" s="20">
         <f>C190+D190</f>
-        <v>0.97262445639587625</v>
+        <v>0.97506859972439031</v>
       </c>
       <c r="H190" s="5">
         <f>C190/B5-1</f>
-        <v>-3.5720343793005371E-3</v>
+        <v>-1.0633261602430721E-3</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
@@ -15666,7 +15738,7 @@
       <c r="E196" t="s">
         <v>31</v>
       </c>
-      <c r="H196" s="25" t="e">
+      <c r="H196" s="24" t="e">
         <f>AVERAGE(H200:H210)</f>
         <v>#DIV/0!</v>
       </c>
@@ -15684,7 +15756,7 @@
       <c r="F197">
         <v>20</v>
       </c>
-      <c r="H197" s="25" t="e">
+      <c r="H197" s="24" t="e">
         <f>_xlfn.STDEV.S(H200:H210)</f>
         <v>#DIV/0!</v>
       </c>
@@ -15761,13 +15833,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I200" s="25">
+      <c r="I200" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J200" s="30">
+      <c r="J200" s="29">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>-0.96291981479030075</v>
+        <v>-0.96536939248104747</v>
       </c>
       <c r="K200" s="14" t="str">
         <f t="shared" ref="K200:K222" si="20">D$5</f>
@@ -15785,9 +15857,9 @@
         <f>K200+L200</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O200" s="21">
+      <c r="O200" s="20">
         <f>$C$190</f>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
@@ -15804,7 +15876,7 @@
       <c r="E201">
         <v>20</v>
       </c>
-      <c r="F201" s="21">
+      <c r="F201" s="20">
         <f t="shared" si="19"/>
         <v>2.235592088613747E-2</v>
       </c>
@@ -15815,13 +15887,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I201" s="25">
+      <c r="I201" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J201" s="30">
+      <c r="J201" s="29">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>2.5260665390509529</v>
+        <v>2.281652206199547</v>
       </c>
       <c r="K201" s="14" t="str">
         <f t="shared" si="20"/>
@@ -15839,9 +15911,9 @@
         <f t="shared" ref="N201:N222" si="23">K201+L201</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O201" s="21">
+      <c r="O201" s="20">
         <f t="shared" ref="O201:O222" si="24">$C$190</f>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
@@ -15858,7 +15930,7 @@
       <c r="E202" s="15">
         <v>20</v>
       </c>
-      <c r="F202" s="21">
+      <c r="F202" s="20">
         <f t="shared" si="19"/>
         <v>5.8878388449912222E-3</v>
       </c>
@@ -15869,13 +15941,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I202" s="25">
+      <c r="I202" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J202" s="31">
+      <c r="J202" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>0.92164110015265921</v>
+        <v>0.67722676730125331</v>
       </c>
       <c r="K202" s="14" t="str">
         <f t="shared" si="20"/>
@@ -15893,9 +15965,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O202" s="21">
+      <c r="O202" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
@@ -15912,7 +15984,7 @@
       <c r="E203" s="15">
         <v>20</v>
       </c>
-      <c r="F203" s="23">
+      <c r="F203" s="22">
         <f t="shared" si="19"/>
         <v>-1.3599215488907412E-2</v>
       </c>
@@ -15923,13 +15995,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I203" s="25">
+      <c r="I203" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J203" s="31">
+      <c r="J203" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>-0.9769118475665417</v>
+        <v>-1.2213261804179476</v>
       </c>
       <c r="K203" s="14" t="str">
         <f t="shared" si="20"/>
@@ -15947,9 +16019,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O203" s="21">
+      <c r="O203" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
@@ -15966,7 +16038,7 @@
       <c r="E204" s="15">
         <v>20</v>
       </c>
-      <c r="F204" s="21">
+      <c r="F204" s="20">
         <f t="shared" si="19"/>
         <v>9.8055529365028704E-3</v>
       </c>
@@ -15977,13 +16049,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I204" s="25">
+      <c r="I204" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J204" s="31">
+      <c r="J204" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>1.6597335854021722</v>
+        <v>1.3484825960533453</v>
       </c>
       <c r="K204" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16001,9 +16073,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O204" s="21">
+      <c r="O204" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
@@ -16020,7 +16092,7 @@
       <c r="E205" s="15">
         <v>20</v>
       </c>
-      <c r="F205" s="21">
+      <c r="F205" s="20">
         <f t="shared" si="19"/>
         <v>-5.994801062605859E-3</v>
       </c>
@@ -16031,13 +16103,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I205" s="25">
+      <c r="I205" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J205" s="31">
+      <c r="J205" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>-0.35799943568027659</v>
+        <v>-0.72869799815338565</v>
       </c>
       <c r="K205" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16055,9 +16127,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O205" s="21">
+      <c r="O205" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
@@ -16074,7 +16146,7 @@
       <c r="E206" s="15">
         <v>20</v>
       </c>
-      <c r="F206" s="21">
+      <c r="F206" s="20">
         <f t="shared" si="19"/>
         <v>7.1574938911374009E-3</v>
       </c>
@@ -16085,13 +16157,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I206" s="25">
+      <c r="I206" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J206" s="31">
+      <c r="J206" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>2.6282958205050906</v>
+        <v>2.0137648587681922</v>
       </c>
       <c r="K206" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16109,9 +16181,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O206" s="21">
+      <c r="O206" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
@@ -16128,7 +16200,7 @@
       <c r="E207" s="15">
         <v>20</v>
       </c>
-      <c r="F207" s="23">
+      <c r="F207" s="22">
         <f t="shared" si="19"/>
         <v>6.290735092338462E-3</v>
       </c>
@@ -16139,13 +16211,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I207" s="25">
+      <c r="I207" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J207" s="31">
+      <c r="J207" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>2.6258461288222072</v>
+        <v>1.95793213323515</v>
       </c>
       <c r="K207" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16163,9 +16235,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O207" s="21">
+      <c r="O207" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
@@ -16182,7 +16254,7 @@
       <c r="E208" s="15">
         <v>20</v>
       </c>
-      <c r="F208" s="23">
+      <c r="F208" s="22">
         <f t="shared" si="19"/>
         <v>4.8538416968029185E-3</v>
       </c>
@@ -16193,13 +16265,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I208" s="25">
+      <c r="I208" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J208" s="31">
+      <c r="J208" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>3.0293585264846414</v>
+        <v>2.1274016776986144</v>
       </c>
       <c r="K208" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16217,9 +16289,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O208" s="21">
+      <c r="O208" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
@@ -16236,7 +16308,7 @@
       <c r="E209" s="15">
         <v>20</v>
       </c>
-      <c r="F209" s="23">
+      <c r="F209" s="22">
         <f t="shared" si="19"/>
         <v>1.3143635442094403E-3</v>
       </c>
@@ -16247,13 +16319,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I209" s="25">
+      <c r="I209" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J209" s="31">
+      <c r="J209" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>2.014412006422492</v>
+        <v>0.98019988612712927</v>
       </c>
       <c r="K209" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16271,9 +16343,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O209" s="21">
+      <c r="O209" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
@@ -16290,7 +16362,7 @@
       <c r="E210" s="15">
         <v>20</v>
       </c>
-      <c r="F210" s="23">
+      <c r="F210" s="22">
         <f t="shared" si="19"/>
         <v>-2.9125914527630137E-3</v>
       </c>
@@ -16301,13 +16373,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I210" s="25">
+      <c r="I210" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J210" s="31">
+      <c r="J210" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>0.32064365122426314</v>
+        <v>-0.89917588257300018</v>
       </c>
       <c r="K210" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16325,9 +16397,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O210" s="21">
+      <c r="O210" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
@@ -16344,7 +16416,7 @@
       <c r="E211" s="15">
         <v>20</v>
       </c>
-      <c r="F211" s="21">
+      <c r="F211" s="20">
         <f t="shared" si="19"/>
         <v>-2.8618499835822986E-3</v>
       </c>
@@ -16355,13 +16427,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I211" s="25">
+      <c r="I211" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J211" s="31">
+      <c r="J211" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>0.42438884213142058</v>
+        <v>-1.07475389143234</v>
       </c>
       <c r="K211" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16379,9 +16451,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O211" s="21">
+      <c r="O211" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
@@ -16398,7 +16470,7 @@
       <c r="E212" s="15">
         <v>20</v>
       </c>
-      <c r="F212" s="21">
+      <c r="F212" s="20">
         <f t="shared" si="19"/>
         <v>-2.6994324236246925E-3</v>
       </c>
@@ -16409,13 +16481,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I212" s="25">
+      <c r="I212" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J212" s="31">
+      <c r="J212" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>0.54163473552546837</v>
+        <v>-1.0155512229763624</v>
       </c>
       <c r="K212" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16433,9 +16505,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O212" s="21">
+      <c r="O212" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
@@ -16452,7 +16524,7 @@
       <c r="E213" s="15">
         <v>20</v>
       </c>
-      <c r="F213" s="21">
+      <c r="F213" s="20">
         <f t="shared" si="19"/>
         <v>-3.9058155361073599E-3</v>
       </c>
@@ -16463,13 +16535,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I213" s="25">
+      <c r="I213" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J213" s="31">
+      <c r="J213" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>-0.21674554633404008</v>
+        <v>-1.8458109457539247</v>
       </c>
       <c r="K213" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16487,9 +16559,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O213" s="21">
+      <c r="O213" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
@@ -16506,7 +16578,7 @@
       <c r="E214" s="15">
         <v>17</v>
       </c>
-      <c r="F214" s="23">
+      <c r="F214" s="22">
         <f t="shared" si="19"/>
         <v>1.2700039938349228E-3</v>
       </c>
@@ -16517,13 +16589,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I214" s="25">
+      <c r="I214" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J214" s="31">
+      <c r="J214" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>3.6161874064939021</v>
+        <v>1.7426047602562373</v>
       </c>
       <c r="K214" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16541,9 +16613,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O214" s="21">
+      <c r="O214" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
@@ -16560,7 +16632,7 @@
       <c r="E215" s="15">
         <v>20</v>
       </c>
-      <c r="F215" s="21">
+      <c r="F215" s="20">
         <f t="shared" si="19"/>
         <v>-6.1206238717459449E-4</v>
       </c>
@@ -16571,13 +16643,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I215" s="25">
+      <c r="I215" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J215" s="31">
+      <c r="J215" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>2.9752465469976928</v>
+        <v>0.45359246174586243</v>
       </c>
       <c r="K215" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16595,9 +16667,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O215" s="21">
+      <c r="O215" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
@@ -16614,7 +16686,7 @@
       <c r="E216" s="15">
         <v>20</v>
       </c>
-      <c r="F216" s="21">
+      <c r="F216" s="20">
         <f t="shared" si="19"/>
         <v>-1.2671397944037377E-3</v>
       </c>
@@ -16625,13 +16697,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I216" s="25">
+      <c r="I216" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J216" s="31">
+      <c r="J216" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>2.8344553272499682</v>
+        <v>-0.25064080799977606</v>
       </c>
       <c r="K216" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16649,9 +16721,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O216" s="21">
+      <c r="O216" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
@@ -16668,7 +16740,7 @@
       <c r="E217" s="15">
         <v>20</v>
       </c>
-      <c r="F217" s="21">
+      <c r="F217" s="20">
         <f t="shared" si="19"/>
         <v>-2.5986286525260249E-3</v>
       </c>
@@ -16679,13 +16751,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I217" s="25">
+      <c r="I217" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J217" s="31">
+      <c r="J217" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>1.3348186023844273</v>
+        <v>-2.1053403227627858</v>
       </c>
       <c r="K217" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16703,9 +16775,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O217" s="21">
+      <c r="O217" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
@@ -16722,7 +16794,7 @@
       <c r="E218" s="15">
         <v>20</v>
       </c>
-      <c r="F218" s="21">
+      <c r="F218" s="20">
         <f t="shared" si="19"/>
         <v>-4.0827689282030288E-4</v>
       </c>
@@ -16733,13 +16805,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I218" s="25">
+      <c r="I218" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J218" s="31">
+      <c r="J218" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>5.4992427596403095</v>
+        <v>1.1386065324147965</v>
       </c>
       <c r="K218" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16757,9 +16829,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O218" s="21">
+      <c r="O218" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
@@ -16776,7 +16848,7 @@
       <c r="E219" s="15">
         <v>20</v>
       </c>
-      <c r="F219" s="21">
+      <c r="F219" s="20">
         <f t="shared" si="19"/>
         <v>-1.7627546464938915E-3</v>
       </c>
@@ -16787,13 +16859,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I219" s="25">
+      <c r="I219" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J219" s="31">
+      <c r="J219" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>3.3187469580605229</v>
+        <v>-1.2829559293880139</v>
       </c>
       <c r="K219" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16811,9 +16883,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O219" s="21">
+      <c r="O219" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
@@ -16830,7 +16902,7 @@
       <c r="E220" s="15">
         <v>20</v>
       </c>
-      <c r="F220" s="21">
+      <c r="F220" s="20">
         <f t="shared" si="19"/>
         <v>-1.4808019486842738E-3</v>
       </c>
@@ -16841,13 +16913,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I220" s="25">
+      <c r="I220" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J220" s="31">
+      <c r="J220" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>4.1184845045762772</v>
+        <v>-0.82217908471518142</v>
       </c>
       <c r="K220" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16865,9 +16937,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O220" s="21">
+      <c r="O220" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
@@ -16884,7 +16956,7 @@
       <c r="E221" s="15">
         <v>20</v>
       </c>
-      <c r="F221" s="21">
+      <c r="F221" s="20">
         <f t="shared" si="19"/>
         <v>-1.8311701776789757E-3</v>
       </c>
@@ -16895,13 +16967,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I221" s="25">
+      <c r="I221" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J221" s="31">
+      <c r="J221" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>3.5945132969396232</v>
+        <v>-1.5854341355736292</v>
       </c>
       <c r="K221" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16919,9 +16991,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O221" s="21">
+      <c r="O221" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
@@ -16938,7 +17010,7 @@
       <c r="E222" s="15">
         <v>20</v>
       </c>
-      <c r="F222" s="21">
+      <c r="F222" s="20">
         <f t="shared" si="19"/>
         <v>-1.5610460952816263E-3</v>
       </c>
@@ -16949,13 +17021,13 @@
         <f>Table4810[[#This Row],[N]]*Table4810[[#This Row],[interation]]/Table4810[[#This Row],[time /s]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I222" s="25">
+      <c r="I222" s="24">
         <f>Table4810[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="J222" s="31">
+      <c r="J222" s="30">
         <f>(Table4810[[#This Row],[eff (stochastic)]]-$C$190)/Table4810[[#This Row],[std]]</f>
-        <v>4.3926630718949538</v>
+        <v>-1.0871848414851111</v>
       </c>
       <c r="K222" s="14" t="str">
         <f t="shared" si="20"/>
@@ -16973,9 +17045,9 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O222" s="21">
+      <c r="O222" s="20">
         <f t="shared" si="24"/>
-        <v>0.97078358735225145</v>
+        <v>0.97322773068076551</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -16994,7 +17066,7 @@
       <c r="E225" t="s">
         <v>33</v>
       </c>
-      <c r="H225" s="25" t="e">
+      <c r="H225" s="24" t="e">
         <f>AVERAGE(K229:K239)*3</f>
         <v>#DIV/0!</v>
       </c>
@@ -17012,7 +17084,7 @@
       <c r="F226">
         <v>20</v>
       </c>
-      <c r="H226" s="25" t="e">
+      <c r="H226" s="24" t="e">
         <f>_xlfn.STDEV.S(K229:K239)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17096,9 +17168,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M229" s="30">
+      <c r="M229" s="29">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>-3.6274423586757476</v>
+        <v>-3.8718566915271535</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -17115,7 +17187,7 @@
       <c r="E230">
         <v>20</v>
       </c>
-      <c r="F230" s="21">
+      <c r="F230" s="20">
         <f t="shared" si="25"/>
         <v>4.5487898773870494E-3</v>
       </c>
@@ -17139,9 +17211,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M230" s="30">
+      <c r="M230" s="29">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>0.79118242122535598</v>
+        <v>0.54676808837395008</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -17158,7 +17230,7 @@
       <c r="E231" s="15">
         <v>20</v>
       </c>
-      <c r="F231" s="21">
+      <c r="F231" s="20">
         <f t="shared" si="25"/>
         <v>-3.7047176491199707E-2</v>
       </c>
@@ -17182,9 +17254,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M231" s="30">
+      <c r="M231" s="29">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>-3.2613615502323445</v>
+        <v>-3.5057758830837504</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -17201,7 +17273,7 @@
       <c r="E232" s="15">
         <v>20</v>
       </c>
-      <c r="F232" s="23">
+      <c r="F232" s="22">
         <f t="shared" si="25"/>
         <v>-1.4069390484836575E-3</v>
       </c>
@@ -17225,9 +17297,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M232" s="30">
+      <c r="M232" s="29">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>0.21093737678274938</v>
+        <v>-3.3476956068656527E-2</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -17244,7 +17316,7 @@
       <c r="E233" s="15">
         <v>20</v>
       </c>
-      <c r="F233" s="21">
+      <c r="F233" s="20">
         <f t="shared" si="25"/>
         <v>1.2045066185812914E-3</v>
       </c>
@@ -17268,9 +17340,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M233" s="31">
+      <c r="M233" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>0.47294895370253154</v>
+        <v>0.22454934237828292</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -17287,7 +17359,7 @@
       <c r="E234" s="15">
         <v>20</v>
       </c>
-      <c r="F234" s="21">
+      <c r="F234" s="20">
         <f t="shared" si="25"/>
         <v>-4.074951008819272E-3</v>
       </c>
@@ -17311,9 +17383,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M234" s="31">
+      <c r="M234" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>-7.6446111575902628E-2</v>
+        <v>-0.45778364779733843</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -17330,7 +17402,7 @@
       <c r="E235" s="15">
         <v>20</v>
       </c>
-      <c r="F235" s="21">
+      <c r="F235" s="20">
         <f t="shared" si="25"/>
         <v>4.3575733430345487E-4</v>
       </c>
@@ -17354,9 +17426,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M235" s="31">
+      <c r="M235" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>0.84454281653333463</v>
+        <v>0.3158947089005455</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -17373,7 +17445,7 @@
       <c r="E236" s="15">
         <v>20</v>
       </c>
-      <c r="F236" s="23">
+      <c r="F236" s="22">
         <f t="shared" si="25"/>
         <v>4.7758145274259256E-3</v>
       </c>
@@ -17397,9 +17469,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M236" s="31">
+      <c r="M236" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>2.028220783554866</v>
+        <v>1.4186967964032371</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -17416,7 +17488,7 @@
       <c r="E237" s="15">
         <v>20</v>
       </c>
-      <c r="F237" s="23">
+      <c r="F237" s="22">
         <f t="shared" si="25"/>
         <v>-6.8929433492492809E-3</v>
       </c>
@@ -17440,9 +17512,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M237" s="31">
+      <c r="M237" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>-0.96393382965334196</v>
+        <v>-1.6921166082123698</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -17459,7 +17531,7 @@
       <c r="E238" s="15">
         <v>20</v>
       </c>
-      <c r="F238" s="23">
+      <c r="F238" s="22">
         <f t="shared" si="25"/>
         <v>-1.6357044929110609E-3</v>
       </c>
@@ -17483,9 +17555,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M238" s="31">
+      <c r="M238" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>0.7488845309395038</v>
+        <v>-0.2213699650007557</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -17502,7 +17574,7 @@
       <c r="E239" s="15">
         <v>20</v>
       </c>
-      <c r="F239" s="23">
+      <c r="F239" s="22">
         <f t="shared" si="25"/>
         <v>-2.7333175385348962E-3</v>
       </c>
@@ -17526,9 +17598,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M239" s="31">
+      <c r="M239" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>0.41808274296050307</v>
+        <v>-0.83245565394790844</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -17545,7 +17617,7 @@
       <c r="E240" s="15">
         <v>20</v>
       </c>
-      <c r="F240" s="21">
+      <c r="F240" s="20">
         <f>B240/B$5-1</f>
         <v>1.9140919075391061E-3</v>
       </c>
@@ -17569,9 +17641,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M240" s="31">
+      <c r="M240" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>3.5108545688453616</v>
+        <v>1.9054030622137805</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -17588,7 +17660,7 @@
       <c r="E241" s="15">
         <v>20</v>
       </c>
-      <c r="F241" s="21">
+      <c r="F241" s="20">
         <f>B241/B$5-1</f>
         <v>3.7583250636785692E-4</v>
       </c>
@@ -17612,9 +17684,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M241" s="31">
+      <c r="M241" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>2.6026901274637209</v>
+        <v>0.94878681625256567</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -17631,7 +17703,7 @@
       <c r="E242" s="15">
         <v>20</v>
       </c>
-      <c r="F242" s="21">
+      <c r="F242" s="20">
         <f>B242/B$5-1</f>
         <v>1.2989160992993298E-4</v>
       </c>
@@ -17655,9 +17727,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M242" s="31">
+      <c r="M242" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>2.5795864287709209</v>
+        <v>0.83146134619145695</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -17698,9 +17770,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M243" s="31">
+      <c r="M243" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>1.3416784992386168</v>
+        <v>-0.43045732189334535</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -17717,7 +17789,7 @@
       <c r="E244" s="15">
         <v>20</v>
       </c>
-      <c r="F244" s="21">
+      <c r="F244" s="20">
         <f t="shared" si="26"/>
         <v>-4.9517821443767485E-4</v>
       </c>
@@ -17741,9 +17813,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M244" s="31">
+      <c r="M244" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>3.0990728616648648</v>
+        <v>0.57225030547850075</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -17760,7 +17832,7 @@
       <c r="E245" s="15">
         <v>20</v>
       </c>
-      <c r="F245" s="21">
+      <c r="F245" s="20">
         <f t="shared" ref="F245:F251" si="27">B245/B$5-1</f>
         <v>-6.5926586612974347E-5</v>
       </c>
@@ -17784,9 +17856,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M245" s="31">
+      <c r="M245" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>4.3979369450549823</v>
+        <v>1.2511025596528023</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -17803,7 +17875,7 @@
       <c r="E246" s="15">
         <v>20</v>
       </c>
-      <c r="F246" s="21">
+      <c r="F246" s="20">
         <f t="shared" si="27"/>
         <v>-1.9703296777908719E-3</v>
       </c>
@@ -17827,9 +17899,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M246" s="31">
+      <c r="M246" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>2.2087298689015689</v>
+        <v>-1.2507460073748573</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -17839,14 +17911,14 @@
       <c r="B247" s="1">
         <v>0.97215806362563195</v>
       </c>
-      <c r="C247" s="24">
+      <c r="C247" s="23">
         <v>5.79752614690079E-4</v>
       </c>
       <c r="D247" s="15"/>
       <c r="E247" s="15">
         <v>20</v>
       </c>
-      <c r="F247" s="22">
+      <c r="F247" s="21">
         <f t="shared" si="27"/>
         <v>-2.161249715528224E-3</v>
       </c>
@@ -17870,9 +17942,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M247" s="31">
+      <c r="M247" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>2.3707978861212351</v>
+        <v>-1.8450405018102032</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -17882,14 +17954,14 @@
       <c r="B248" s="1">
         <v>0.97256866184810697</v>
       </c>
-      <c r="C248" s="24">
+      <c r="C248" s="23">
         <v>5.3117779113690596E-4</v>
       </c>
       <c r="D248" s="15"/>
       <c r="E248" s="15">
         <v>20</v>
       </c>
-      <c r="F248" s="22">
+      <c r="F248" s="21">
         <f t="shared" si="27"/>
         <v>-1.739805063147859E-3</v>
       </c>
@@ -17913,9 +17985,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M248" s="31">
+      <c r="M248" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>3.3605970084608359</v>
+        <v>-1.2407688040719862</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -17925,14 +17997,14 @@
       <c r="B249" s="1">
         <v>0.97285065629054002</v>
       </c>
-      <c r="C249" s="24">
+      <c r="C249" s="23">
         <v>4.9806844688671801E-4</v>
       </c>
       <c r="D249" s="15"/>
       <c r="E249" s="15">
         <v>20</v>
       </c>
-      <c r="F249" s="22">
+      <c r="F249" s="21">
         <f t="shared" si="27"/>
         <v>-1.4503614093296369E-3</v>
       </c>
@@ -17956,9 +18028,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M249" s="31">
+      <c r="M249" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>4.1501704257902983</v>
+        <v>-0.75707343555384587</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -17968,14 +18040,14 @@
       <c r="B250" s="1">
         <v>0.97398483701930805</v>
       </c>
-      <c r="C250" s="24">
+      <c r="C250" s="23">
         <v>4.5871639258491999E-4</v>
       </c>
       <c r="D250" s="15"/>
       <c r="E250" s="15">
         <v>20</v>
       </c>
-      <c r="F250" s="22">
+      <c r="F250" s="21">
         <f t="shared" si="27"/>
         <v>-2.8621997663935694E-4</v>
       </c>
@@ -17999,9 +18071,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M250" s="31">
+      <c r="M250" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>6.9787121602896756</v>
+        <v>1.6504889530460267</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -18011,14 +18083,14 @@
       <c r="B251" s="1">
         <v>0.97261275469606201</v>
       </c>
-      <c r="C251" s="24">
+      <c r="C251" s="23">
         <v>4.4868113413586001E-4</v>
       </c>
       <c r="D251" s="15"/>
       <c r="E251" s="15">
         <v>20</v>
       </c>
-      <c r="F251" s="22">
+      <c r="F251" s="21">
         <f t="shared" si="27"/>
         <v>-1.6945474512982672E-3</v>
       </c>
@@ -18042,9 +18114,9 @@
         <f>Table47912[[#This Row],[time /s]]/3600</f>
         <v>0</v>
       </c>
-      <c r="M251" s="31">
+      <c r="M251" s="30">
         <f>(Table47912[[#This Row],[eff (stochastic)]]-$C$190)/Table47912[[#This Row],[std]]</f>
-        <v>4.0767645542606807</v>
+        <v>-1.3706303606634131</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -18291,10 +18363,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF87648-296C-44F9-B191-36BBCC506BF7}">
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:A88"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18320,7 +18392,7 @@
       <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <f>AVERAGE(H7:H17)</f>
         <v>219.47972931048059</v>
       </c>
@@ -18338,7 +18410,7 @@
       <c r="F4">
         <v>20</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <f>_xlfn.STDEV.S(H7:H17)</f>
         <v>2.5954777181250956</v>
       </c>
@@ -18417,11 +18489,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>216.9211513307028</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>2.5610944444444443E-4</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="29">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>9999.9999915826193</v>
       </c>
@@ -18441,7 +18513,7 @@
         <f>K7+L7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="20">
         <f>$C$190</f>
         <v>0</v>
       </c>
@@ -18462,7 +18534,7 @@
       <c r="E8">
         <v>20</v>
       </c>
-      <c r="F8" s="21" t="e">
+      <c r="F8" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -18473,11 +18545,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>220.71400982177343</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>5.0341666666666666E-4</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>34.191309632831889</v>
       </c>
@@ -18497,7 +18569,7 @@
         <f t="shared" ref="N8:N30" si="4">K8+L8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="20">
         <f t="shared" ref="O8:O30" si="5">$C$190</f>
         <v>0</v>
       </c>
@@ -18518,7 +18590,7 @@
       <c r="E9" s="15">
         <v>20</v>
       </c>
-      <c r="F9" s="21" t="e">
+      <c r="F9" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -18529,11 +18601,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>220.68848628443126</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>1.2586872222222223E-3</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>63.506081948236414</v>
       </c>
@@ -18553,7 +18625,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -18574,7 +18646,7 @@
       <c r="E10" s="15">
         <v>20</v>
       </c>
-      <c r="F10" s="23" t="e">
+      <c r="F10" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -18585,11 +18657,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>212.96932049156726</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>2.6086177777777777E-3</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>62.378605791990537</v>
       </c>
@@ -18609,7 +18681,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -18630,7 +18702,7 @@
       <c r="E11" s="15">
         <v>20</v>
       </c>
-      <c r="F11" s="21" t="e">
+      <c r="F11" s="20" t="e">
         <f>B11/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -18641,11 +18713,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>222.41383173826472</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>4.9956925000000001E-3</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>119.45638564247265</v>
       </c>
@@ -18665,7 +18737,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -18686,7 +18758,7 @@
       <c r="E12" s="15">
         <v>20</v>
       </c>
-      <c r="F12" s="21" t="e">
+      <c r="F12" s="20" t="e">
         <f>B12/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -18697,11 +18769,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>219.40237994976434</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>1.2660654722222222E-2</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>165.41142033723838</v>
       </c>
@@ -18721,7 +18793,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -18742,7 +18814,7 @@
       <c r="E13" s="15">
         <v>20</v>
       </c>
-      <c r="F13" s="21" t="e">
+      <c r="F13" s="20" t="e">
         <f>B13/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -18753,11 +18825,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>220.59361935989162</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>2.014765638888889E-2</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>190.1266970268843</v>
       </c>
@@ -18777,7 +18849,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -18798,7 +18870,7 @@
       <c r="E14" s="15">
         <v>20</v>
       </c>
-      <c r="F14" s="23" t="e">
+      <c r="F14" s="22" t="e">
         <f t="shared" ref="F14:F15" si="6">B14/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -18809,11 +18881,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>220.26995007515498</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>2.5221577222222225E-2</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>235.953536995077</v>
       </c>
@@ -18833,7 +18905,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -18854,7 +18926,7 @@
       <c r="E15" s="15">
         <v>20</v>
       </c>
-      <c r="F15" s="23" t="e">
+      <c r="F15" s="22" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -18865,11 +18937,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>218.8935170214034</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>5.0760348055555557E-2</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>301.7549437635991</v>
       </c>
@@ -18889,7 +18961,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -18910,7 +18982,7 @@
       <c r="E16" s="15">
         <v>20</v>
       </c>
-      <c r="F16" s="23" t="e">
+      <c r="F16" s="22" t="e">
         <f>B16/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -18921,11 +18993,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>219.80522685179778</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>7.5824705833333325E-2</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="29">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>462.09015676120026</v>
       </c>
@@ -18945,7 +19017,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -18966,7 +19038,7 @@
       <c r="E17" s="15">
         <v>20</v>
       </c>
-      <c r="F17" s="23" t="e">
+      <c r="F17" s="22" t="e">
         <f t="shared" ref="F17:F30" si="7">B17/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -18977,11 +19049,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>221.60552949053479</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>0.12534785500000001</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>524.08376491090746</v>
       </c>
@@ -19001,7 +19073,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19022,7 +19094,7 @@
       <c r="E18" s="15">
         <v>20</v>
       </c>
-      <c r="F18" s="21" t="e">
+      <c r="F18" s="20" t="e">
         <f>B18/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -19033,11 +19105,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>207.45042924575932</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>0.18746111555555556</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>590.35019124744645</v>
       </c>
@@ -19057,7 +19129,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19078,7 +19150,7 @@
       <c r="E19" s="15">
         <v>20</v>
       </c>
-      <c r="F19" s="21" t="e">
+      <c r="F19" s="20" t="e">
         <f>B19/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -19089,11 +19161,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>211.37447450274462</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>0.21026400916666665</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>616.22494444163283</v>
       </c>
@@ -19113,7 +19185,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19134,7 +19206,7 @@
       <c r="E20" s="15">
         <v>20</v>
       </c>
-      <c r="F20" s="21" t="e">
+      <c r="F20" s="20" t="e">
         <f>B20/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -19145,11 +19217,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>213.33519450117535</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>0.23437295527777779</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>666.61720940058945</v>
       </c>
@@ -19169,7 +19241,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19190,7 +19262,7 @@
       <c r="E21" s="15">
         <v>17</v>
       </c>
-      <c r="F21" s="23" t="e">
+      <c r="F21" s="22" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19201,11 +19273,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>187.84004102532572</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>0.25139593222222223</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>699.41250257356251</v>
       </c>
@@ -19225,7 +19297,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19246,7 +19318,7 @@
       <c r="E22" s="15">
         <v>20</v>
       </c>
-      <c r="F22" s="21" t="e">
+      <c r="F22" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19257,11 +19329,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>225.08008430991276</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>0.49365145500000002</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>968.70682130474393</v>
       </c>
@@ -19281,7 +19353,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19302,7 +19374,7 @@
       <c r="E23" s="15">
         <v>20</v>
       </c>
-      <c r="F23" s="21" t="e">
+      <c r="F23" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19313,11 +19385,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>212.70792981841393</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>0.78354702999999992</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>1245.4566035866324</v>
       </c>
@@ -19337,7 +19409,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19358,7 +19430,7 @@
       <c r="E24" s="15">
         <v>20</v>
       </c>
-      <c r="F24" s="21" t="e">
+      <c r="F24" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19369,11 +19441,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>213.1852494015566</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>1.0423902350000001</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>1422.8927631845067</v>
       </c>
@@ -19393,7 +19465,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19414,7 +19486,7 @@
       <c r="E25" s="15">
         <v>20</v>
       </c>
-      <c r="F25" s="21" t="e">
+      <c r="F25" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19425,11 +19497,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>218.32853015879644</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>1.2722926205555556</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>1586.8112505638362</v>
       </c>
@@ -19449,7 +19521,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19470,7 +19542,7 @@
       <c r="E26" s="15">
         <v>20</v>
       </c>
-      <c r="F26" s="21" t="e">
+      <c r="F26" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19481,11 +19553,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>211.38033618125252</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>1.5769363383333332</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>1722.8669873940737</v>
       </c>
@@ -19505,7 +19577,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19526,7 +19598,7 @@
       <c r="E27" s="15">
         <v>20</v>
       </c>
-      <c r="F27" s="21" t="e">
+      <c r="F27" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19537,11 +19609,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>212.7678606520885</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>1.8277614283333332</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>1885.1438369491191</v>
       </c>
@@ -19561,7 +19633,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19582,7 +19654,7 @@
       <c r="E28" s="15">
         <v>20</v>
       </c>
-      <c r="F28" s="21" t="e">
+      <c r="F28" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19593,11 +19665,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>214.36295901144678</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>2.0733266908333334</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>2008.6377370440205</v>
       </c>
@@ -19617,7 +19689,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19638,7 +19710,7 @@
       <c r="E29" s="15">
         <v>20</v>
       </c>
-      <c r="F29" s="21" t="e">
+      <c r="F29" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19649,11 +19721,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>220.09392365375422</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>2.271757401111111</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>2079.8570402733844</v>
       </c>
@@ -19673,7 +19745,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19694,7 +19766,7 @@
       <c r="E30" s="15">
         <v>20</v>
       </c>
-      <c r="F30" s="21" t="e">
+      <c r="F30" s="20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19705,11 +19777,11 @@
         <f>Table4811[[#This Row],[N]]*Table4811[[#This Row],[interation]]/Table4811[[#This Row],[time /s]]</f>
         <v>215.50697737183557</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="24">
         <f>Table4811[[#This Row],[time /s]]/3600</f>
         <v>2.5779005502777776</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="30">
         <f>(Table4811[[#This Row],[eff (stochastic)]]-$C$190)/Table4811[[#This Row],[std]]</f>
         <v>2161.2455556802747</v>
       </c>
@@ -19729,7 +19801,7 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19755,7 +19827,7 @@
       <c r="E34" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="24">
         <f>AVERAGE(K38:K48)*3</f>
         <v>213.5367421130548</v>
       </c>
@@ -19765,11 +19837,11 @@
       <c r="K34" t="s">
         <v>53</v>
       </c>
-      <c r="O34" s="29" t="e">
+      <c r="O34" s="28" t="e">
         <f>H34/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="P34" s="33" t="s">
+      <c r="P34" s="32" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19780,7 +19852,7 @@
       <c r="F35">
         <v>20</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="24">
         <f>_xlfn.STDEV.S(K38:K48)</f>
         <v>4.4405190304637721</v>
       </c>
@@ -19866,7 +19938,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>8.5899750000000008E-4</v>
       </c>
-      <c r="M38" s="30">
+      <c r="M38" s="29">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>9999.9999999975589</v>
       </c>
@@ -19888,7 +19960,7 @@
       <c r="E39">
         <v>20</v>
       </c>
-      <c r="F39" s="21" t="e">
+      <c r="F39" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -19912,7 +19984,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>1.6410891666666667E-3</v>
       </c>
-      <c r="M39" s="30">
+      <c r="M39" s="29">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>9999.9999998685998</v>
       </c>
@@ -19934,7 +20006,7 @@
       <c r="E40" s="15">
         <v>20</v>
       </c>
-      <c r="F40" s="21" t="e">
+      <c r="F40" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -19958,7 +20030,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>3.5199205555555553E-3</v>
       </c>
-      <c r="M40" s="30">
+      <c r="M40" s="29">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>222.74460124849901</v>
       </c>
@@ -19980,7 +20052,7 @@
       <c r="E41" s="15">
         <v>20</v>
       </c>
-      <c r="F41" s="23" t="e">
+      <c r="F41" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -20004,7 +20076,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>8.3159855555555561E-3</v>
       </c>
-      <c r="M41" s="30">
+      <c r="M41" s="29">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>1754.558308093365</v>
       </c>
@@ -20026,7 +20098,7 @@
       <c r="E42" s="15">
         <v>20</v>
       </c>
-      <c r="F42" s="21" t="e">
+      <c r="F42" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -20050,7 +20122,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>1.5803089999999999E-2</v>
       </c>
-      <c r="M42" s="31">
+      <c r="M42" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>72.285471942501857</v>
       </c>
@@ -20072,7 +20144,7 @@
       <c r="E43" s="15">
         <v>20</v>
       </c>
-      <c r="F43" s="21" t="e">
+      <c r="F43" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -20096,7 +20168,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>3.6146163888888888E-2</v>
       </c>
-      <c r="M43" s="31">
+      <c r="M43" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>151.21058431228764</v>
       </c>
@@ -20118,7 +20190,7 @@
       <c r="E44" s="15">
         <v>20</v>
       </c>
-      <c r="F44" s="21" t="e">
+      <c r="F44" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -20142,7 +20214,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>6.3845862222222216E-2</v>
       </c>
-      <c r="M44" s="31">
+      <c r="M44" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>205.69827422191409</v>
       </c>
@@ -20164,7 +20236,7 @@
       <c r="E45" s="15">
         <v>20</v>
       </c>
-      <c r="F45" s="23" t="e">
+      <c r="F45" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -20188,7 +20260,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>8.0781708333333327E-2</v>
       </c>
-      <c r="M45" s="31">
+      <c r="M45" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>243.42562413686551</v>
       </c>
@@ -20210,7 +20282,7 @@
       <c r="E46" s="15">
         <v>20</v>
       </c>
-      <c r="F46" s="23" t="e">
+      <c r="F46" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -20234,7 +20306,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>0.15119333777777777</v>
       </c>
-      <c r="M46" s="31">
+      <c r="M46" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>315.92279038555517</v>
       </c>
@@ -20256,7 +20328,7 @@
       <c r="E47" s="15">
         <v>20</v>
       </c>
-      <c r="F47" s="23" t="e">
+      <c r="F47" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -20280,7 +20352,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>0.2362752127777778</v>
       </c>
-      <c r="M47" s="31">
+      <c r="M47" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>405.71847736955976</v>
       </c>
@@ -20302,7 +20374,7 @@
       <c r="E48" s="15">
         <v>20</v>
       </c>
-      <c r="F48" s="23" t="e">
+      <c r="F48" s="22" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -20326,7 +20398,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>0.36892216194444449</v>
       </c>
-      <c r="M48" s="31">
+      <c r="M48" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>510.25543106482894</v>
       </c>
@@ -20348,7 +20420,7 @@
       <c r="E49" s="15">
         <v>20</v>
       </c>
-      <c r="F49" s="21" t="e">
+      <c r="F49" s="20" t="e">
         <f>B49/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -20372,7 +20444,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>0.55893108194444441</v>
       </c>
-      <c r="M49" s="31">
+      <c r="M49" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>607.81119041255772</v>
       </c>
@@ -20394,7 +20466,7 @@
       <c r="E50" s="15">
         <v>20</v>
       </c>
-      <c r="F50" s="21" t="e">
+      <c r="F50" s="20" t="e">
         <f>B50/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -20418,7 +20490,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>0.63206371638888892</v>
       </c>
-      <c r="M50" s="31">
+      <c r="M50" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>644.89723710473572</v>
       </c>
@@ -20440,7 +20512,7 @@
       <c r="E51" s="15">
         <v>20</v>
       </c>
-      <c r="F51" s="21" t="e">
+      <c r="F51" s="20" t="e">
         <f>B51/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -20464,7 +20536,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>0.70036014055555562</v>
       </c>
-      <c r="M51" s="31">
+      <c r="M51" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>701.65747112730651</v>
       </c>
@@ -20510,7 +20582,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>0.73493317555555548</v>
       </c>
-      <c r="M52" s="31">
+      <c r="M52" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>718.82349736091601</v>
       </c>
@@ -20532,7 +20604,7 @@
       <c r="E53" s="15">
         <v>20</v>
       </c>
-      <c r="F53" s="21" t="e">
+      <c r="F53" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -20556,7 +20628,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>1.5902536119444444</v>
       </c>
-      <c r="M53" s="31">
+      <c r="M53" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>989.28704837668874</v>
       </c>
@@ -20578,7 +20650,7 @@
       <c r="E54" s="15">
         <v>20</v>
       </c>
-      <c r="F54" s="21" t="e">
+      <c r="F54" s="20" t="e">
         <f>B54/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -20602,7 +20674,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>2.503488096111111</v>
       </c>
-      <c r="M54" s="31">
+      <c r="M54" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>1266.8454167481375</v>
       </c>
@@ -20624,7 +20696,7 @@
       <c r="E55" s="15">
         <v>20</v>
       </c>
-      <c r="F55" s="21" t="e">
+      <c r="F55" s="20" t="e">
         <f>B55/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -20648,7 +20720,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>3.2372024766666669</v>
       </c>
-      <c r="M55" s="31">
+      <c r="M55" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>1424.6518971767807</v>
       </c>
@@ -20661,7 +20733,7 @@
       <c r="B56" s="1">
         <v>0.97121193616395196</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="23">
         <v>6.4411024443377198E-4</v>
       </c>
       <c r="D56" s="15">
@@ -20670,7 +20742,7 @@
       <c r="E56" s="15">
         <v>20</v>
       </c>
-      <c r="F56" s="22" t="e">
+      <c r="F56" s="21" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -20694,7 +20766,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>3.8304989049999998</v>
       </c>
-      <c r="M56" s="30">
+      <c r="M56" s="29">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>1507.834946823009</v>
       </c>
@@ -20707,7 +20779,7 @@
       <c r="B57" s="1">
         <v>0.97326746432650402</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="23">
         <v>5.6627169570918202E-4</v>
       </c>
       <c r="D57" s="15">
@@ -20716,7 +20788,7 @@
       <c r="E57" s="15">
         <v>20</v>
       </c>
-      <c r="F57" s="22" t="e">
+      <c r="F57" s="21" t="e">
         <f>B57/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -20740,7 +20812,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>4.7616726766666666</v>
       </c>
-      <c r="M57" s="31">
+      <c r="M57" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>1718.7287863780873</v>
       </c>
@@ -20753,7 +20825,7 @@
       <c r="B58" s="1">
         <v>0.97296981842303698</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="23">
         <v>5.2653560070763398E-4</v>
       </c>
       <c r="D58" s="15">
@@ -20762,7 +20834,7 @@
       <c r="E58" s="15">
         <v>20</v>
       </c>
-      <c r="F58" s="22" t="e">
+      <c r="F58" s="21" t="e">
         <f>B58/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -20786,7 +20858,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>4.9308204097222221</v>
       </c>
-      <c r="M58" s="31">
+      <c r="M58" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>1847.8709077134019</v>
       </c>
@@ -20799,7 +20871,7 @@
       <c r="B59" s="1">
         <v>0.97386837005321503</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="23">
         <v>4.8813942738869801E-4</v>
       </c>
       <c r="D59" s="15">
@@ -20808,7 +20880,7 @@
       <c r="E59" s="15">
         <v>20</v>
       </c>
-      <c r="F59" s="22" t="e">
+      <c r="F59" s="21" t="e">
         <f>B59/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -20832,7 +20904,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>5.9822249452777783</v>
       </c>
-      <c r="M59" s="31">
+      <c r="M59" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>1995.0618929983266</v>
       </c>
@@ -20845,7 +20917,7 @@
       <c r="B60" s="1">
         <v>0.97368289695070898</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="23">
         <v>4.6263515468804902E-4</v>
       </c>
       <c r="D60" s="15">
@@ -20854,7 +20926,7 @@
       <c r="E60" s="15">
         <v>20</v>
       </c>
-      <c r="F60" s="22" t="e">
+      <c r="F60" s="21" t="e">
         <f>B60/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -20878,7 +20950,7 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>6.1158406919444444</v>
       </c>
-      <c r="M60" s="31">
+      <c r="M60" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>2104.6452849162642</v>
       </c>
@@ -20891,7 +20963,7 @@
       <c r="B61" s="1">
         <v>0.97396948608297595</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="23">
         <v>4.3690968675606399E-4</v>
       </c>
       <c r="D61" s="15">
@@ -20900,7 +20972,7 @@
       <c r="E61" s="15">
         <v>20</v>
       </c>
-      <c r="F61" s="22" t="e">
+      <c r="F61" s="21" t="e">
         <f>B61/B$5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -20924,9 +20996,14 @@
         <f>Table47913[[#This Row],[time /s]]/3600</f>
         <v>7.4371982630555555</v>
       </c>
-      <c r="M61" s="31">
+      <c r="M61" s="30">
         <f>(Table47913[[#This Row],[eff (stochastic)]]-$C$190)/Table47913[[#This Row],[std]]</f>
         <v>2229.2238318505488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -21248,6 +21325,306 @@
         <v>4.3408346688334902E-4</v>
       </c>
       <c r="D88">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1.0547729099461001</v>
+      </c>
+      <c r="B93">
+        <v>0.957111193128655</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1.08401169040547</v>
+      </c>
+      <c r="B94">
+        <v>0.98843521604292295</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1.5708039099949</v>
+      </c>
+      <c r="B95">
+        <v>0.97997100063614595</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1.42832958169987</v>
+      </c>
+      <c r="B96">
+        <v>0.99061793743695903</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1.2628470828235401</v>
+      </c>
+      <c r="B97">
+        <v>0.98734002335990201</v>
+      </c>
+      <c r="C97">
+        <v>5.3792399683596599E-3</v>
+      </c>
+      <c r="D97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1.09017480071253</v>
+      </c>
+      <c r="B98">
+        <v>0.98576708521919998</v>
+      </c>
+      <c r="C98">
+        <v>3.8741627265725998E-3</v>
+      </c>
+      <c r="D98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1.29510066134612</v>
+      </c>
+      <c r="B99">
+        <v>0.98962031844597698</v>
+      </c>
+      <c r="C99">
+        <v>2.91059940774875E-3</v>
+      </c>
+      <c r="D99">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1.07234225617805</v>
+      </c>
+      <c r="B100">
+        <v>0.98873430695336095</v>
+      </c>
+      <c r="C100">
+        <v>2.3628048579193502E-3</v>
+      </c>
+      <c r="D100">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1.4300124203095099</v>
+      </c>
+      <c r="B101">
+        <v>0.989622111464868</v>
+      </c>
+      <c r="C101">
+        <v>1.85193507594969E-3</v>
+      </c>
+      <c r="D101">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1.21466155856191</v>
+      </c>
+      <c r="B102">
+        <v>0.99028485554039103</v>
+      </c>
+      <c r="C102">
+        <v>1.45191170592809E-3</v>
+      </c>
+      <c r="D102">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1.32621184770053</v>
+      </c>
+      <c r="B103">
+        <v>0.98626839524180798</v>
+      </c>
+      <c r="C103">
+        <v>1.35255645324608E-3</v>
+      </c>
+      <c r="D103">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1.22630386953992</v>
+      </c>
+      <c r="B104">
+        <v>0.98600823290985096</v>
+      </c>
+      <c r="C104">
+        <v>1.1656211668561599E-3</v>
+      </c>
+      <c r="D104">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1.1934703427439901</v>
+      </c>
+      <c r="B105">
+        <v>0.98613298622466194</v>
+      </c>
+      <c r="C105">
+        <v>1.0827218957148201E-3</v>
+      </c>
+      <c r="D105">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1.2533496138281801</v>
+      </c>
+      <c r="B106">
+        <v>0.98677124422469598</v>
+      </c>
+      <c r="C106">
+        <v>9.900073886806159E-4</v>
+      </c>
+      <c r="D106">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1.2529751631559201</v>
+      </c>
+      <c r="B107">
+        <v>0.98717880575428796</v>
+      </c>
+      <c r="C107">
+        <v>9.1814912496593197E-4</v>
+      </c>
+      <c r="D107">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1.1916430038366099</v>
+      </c>
+      <c r="B108">
+        <v>0.98622870587171896</v>
+      </c>
+      <c r="C108">
+        <v>6.8082692249355403E-4</v>
+      </c>
+      <c r="D108">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1.1691958397003299</v>
+      </c>
+      <c r="B109">
+        <v>0.98593990300911205</v>
+      </c>
+      <c r="C109">
+        <v>5.5989946778249599E-4</v>
+      </c>
+      <c r="D109">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1.1925183717754</v>
+      </c>
+      <c r="B110">
+        <v>0.98560025196049805</v>
+      </c>
+      <c r="C110">
+        <v>4.9847724723421801E-4</v>
+      </c>
+      <c r="D110">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1.1635998108606</v>
+      </c>
+      <c r="B111">
+        <v>0.98532206689915403</v>
+      </c>
+      <c r="C111">
+        <v>4.1553009652821202E-4</v>
+      </c>
+      <c r="D111">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1.1635998108606</v>
+      </c>
+      <c r="B112">
+        <v>0.98532206689915403</v>
+      </c>
+      <c r="C112">
+        <v>4.1553009652821202E-4</v>
+      </c>
+      <c r="D112">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115">
         <v>100000</v>
       </c>
     </row>
@@ -21258,4 +21635,652 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0462FA0C-6212-4E69-BBEF-E3A2BE8C1178}">
+  <dimension ref="A1:W74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.97426000000000001</v>
+      </c>
+      <c r="B1">
+        <v>3.2000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4">
+        <v>1.2245028526119499</v>
+      </c>
+      <c r="Q4">
+        <v>1.1406209586312901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B5">
+        <v>0.97262210005147298</v>
+      </c>
+      <c r="C5">
+        <v>1.40081607473623E-3</v>
+      </c>
+      <c r="D5">
+        <f>B5-A$1</f>
+        <v>-1.6378999485270329E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.1829166848458801</v>
+      </c>
+      <c r="F5">
+        <v>0.97374822200733402</v>
+      </c>
+      <c r="G5">
+        <v>1.3342256105425201E-3</v>
+      </c>
+      <c r="H5">
+        <f>F5-A$1</f>
+        <v>-5.11777992665996E-4</v>
+      </c>
+      <c r="I5">
+        <v>1.11847128363379</v>
+      </c>
+      <c r="M5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.97426377468541703</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1.3479539773469901E-3</v>
+      </c>
+      <c r="D6" s="32">
+        <f>B6-A$1</f>
+        <v>3.7746854170128685E-6</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1.2245028526119499</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0.97424233596556198</v>
+      </c>
+      <c r="G6" s="32">
+        <v>1.3524645578373499E-3</v>
+      </c>
+      <c r="H6" s="32">
+        <f>F6-A$1</f>
+        <v>-1.7664034438036325E-5</v>
+      </c>
+      <c r="I6" s="32">
+        <v>1.17662995270681</v>
+      </c>
+      <c r="M6">
+        <v>0.97148570773601695</v>
+      </c>
+      <c r="Q6">
+        <v>0.96946519027059397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0.97191922444732104</v>
+      </c>
+      <c r="C7" s="32">
+        <v>1.396620507149E-3</v>
+      </c>
+      <c r="D7" s="32">
+        <f>B7-A$1</f>
+        <v>-2.3407755526789753E-3</v>
+      </c>
+      <c r="E7" s="32">
+        <v>1.1829166848458801</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0.97211017787448595</v>
+      </c>
+      <c r="G7" s="32">
+        <v>1.4065352709264299E-3</v>
+      </c>
+      <c r="H7" s="32">
+        <f>F7-A$1</f>
+        <v>-2.149822125514067E-3</v>
+      </c>
+      <c r="I7" s="32">
+        <v>1.24806298737549</v>
+      </c>
+      <c r="M7">
+        <v>1.3054543443133399E-3</v>
+      </c>
+      <c r="Q7">
+        <v>6.0439040957622396E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>0.97426377468541703</v>
+      </c>
+      <c r="Q8">
+        <v>0.97275713045455003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>1.3479539773469901E-3</v>
+      </c>
+      <c r="Q9">
+        <v>6.2135687226712603E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>0.95395799883661703</v>
+      </c>
+      <c r="Q10">
+        <v>0.95006215003140304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>1.7891888214391801E-3</v>
+      </c>
+      <c r="Q11">
+        <v>8.2989651472994703E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="D12">
+        <f>B12/C12</f>
+        <v>1.3342912860515241E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" t="s">
+        <v>85</v>
+      </c>
+      <c r="U13" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" t="s">
+        <v>81</v>
+      </c>
+      <c r="W13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>1.10415137511624</v>
+      </c>
+      <c r="Q15">
+        <v>1.2023053894576201</v>
+      </c>
+      <c r="U15">
+        <v>1.17662995270681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>86</v>
+      </c>
+      <c r="U16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>0.98696474534663803</v>
+      </c>
+      <c r="Q17">
+        <v>0.98556753551335896</v>
+      </c>
+      <c r="U17">
+        <v>0.98628189935475896</v>
+      </c>
+    </row>
+    <row r="18" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>9.3696982328642401E-4</v>
+      </c>
+      <c r="Q18">
+        <v>4.4743227319884901E-4</v>
+      </c>
+      <c r="U18">
+        <v>9.4874473374227295E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>0.97504759644251005</v>
+      </c>
+      <c r="Q19">
+        <v>0.97294086758255205</v>
+      </c>
+      <c r="U19">
+        <v>0.97424233596556198</v>
+      </c>
+    </row>
+    <row r="20" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>1.3101148603599001E-3</v>
+      </c>
+      <c r="Q20">
+        <v>6.23922798523186E-4</v>
+      </c>
+      <c r="U20">
+        <v>1.3524645578373499E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>0.95341199726103298</v>
+      </c>
+      <c r="Q21">
+        <v>0.95172140985710796</v>
+      </c>
+      <c r="U21">
+        <v>0.95385810288184403</v>
+      </c>
+    </row>
+    <row r="22" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>1.7765699975721E-3</v>
+      </c>
+      <c r="Q22">
+        <v>8.2401376076991501E-4</v>
+      </c>
+      <c r="U22">
+        <v>1.78806033300176E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>1.17566580750516</v>
+      </c>
+    </row>
+    <row r="25" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>0.98616330246178696</v>
+      </c>
+    </row>
+    <row r="27" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>9.5833087573336199E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>0.97337803850305404</v>
+      </c>
+    </row>
+    <row r="29" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>1.35178295518134E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>0.95118831604441301</v>
+      </c>
+    </row>
+    <row r="31" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>1.83238568490605E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>80</v>
+      </c>
+      <c r="N33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>1.1829166848458801</v>
+      </c>
+    </row>
+    <row r="36" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>0.96882900503740199</v>
+      </c>
+    </row>
+    <row r="38" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>1.3517131663751301E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>0.97191922444732104</v>
+      </c>
+    </row>
+    <row r="40" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>1.396620507149E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>0.94924177654126196</v>
+      </c>
+    </row>
+    <row r="42" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>1.86906897699168E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>80</v>
+      </c>
+      <c r="N44" t="s">
+        <v>90</v>
+      </c>
+      <c r="O44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>1.03922218790423</v>
+      </c>
+      <c r="S46">
+        <v>1.1114338167459701</v>
+      </c>
+    </row>
+    <row r="47" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>91</v>
+      </c>
+      <c r="S47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>0.96899218501017204</v>
+      </c>
+      <c r="S48">
+        <v>0.96959403628345797</v>
+      </c>
+    </row>
+    <row r="49" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>1.33612183262687E-3</v>
+      </c>
+      <c r="S49">
+        <v>1.36252715762884E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>0.972553733350075</v>
+      </c>
+      <c r="S50">
+        <v>0.97262210005147298</v>
+      </c>
+    </row>
+    <row r="51" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>1.37808168771087E-3</v>
+      </c>
+      <c r="S51">
+        <v>1.40081607473623E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>0.94877023851547604</v>
+      </c>
+      <c r="S52">
+        <v>0.95155504659807699</v>
+      </c>
+    </row>
+    <row r="53" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>1.8510439920230899E-3</v>
+      </c>
+      <c r="S53">
+        <v>1.83360712037638E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M55" t="s">
+        <v>84</v>
+      </c>
+      <c r="N55" t="s">
+        <v>92</v>
+      </c>
+      <c r="O55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>1.11847128363379</v>
+      </c>
+      <c r="S56">
+        <v>1.1297591507654601</v>
+      </c>
+    </row>
+    <row r="57" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>93</v>
+      </c>
+      <c r="S57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>0.98736409487009102</v>
+      </c>
+      <c r="S58">
+        <v>0.98672687748648602</v>
+      </c>
+    </row>
+    <row r="59" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>9.1574493827155899E-4</v>
+      </c>
+      <c r="S59">
+        <v>9.2714137761609403E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>0.97574552474485299</v>
+      </c>
+      <c r="S60">
+        <v>0.97374822200733402</v>
+      </c>
+    </row>
+    <row r="61" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>1.29667247549148E-3</v>
+      </c>
+      <c r="S61">
+        <v>1.3342256105425201E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>0.95543621410152502</v>
+      </c>
+      <c r="S62">
+        <v>0.95060287701069002</v>
+      </c>
+    </row>
+    <row r="63" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>1.75012986302337E-3</v>
+      </c>
+      <c r="S63">
+        <v>1.8250266457332999E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>94</v>
+      </c>
+      <c r="N66" t="s">
+        <v>95</v>
+      </c>
+      <c r="O66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>1.24806298737549</v>
+      </c>
+    </row>
+    <row r="68" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>0.98480079259166398</v>
+      </c>
+    </row>
+    <row r="70" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>1.01799243415998E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>0.97211017787448595</v>
+      </c>
+    </row>
+    <row r="72" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>1.4065352709264299E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>0.95081821011073997</v>
+      </c>
+    </row>
+    <row r="74" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>1.85388278809804E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>